--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1702112860298257</v>
+        <v>0.1702112860299536</v>
       </c>
       <c r="E2">
-        <v>0.7199346492092502</v>
+        <v>0.7199346492092218</v>
       </c>
       <c r="F2">
         <v>2.822566902682553</v>
       </c>
       <c r="G2">
-        <v>2.501867032421586</v>
+        <v>2.5018670324216</v>
       </c>
       <c r="H2">
         <v>0.3483432514161677</v>
       </c>
       <c r="I2">
-        <v>0.3555958456081498</v>
+        <v>0.3555958456081072</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.203555701162628</v>
+        <v>2.203555701162657</v>
       </c>
       <c r="L2">
         <v>2.583347665460792</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.54853824015899</v>
+        <v>1.548538240158962</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1438270189132567</v>
+        <v>0.1438270189131714</v>
       </c>
       <c r="E3">
-        <v>0.6291012038168802</v>
+        <v>0.6291012038168375</v>
       </c>
       <c r="F3">
         <v>2.411726166986554</v>
       </c>
       <c r="G3">
-        <v>2.133001506622278</v>
+        <v>2.133001506622293</v>
       </c>
       <c r="H3">
         <v>0.3403500020160095</v>
       </c>
       <c r="I3">
-        <v>0.3130891237492506</v>
+        <v>0.3130891237492293</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.403708842250524</v>
+        <v>1.403708842250552</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.128310042773208</v>
+        <v>0.1283100427732222</v>
       </c>
       <c r="E4">
-        <v>0.5739498459273449</v>
+        <v>0.5739498459273591</v>
       </c>
       <c r="F4">
         <v>2.173080099500368</v>
       </c>
       <c r="G4">
-        <v>1.918443044901878</v>
+        <v>1.918443044901863</v>
       </c>
       <c r="H4">
-        <v>0.33744682556258</v>
+        <v>0.3374468255625871</v>
       </c>
       <c r="I4">
         <v>0.2871896176359314</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.71223525112714</v>
+        <v>1.712235251127112</v>
       </c>
       <c r="L4">
-        <v>2.015567023243804</v>
+        <v>2.015567023243818</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.344899284871332</v>
+        <v>1.344899284871047</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1221283820144805</v>
+        <v>0.122128382014381</v>
       </c>
       <c r="E5">
-        <v>0.5515955420242875</v>
+        <v>0.5515955420242946</v>
       </c>
       <c r="F5">
-        <v>2.078741972792074</v>
+        <v>2.078741972792088</v>
       </c>
       <c r="G5">
         <v>1.833553750418176</v>
       </c>
       <c r="H5">
-        <v>0.3367247339160144</v>
+        <v>0.3367247339160109</v>
       </c>
       <c r="I5">
         <v>0.2766735057339531</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.637645497403241</v>
+        <v>1.637645497403255</v>
       </c>
       <c r="L5">
-        <v>1.928974238334902</v>
+        <v>1.928974238334874</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335145044270064</v>
+        <v>1.335145044269922</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1211096792266204</v>
+        <v>0.1211096792264215</v>
       </c>
       <c r="E6">
-        <v>0.5478899509409274</v>
+        <v>0.5478899509409487</v>
       </c>
       <c r="F6">
-        <v>2.063239473431977</v>
+        <v>2.063239473431963</v>
       </c>
       <c r="G6">
         <v>1.8195995713575</v>
       </c>
       <c r="H6">
-        <v>0.3366315039917609</v>
+        <v>0.3366315039917893</v>
       </c>
       <c r="I6">
-        <v>0.2749292986067289</v>
+        <v>0.2749292986067147</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.625298170241535</v>
+        <v>1.625298170241521</v>
       </c>
       <c r="L6">
-        <v>1.914629900619119</v>
+        <v>1.914629900619104</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.402914941379379</v>
+        <v>1.402914941379407</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1282261378456866</v>
+        <v>0.1282261378458855</v>
       </c>
       <c r="E7">
-        <v>0.5736479240995038</v>
+        <v>0.5736479240995465</v>
       </c>
       <c r="F7">
-        <v>2.171796655443288</v>
+        <v>2.171796655443302</v>
       </c>
       <c r="G7">
         <v>1.917288447756704</v>
       </c>
       <c r="H7">
-        <v>0.3374352741553324</v>
+        <v>0.3374352741553537</v>
       </c>
       <c r="I7">
-        <v>0.2870476538576341</v>
+        <v>0.2870476538576199</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.71122665159271</v>
+        <v>1.711226651592682</v>
       </c>
       <c r="L7">
-        <v>2.014396814907144</v>
+        <v>2.014396814907158</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.703967653057759</v>
+        <v>1.703967653058044</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1609525710461099</v>
+        <v>0.1609525710464652</v>
       </c>
       <c r="E8">
         <v>0.6884630492230457</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.097033943247112</v>
+        <v>2.097033943247084</v>
       </c>
       <c r="L8">
-        <v>2.460632931466037</v>
+        <v>2.460632931466051</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.30601185369494</v>
+        <v>2.306011853695509</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2322096389792705</v>
+        <v>0.2322096389796258</v>
       </c>
       <c r="E9">
-        <v>0.9205285375440866</v>
+        <v>0.920528537544044</v>
       </c>
       <c r="F9">
-        <v>3.805661381337529</v>
+        <v>3.805661381337558</v>
       </c>
       <c r="G9">
-        <v>3.382736444422889</v>
+        <v>3.382736444422932</v>
       </c>
       <c r="H9">
-        <v>0.3784165058081541</v>
+        <v>0.3784165058081754</v>
       </c>
       <c r="I9">
-        <v>0.4487333593149572</v>
+        <v>0.4487333593149785</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.760798927565986</v>
+        <v>2.760798927566043</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2918417028675009</v>
+        <v>0.2918417028679698</v>
       </c>
       <c r="E10">
-        <v>1.098809993278124</v>
+        <v>1.098809993278152</v>
       </c>
       <c r="F10">
-        <v>4.765624727585902</v>
+        <v>4.76562472758593</v>
       </c>
       <c r="G10">
-        <v>4.241392181314154</v>
+        <v>4.241392181314126</v>
       </c>
       <c r="H10">
-        <v>0.4176685582964836</v>
+        <v>0.4176685582964552</v>
       </c>
       <c r="I10">
-        <v>0.5305488641230269</v>
+        <v>0.5305488641230198</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.510064772201218</v>
+        <v>3.510064772201162</v>
       </c>
       <c r="L10">
         <v>4.070654478414014</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.971933428563432</v>
+        <v>2.971933428563659</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3214811965327442</v>
+        <v>0.32148119653273</v>
       </c>
       <c r="E11">
-        <v>1.18272869545423</v>
+        <v>1.182728695454244</v>
       </c>
       <c r="F11">
-        <v>5.245720171645559</v>
+        <v>5.245720171645587</v>
       </c>
       <c r="G11">
         <v>4.670491681438079</v>
       </c>
       <c r="H11">
-        <v>0.4398038017989876</v>
+        <v>0.4398038017989734</v>
       </c>
       <c r="I11">
-        <v>0.5687078622304611</v>
+        <v>0.5687078622304398</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.80510520201679</v>
+        <v>3.805105202016762</v>
       </c>
       <c r="L11">
-        <v>4.401750963623797</v>
+        <v>4.401750963623755</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.052659655481193</v>
+        <v>3.052659655481591</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3331746398965549</v>
+        <v>0.3331746398971234</v>
       </c>
       <c r="E12">
-        <v>1.215042591799914</v>
+        <v>1.215042591799929</v>
       </c>
       <c r="F12">
-        <v>5.435458533207139</v>
+        <v>5.435458533207196</v>
       </c>
       <c r="G12">
-        <v>4.840034316239297</v>
+        <v>4.840034316239326</v>
       </c>
       <c r="H12">
-        <v>0.4489148036947768</v>
+        <v>0.4489148036947341</v>
       </c>
       <c r="I12">
-        <v>0.5833367472817983</v>
+        <v>0.5833367472818054</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.919223116639102</v>
+        <v>3.919223116639131</v>
       </c>
       <c r="L12">
-        <v>4.52931592378701</v>
+        <v>4.529315923787038</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.035236360056899</v>
+        <v>3.035236360057127</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>5.394209521443713</v>
       </c>
       <c r="G13">
-        <v>4.803177554201426</v>
+        <v>4.803177554201454</v>
       </c>
       <c r="H13">
         <v>0.4469180747309665</v>
       </c>
       <c r="I13">
-        <v>0.580177353483819</v>
+        <v>0.5801773534838333</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.978558232833961</v>
+        <v>2.978558232834359</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3224330684714403</v>
+        <v>0.3224330684714261</v>
       </c>
       <c r="E14">
-        <v>1.18537554600239</v>
+        <v>1.185375546002362</v>
       </c>
       <c r="F14">
-        <v>5.261159489122605</v>
+        <v>5.261159489122633</v>
       </c>
       <c r="G14">
-        <v>4.684288417596179</v>
+        <v>4.68428841759615</v>
       </c>
       <c r="H14">
-        <v>0.4405380170275279</v>
+        <v>0.4405380170274995</v>
       </c>
       <c r="I14">
-        <v>0.569907504782698</v>
+        <v>0.5699075047826909</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.814442184622806</v>
+        <v>3.814442184622777</v>
       </c>
       <c r="L14">
-        <v>4.412198742135089</v>
+        <v>4.412198742135061</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.943947571068293</v>
+        <v>2.943947571068861</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3174751616792264</v>
+        <v>0.3174751616790843</v>
       </c>
       <c r="E15">
-        <v>1.17155692924868</v>
+        <v>1.171556929248695</v>
       </c>
       <c r="F15">
-        <v>5.180754883051009</v>
+        <v>5.180754883051065</v>
       </c>
       <c r="G15">
-        <v>4.612436408670675</v>
+        <v>4.612436408670703</v>
       </c>
       <c r="H15">
-        <v>0.4367287833741216</v>
+        <v>0.4367287833740932</v>
       </c>
       <c r="I15">
-        <v>0.5636417510901026</v>
+        <v>0.5636417510900955</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.76571665334464</v>
+        <v>3.765716653344668</v>
       </c>
       <c r="L15">
-        <v>4.357655839945451</v>
+        <v>4.357655839945494</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.747099394406916</v>
+        <v>2.747099394407087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2899637787258484</v>
+        <v>0.2899637787256353</v>
       </c>
       <c r="E16">
-        <v>1.093392676005323</v>
+        <v>1.093392676005266</v>
       </c>
       <c r="F16">
         <v>4.735256909391865</v>
@@ -965,16 +965,16 @@
         <v>0.4163172103756452</v>
       </c>
       <c r="I16">
-        <v>0.5280774489032538</v>
+        <v>0.5280774489032751</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.491085552327291</v>
+        <v>3.49108555232732</v>
       </c>
       <c r="L16">
-        <v>4.049293173912844</v>
+        <v>4.04929317391283</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.627532508181503</v>
+        <v>2.627532508181616</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2737973192226235</v>
+        <v>0.273797319222794</v>
       </c>
       <c r="E17">
-        <v>1.046244173885015</v>
+        <v>1.046244173884972</v>
       </c>
       <c r="F17">
-        <v>4.474138148824778</v>
+        <v>4.474138148824807</v>
       </c>
       <c r="G17">
-        <v>3.980775442443644</v>
+        <v>3.980775442443701</v>
       </c>
       <c r="H17">
-        <v>0.404964527530332</v>
+        <v>0.4049645275303249</v>
       </c>
       <c r="I17">
-        <v>0.5065279803242433</v>
+        <v>0.5065279803242291</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.326253683975523</v>
+        <v>3.326253683975494</v>
       </c>
       <c r="L17">
-        <v>3.863459922422322</v>
+        <v>3.863459922422308</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.55914914548157</v>
+        <v>2.559149145481399</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2647272527514133</v>
+        <v>0.2647272527515128</v>
       </c>
       <c r="E18">
-        <v>1.019381100629204</v>
+        <v>1.019381100629232</v>
       </c>
       <c r="F18">
         <v>4.32791024838491</v>
@@ -1041,16 +1041,16 @@
         <v>0.3988294881759487</v>
       </c>
       <c r="I18">
-        <v>0.4942186027253612</v>
+        <v>0.494218602725347</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.232623782576525</v>
+        <v>3.232623782576553</v>
       </c>
       <c r="L18">
-        <v>3.757652636101184</v>
+        <v>3.757652636101213</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1067,16 +1067,16 @@
         <v>0.2616927276418863</v>
       </c>
       <c r="E19">
-        <v>1.010326245501176</v>
+        <v>1.010326245501147</v>
       </c>
       <c r="F19">
         <v>4.279036055131513</v>
       </c>
       <c r="G19">
-        <v>3.806287943338276</v>
+        <v>3.806287943338305</v>
       </c>
       <c r="H19">
-        <v>0.3968170027892555</v>
+        <v>0.3968170027892413</v>
       </c>
       <c r="I19">
         <v>0.4900643847707116</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.201110488535448</v>
+        <v>3.201110488535477</v>
       </c>
       <c r="L19">
-        <v>3.722000747553395</v>
+        <v>3.722000747553381</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.640219352444092</v>
+        <v>2.64021935244449</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2754939400923035</v>
+        <v>0.2754939400924457</v>
       </c>
       <c r="E20">
         <v>1.051235948001846</v>
       </c>
       <c r="F20">
-        <v>4.501513993107039</v>
+        <v>4.501513993107011</v>
       </c>
       <c r="G20">
-        <v>4.005255513552072</v>
+        <v>4.0052555135521</v>
       </c>
       <c r="H20">
-        <v>0.4061314452727274</v>
+        <v>0.4061314452727345</v>
       </c>
       <c r="I20">
-        <v>0.5088128541952841</v>
+        <v>0.5088128541952699</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>3.343675093865755</v>
       </c>
       <c r="L20">
-        <v>3.883127416565543</v>
+        <v>3.883127416565586</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.995183465137472</v>
+        <v>2.9951834651377</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3248278851901034</v>
+        <v>0.3248278851904445</v>
       </c>
       <c r="E21">
-        <v>1.192021809751637</v>
+        <v>1.192021809751651</v>
       </c>
       <c r="F21">
         <v>5.300008091233877</v>
       </c>
       <c r="G21">
-        <v>4.719003305646908</v>
+        <v>4.719003305646936</v>
       </c>
       <c r="H21">
-        <v>0.4423911768176723</v>
+        <v>0.4423911768176652</v>
       </c>
       <c r="I21">
         <v>0.5729187365506263</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.837895706668974</v>
+        <v>3.837895706668945</v>
       </c>
       <c r="L21">
-        <v>4.438434179837088</v>
+        <v>4.43843417983706</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.231792655915967</v>
+        <v>3.231792655915854</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3598857780062303</v>
+        <v>0.3598857780062161</v>
       </c>
       <c r="E22">
-        <v>1.287250414379955</v>
+        <v>1.287250414379983</v>
       </c>
       <c r="F22">
-        <v>5.86932363831059</v>
+        <v>5.869323638310561</v>
       </c>
       <c r="G22">
-        <v>5.227652261324664</v>
+        <v>5.227652261324636</v>
       </c>
       <c r="H22">
-        <v>0.4704110932752457</v>
+        <v>0.4704110932752599</v>
       </c>
       <c r="I22">
-        <v>0.6158898316684684</v>
+        <v>0.6158898316684756</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>4.175216124779524</v>
       </c>
       <c r="L22">
-        <v>4.814434876738872</v>
+        <v>4.814434876738844</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.1050222256045</v>
+        <v>3.105022225604785</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3408716060243364</v>
+        <v>0.340871606024379</v>
       </c>
       <c r="E23">
-        <v>1.236075801036577</v>
+        <v>1.236075801036549</v>
       </c>
       <c r="F23">
-        <v>5.560424801162867</v>
+        <v>5.560424801162839</v>
       </c>
       <c r="G23">
-        <v>4.951688676125571</v>
+        <v>4.951688676125599</v>
       </c>
       <c r="H23">
-        <v>0.4550159574211534</v>
+        <v>0.4550159574211463</v>
       </c>
       <c r="I23">
-        <v>0.5928387334824805</v>
+        <v>0.5928387334824663</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.993651189254251</v>
+        <v>3.993651189254194</v>
       </c>
       <c r="L23">
-        <v>4.612361441300763</v>
+        <v>4.61236144130072</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.634482529214779</v>
+        <v>2.634482529214495</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.274726207000711</v>
+        <v>0.27472620700037</v>
       </c>
       <c r="E24">
         <v>1.048978418572105</v>
@@ -1263,10 +1263,10 @@
         <v>4.489125369626095</v>
       </c>
       <c r="G24">
-        <v>3.994177433043347</v>
+        <v>3.994177433043319</v>
       </c>
       <c r="H24">
-        <v>0.4056026696910919</v>
+        <v>0.4056026696910848</v>
       </c>
       <c r="I24">
         <v>0.507779617567941</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.335795380001571</v>
+        <v>3.335795380001542</v>
       </c>
       <c r="L24">
-        <v>3.874232566529869</v>
+        <v>3.874232566529855</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.14139725099551</v>
+        <v>2.141397250995453</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2119102473141936</v>
+        <v>0.2119102473139804</v>
       </c>
       <c r="E25">
         <v>0.856690423659046</v>
       </c>
       <c r="F25">
-        <v>3.481623033528336</v>
+        <v>3.481623033528308</v>
       </c>
       <c r="G25">
-        <v>3.092609691523961</v>
+        <v>3.092609691523947</v>
       </c>
       <c r="H25">
-        <v>0.3671241844195663</v>
+        <v>0.3671241844195379</v>
       </c>
       <c r="I25">
-        <v>0.4192093682137354</v>
+        <v>0.4192093682137283</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>2.670114087558943</v>
       </c>
       <c r="L25">
-        <v>3.118297986648756</v>
+        <v>3.118297986648784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1702112860299536</v>
+        <v>0.1702112860298257</v>
       </c>
       <c r="E2">
-        <v>0.7199346492092218</v>
+        <v>0.7199346492092502</v>
       </c>
       <c r="F2">
         <v>2.822566902682553</v>
       </c>
       <c r="G2">
-        <v>2.5018670324216</v>
+        <v>2.501867032421586</v>
       </c>
       <c r="H2">
         <v>0.3483432514161677</v>
       </c>
       <c r="I2">
-        <v>0.3555958456081072</v>
+        <v>0.3555958456081498</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.203555701162657</v>
+        <v>2.203555701162628</v>
       </c>
       <c r="L2">
         <v>2.583347665460792</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.548538240158962</v>
+        <v>1.54853824015899</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1438270189131714</v>
+        <v>0.1438270189132567</v>
       </c>
       <c r="E3">
-        <v>0.6291012038168375</v>
+        <v>0.6291012038168802</v>
       </c>
       <c r="F3">
         <v>2.411726166986554</v>
       </c>
       <c r="G3">
-        <v>2.133001506622293</v>
+        <v>2.133001506622278</v>
       </c>
       <c r="H3">
         <v>0.3403500020160095</v>
       </c>
       <c r="I3">
-        <v>0.3130891237492293</v>
+        <v>0.3130891237492506</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.403708842250552</v>
+        <v>1.403708842250524</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1283100427732222</v>
+        <v>0.128310042773208</v>
       </c>
       <c r="E4">
-        <v>0.5739498459273591</v>
+        <v>0.5739498459273449</v>
       </c>
       <c r="F4">
         <v>2.173080099500368</v>
       </c>
       <c r="G4">
-        <v>1.918443044901863</v>
+        <v>1.918443044901878</v>
       </c>
       <c r="H4">
-        <v>0.3374468255625871</v>
+        <v>0.33744682556258</v>
       </c>
       <c r="I4">
         <v>0.2871896176359314</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.712235251127112</v>
+        <v>1.71223525112714</v>
       </c>
       <c r="L4">
-        <v>2.015567023243818</v>
+        <v>2.015567023243804</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.344899284871047</v>
+        <v>1.344899284871332</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.122128382014381</v>
+        <v>0.1221283820144805</v>
       </c>
       <c r="E5">
-        <v>0.5515955420242946</v>
+        <v>0.5515955420242875</v>
       </c>
       <c r="F5">
-        <v>2.078741972792088</v>
+        <v>2.078741972792074</v>
       </c>
       <c r="G5">
         <v>1.833553750418176</v>
       </c>
       <c r="H5">
-        <v>0.3367247339160109</v>
+        <v>0.3367247339160144</v>
       </c>
       <c r="I5">
         <v>0.2766735057339531</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.637645497403255</v>
+        <v>1.637645497403241</v>
       </c>
       <c r="L5">
-        <v>1.928974238334874</v>
+        <v>1.928974238334902</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335145044269922</v>
+        <v>1.335145044270064</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1211096792264215</v>
+        <v>0.1211096792266204</v>
       </c>
       <c r="E6">
-        <v>0.5478899509409487</v>
+        <v>0.5478899509409274</v>
       </c>
       <c r="F6">
-        <v>2.063239473431963</v>
+        <v>2.063239473431977</v>
       </c>
       <c r="G6">
         <v>1.8195995713575</v>
       </c>
       <c r="H6">
-        <v>0.3366315039917893</v>
+        <v>0.3366315039917609</v>
       </c>
       <c r="I6">
-        <v>0.2749292986067147</v>
+        <v>0.2749292986067289</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.625298170241521</v>
+        <v>1.625298170241535</v>
       </c>
       <c r="L6">
-        <v>1.914629900619104</v>
+        <v>1.914629900619119</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.402914941379407</v>
+        <v>1.402914941379379</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1282261378458855</v>
+        <v>0.1282261378456866</v>
       </c>
       <c r="E7">
-        <v>0.5736479240995465</v>
+        <v>0.5736479240995038</v>
       </c>
       <c r="F7">
-        <v>2.171796655443302</v>
+        <v>2.171796655443288</v>
       </c>
       <c r="G7">
         <v>1.917288447756704</v>
       </c>
       <c r="H7">
-        <v>0.3374352741553537</v>
+        <v>0.3374352741553324</v>
       </c>
       <c r="I7">
-        <v>0.2870476538576199</v>
+        <v>0.2870476538576341</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.711226651592682</v>
+        <v>1.71122665159271</v>
       </c>
       <c r="L7">
-        <v>2.014396814907158</v>
+        <v>2.014396814907144</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.703967653058044</v>
+        <v>1.703967653057759</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1609525710464652</v>
+        <v>0.1609525710461099</v>
       </c>
       <c r="E8">
         <v>0.6884630492230457</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.097033943247084</v>
+        <v>2.097033943247112</v>
       </c>
       <c r="L8">
-        <v>2.460632931466051</v>
+        <v>2.460632931466037</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.306011853695509</v>
+        <v>2.30601185369494</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2322096389796258</v>
+        <v>0.2322096389792705</v>
       </c>
       <c r="E9">
-        <v>0.920528537544044</v>
+        <v>0.9205285375440866</v>
       </c>
       <c r="F9">
-        <v>3.805661381337558</v>
+        <v>3.805661381337529</v>
       </c>
       <c r="G9">
-        <v>3.382736444422932</v>
+        <v>3.382736444422889</v>
       </c>
       <c r="H9">
-        <v>0.3784165058081754</v>
+        <v>0.3784165058081541</v>
       </c>
       <c r="I9">
-        <v>0.4487333593149785</v>
+        <v>0.4487333593149572</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.760798927566043</v>
+        <v>2.760798927565986</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2918417028679698</v>
+        <v>0.2918417028675009</v>
       </c>
       <c r="E10">
-        <v>1.098809993278152</v>
+        <v>1.098809993278124</v>
       </c>
       <c r="F10">
-        <v>4.76562472758593</v>
+        <v>4.765624727585902</v>
       </c>
       <c r="G10">
-        <v>4.241392181314126</v>
+        <v>4.241392181314154</v>
       </c>
       <c r="H10">
-        <v>0.4176685582964552</v>
+        <v>0.4176685582964836</v>
       </c>
       <c r="I10">
-        <v>0.5305488641230198</v>
+        <v>0.5305488641230269</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.510064772201162</v>
+        <v>3.510064772201218</v>
       </c>
       <c r="L10">
         <v>4.070654478414014</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.971933428563659</v>
+        <v>2.971933428563432</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.32148119653273</v>
+        <v>0.3214811965327442</v>
       </c>
       <c r="E11">
-        <v>1.182728695454244</v>
+        <v>1.18272869545423</v>
       </c>
       <c r="F11">
-        <v>5.245720171645587</v>
+        <v>5.245720171645559</v>
       </c>
       <c r="G11">
         <v>4.670491681438079</v>
       </c>
       <c r="H11">
-        <v>0.4398038017989734</v>
+        <v>0.4398038017989876</v>
       </c>
       <c r="I11">
-        <v>0.5687078622304398</v>
+        <v>0.5687078622304611</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.805105202016762</v>
+        <v>3.80510520201679</v>
       </c>
       <c r="L11">
-        <v>4.401750963623755</v>
+        <v>4.401750963623797</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.052659655481591</v>
+        <v>3.052659655481193</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3331746398971234</v>
+        <v>0.3331746398965549</v>
       </c>
       <c r="E12">
-        <v>1.215042591799929</v>
+        <v>1.215042591799914</v>
       </c>
       <c r="F12">
-        <v>5.435458533207196</v>
+        <v>5.435458533207139</v>
       </c>
       <c r="G12">
-        <v>4.840034316239326</v>
+        <v>4.840034316239297</v>
       </c>
       <c r="H12">
-        <v>0.4489148036947341</v>
+        <v>0.4489148036947768</v>
       </c>
       <c r="I12">
-        <v>0.5833367472818054</v>
+        <v>0.5833367472817983</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.919223116639131</v>
+        <v>3.919223116639102</v>
       </c>
       <c r="L12">
-        <v>4.529315923787038</v>
+        <v>4.52931592378701</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.035236360057127</v>
+        <v>3.035236360056899</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>5.394209521443713</v>
       </c>
       <c r="G13">
-        <v>4.803177554201454</v>
+        <v>4.803177554201426</v>
       </c>
       <c r="H13">
         <v>0.4469180747309665</v>
       </c>
       <c r="I13">
-        <v>0.5801773534838333</v>
+        <v>0.580177353483819</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.978558232834359</v>
+        <v>2.978558232833961</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3224330684714261</v>
+        <v>0.3224330684714403</v>
       </c>
       <c r="E14">
-        <v>1.185375546002362</v>
+        <v>1.18537554600239</v>
       </c>
       <c r="F14">
-        <v>5.261159489122633</v>
+        <v>5.261159489122605</v>
       </c>
       <c r="G14">
-        <v>4.68428841759615</v>
+        <v>4.684288417596179</v>
       </c>
       <c r="H14">
-        <v>0.4405380170274995</v>
+        <v>0.4405380170275279</v>
       </c>
       <c r="I14">
-        <v>0.5699075047826909</v>
+        <v>0.569907504782698</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.814442184622777</v>
+        <v>3.814442184622806</v>
       </c>
       <c r="L14">
-        <v>4.412198742135061</v>
+        <v>4.412198742135089</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.943947571068861</v>
+        <v>2.943947571068293</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3174751616790843</v>
+        <v>0.3174751616792264</v>
       </c>
       <c r="E15">
-        <v>1.171556929248695</v>
+        <v>1.17155692924868</v>
       </c>
       <c r="F15">
-        <v>5.180754883051065</v>
+        <v>5.180754883051009</v>
       </c>
       <c r="G15">
-        <v>4.612436408670703</v>
+        <v>4.612436408670675</v>
       </c>
       <c r="H15">
-        <v>0.4367287833740932</v>
+        <v>0.4367287833741216</v>
       </c>
       <c r="I15">
-        <v>0.5636417510900955</v>
+        <v>0.5636417510901026</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.765716653344668</v>
+        <v>3.76571665334464</v>
       </c>
       <c r="L15">
-        <v>4.357655839945494</v>
+        <v>4.357655839945451</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.747099394407087</v>
+        <v>2.747099394406916</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2899637787256353</v>
+        <v>0.2899637787258484</v>
       </c>
       <c r="E16">
-        <v>1.093392676005266</v>
+        <v>1.093392676005323</v>
       </c>
       <c r="F16">
         <v>4.735256909391865</v>
@@ -965,16 +965,16 @@
         <v>0.4163172103756452</v>
       </c>
       <c r="I16">
-        <v>0.5280774489032751</v>
+        <v>0.5280774489032538</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.49108555232732</v>
+        <v>3.491085552327291</v>
       </c>
       <c r="L16">
-        <v>4.04929317391283</v>
+        <v>4.049293173912844</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.627532508181616</v>
+        <v>2.627532508181503</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.273797319222794</v>
+        <v>0.2737973192226235</v>
       </c>
       <c r="E17">
-        <v>1.046244173884972</v>
+        <v>1.046244173885015</v>
       </c>
       <c r="F17">
-        <v>4.474138148824807</v>
+        <v>4.474138148824778</v>
       </c>
       <c r="G17">
-        <v>3.980775442443701</v>
+        <v>3.980775442443644</v>
       </c>
       <c r="H17">
-        <v>0.4049645275303249</v>
+        <v>0.404964527530332</v>
       </c>
       <c r="I17">
-        <v>0.5065279803242291</v>
+        <v>0.5065279803242433</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.326253683975494</v>
+        <v>3.326253683975523</v>
       </c>
       <c r="L17">
-        <v>3.863459922422308</v>
+        <v>3.863459922422322</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.559149145481399</v>
+        <v>2.55914914548157</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2647272527515128</v>
+        <v>0.2647272527514133</v>
       </c>
       <c r="E18">
-        <v>1.019381100629232</v>
+        <v>1.019381100629204</v>
       </c>
       <c r="F18">
         <v>4.32791024838491</v>
@@ -1041,16 +1041,16 @@
         <v>0.3988294881759487</v>
       </c>
       <c r="I18">
-        <v>0.494218602725347</v>
+        <v>0.4942186027253612</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.232623782576553</v>
+        <v>3.232623782576525</v>
       </c>
       <c r="L18">
-        <v>3.757652636101213</v>
+        <v>3.757652636101184</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1067,16 +1067,16 @@
         <v>0.2616927276418863</v>
       </c>
       <c r="E19">
-        <v>1.010326245501147</v>
+        <v>1.010326245501176</v>
       </c>
       <c r="F19">
         <v>4.279036055131513</v>
       </c>
       <c r="G19">
-        <v>3.806287943338305</v>
+        <v>3.806287943338276</v>
       </c>
       <c r="H19">
-        <v>0.3968170027892413</v>
+        <v>0.3968170027892555</v>
       </c>
       <c r="I19">
         <v>0.4900643847707116</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.201110488535477</v>
+        <v>3.201110488535448</v>
       </c>
       <c r="L19">
-        <v>3.722000747553381</v>
+        <v>3.722000747553395</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.64021935244449</v>
+        <v>2.640219352444092</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2754939400924457</v>
+        <v>0.2754939400923035</v>
       </c>
       <c r="E20">
         <v>1.051235948001846</v>
       </c>
       <c r="F20">
-        <v>4.501513993107011</v>
+        <v>4.501513993107039</v>
       </c>
       <c r="G20">
-        <v>4.0052555135521</v>
+        <v>4.005255513552072</v>
       </c>
       <c r="H20">
-        <v>0.4061314452727345</v>
+        <v>0.4061314452727274</v>
       </c>
       <c r="I20">
-        <v>0.5088128541952699</v>
+        <v>0.5088128541952841</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>3.343675093865755</v>
       </c>
       <c r="L20">
-        <v>3.883127416565586</v>
+        <v>3.883127416565543</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.9951834651377</v>
+        <v>2.995183465137472</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3248278851904445</v>
+        <v>0.3248278851901034</v>
       </c>
       <c r="E21">
-        <v>1.192021809751651</v>
+        <v>1.192021809751637</v>
       </c>
       <c r="F21">
         <v>5.300008091233877</v>
       </c>
       <c r="G21">
-        <v>4.719003305646936</v>
+        <v>4.719003305646908</v>
       </c>
       <c r="H21">
-        <v>0.4423911768176652</v>
+        <v>0.4423911768176723</v>
       </c>
       <c r="I21">
         <v>0.5729187365506263</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.837895706668945</v>
+        <v>3.837895706668974</v>
       </c>
       <c r="L21">
-        <v>4.43843417983706</v>
+        <v>4.438434179837088</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.231792655915854</v>
+        <v>3.231792655915967</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3598857780062161</v>
+        <v>0.3598857780062303</v>
       </c>
       <c r="E22">
-        <v>1.287250414379983</v>
+        <v>1.287250414379955</v>
       </c>
       <c r="F22">
-        <v>5.869323638310561</v>
+        <v>5.86932363831059</v>
       </c>
       <c r="G22">
-        <v>5.227652261324636</v>
+        <v>5.227652261324664</v>
       </c>
       <c r="H22">
-        <v>0.4704110932752599</v>
+        <v>0.4704110932752457</v>
       </c>
       <c r="I22">
-        <v>0.6158898316684756</v>
+        <v>0.6158898316684684</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>4.175216124779524</v>
       </c>
       <c r="L22">
-        <v>4.814434876738844</v>
+        <v>4.814434876738872</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.105022225604785</v>
+        <v>3.1050222256045</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.340871606024379</v>
+        <v>0.3408716060243364</v>
       </c>
       <c r="E23">
-        <v>1.236075801036549</v>
+        <v>1.236075801036577</v>
       </c>
       <c r="F23">
-        <v>5.560424801162839</v>
+        <v>5.560424801162867</v>
       </c>
       <c r="G23">
-        <v>4.951688676125599</v>
+        <v>4.951688676125571</v>
       </c>
       <c r="H23">
-        <v>0.4550159574211463</v>
+        <v>0.4550159574211534</v>
       </c>
       <c r="I23">
-        <v>0.5928387334824663</v>
+        <v>0.5928387334824805</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.993651189254194</v>
+        <v>3.993651189254251</v>
       </c>
       <c r="L23">
-        <v>4.61236144130072</v>
+        <v>4.612361441300763</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.634482529214495</v>
+        <v>2.634482529214779</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.27472620700037</v>
+        <v>0.274726207000711</v>
       </c>
       <c r="E24">
         <v>1.048978418572105</v>
@@ -1263,10 +1263,10 @@
         <v>4.489125369626095</v>
       </c>
       <c r="G24">
-        <v>3.994177433043319</v>
+        <v>3.994177433043347</v>
       </c>
       <c r="H24">
-        <v>0.4056026696910848</v>
+        <v>0.4056026696910919</v>
       </c>
       <c r="I24">
         <v>0.507779617567941</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.335795380001542</v>
+        <v>3.335795380001571</v>
       </c>
       <c r="L24">
-        <v>3.874232566529855</v>
+        <v>3.874232566529869</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.141397250995453</v>
+        <v>2.14139725099551</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2119102473139804</v>
+        <v>0.2119102473141936</v>
       </c>
       <c r="E25">
         <v>0.856690423659046</v>
       </c>
       <c r="F25">
-        <v>3.481623033528308</v>
+        <v>3.481623033528336</v>
       </c>
       <c r="G25">
-        <v>3.092609691523947</v>
+        <v>3.092609691523961</v>
       </c>
       <c r="H25">
-        <v>0.3671241844195379</v>
+        <v>0.3671241844195663</v>
       </c>
       <c r="I25">
-        <v>0.4192093682137283</v>
+        <v>0.4192093682137354</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>2.670114087558943</v>
       </c>
       <c r="L25">
-        <v>3.118297986648784</v>
+        <v>3.118297986648756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.786160917310923</v>
+        <v>1.786333351768519</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1702112860298257</v>
+        <v>0.1696398666513232</v>
       </c>
       <c r="E2">
-        <v>0.7199346492092502</v>
+        <v>0.7190333910172342</v>
       </c>
       <c r="F2">
-        <v>2.822566902682553</v>
+        <v>2.817250396498792</v>
       </c>
       <c r="G2">
-        <v>2.501867032421586</v>
+        <v>0.8415710266685466</v>
       </c>
       <c r="H2">
-        <v>0.3483432514161677</v>
+        <v>1.657590380538963</v>
       </c>
       <c r="I2">
-        <v>0.3555958456081498</v>
+        <v>0.3490687316371179</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.355322205826738</v>
       </c>
       <c r="K2">
-        <v>2.203555701162628</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.583347665460792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.202029288474733</v>
+      </c>
+      <c r="M2">
+        <v>2.582114052368198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.54853824015899</v>
+        <v>1.548702983269294</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1438270189132567</v>
+        <v>0.143348491092965</v>
       </c>
       <c r="E3">
-        <v>0.6291012038168802</v>
+        <v>0.6283409801993116</v>
       </c>
       <c r="F3">
-        <v>2.411726166986554</v>
+        <v>2.407281272902466</v>
       </c>
       <c r="G3">
-        <v>2.133001506622278</v>
+        <v>0.7139816365708924</v>
       </c>
       <c r="H3">
-        <v>0.3403500020160095</v>
+        <v>1.417497617757022</v>
       </c>
       <c r="I3">
-        <v>0.3130891237492506</v>
+        <v>0.3409789156414504</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.312859026221517</v>
       </c>
       <c r="K3">
-        <v>1.897004576715801</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.229620817874547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.895736485686072</v>
+      </c>
+      <c r="M3">
+        <v>2.228600307144688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.403708842250524</v>
+        <v>1.403866542583216</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.128310042773208</v>
+        <v>0.1278851200645761</v>
       </c>
       <c r="E4">
-        <v>0.5739498459273449</v>
+        <v>0.5732727642653046</v>
       </c>
       <c r="F4">
-        <v>2.173080099500368</v>
+        <v>2.16912957806332</v>
       </c>
       <c r="G4">
-        <v>1.918443044901878</v>
+        <v>0.6395722501184906</v>
       </c>
       <c r="H4">
-        <v>0.33744682556258</v>
+        <v>1.278028377312992</v>
       </c>
       <c r="I4">
-        <v>0.2871896176359314</v>
+        <v>0.3380152304587725</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.286985226402571</v>
       </c>
       <c r="K4">
-        <v>1.71223525112714</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.015567023243804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.711114450357613</v>
+      </c>
+      <c r="M4">
+        <v>2.014667523785107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.344899284871332</v>
+        <v>1.345053636983806</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1221283820144805</v>
+        <v>0.1217246042845517</v>
       </c>
       <c r="E5">
-        <v>0.5515955420242875</v>
+        <v>0.5509516684892617</v>
       </c>
       <c r="F5">
-        <v>2.078741972792074</v>
+        <v>2.07498453584428</v>
       </c>
       <c r="G5">
-        <v>1.833553750418176</v>
+        <v>0.6100853078477257</v>
       </c>
       <c r="H5">
-        <v>0.3367247339160144</v>
+        <v>1.222893436232937</v>
       </c>
       <c r="I5">
-        <v>0.2766735057339531</v>
+        <v>0.3372682120692261</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2764793939596757</v>
       </c>
       <c r="K5">
-        <v>1.637645497403241</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.928974238334902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.636582426916775</v>
+      </c>
+      <c r="M5">
+        <v>1.928122057715044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335145044270064</v>
+        <v>1.335298814229702</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1211096792266204</v>
+        <v>0.1207093745745738</v>
       </c>
       <c r="E6">
-        <v>0.5478899509409274</v>
+        <v>0.5472515559968869</v>
       </c>
       <c r="F6">
-        <v>2.063239473431977</v>
+        <v>2.059513640610348</v>
       </c>
       <c r="G6">
-        <v>1.8195995713575</v>
+        <v>0.6052354100631874</v>
       </c>
       <c r="H6">
-        <v>0.3366315039917609</v>
+        <v>1.213833032191488</v>
       </c>
       <c r="I6">
-        <v>0.2749292986067289</v>
+        <v>0.3371708277421952</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2747368835016886</v>
       </c>
       <c r="K6">
-        <v>1.625298170241535</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.914629900619119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.624244561694127</v>
+      </c>
+      <c r="M6">
+        <v>1.913785469137594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.402914941379379</v>
+        <v>1.403072598368709</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1282261378456866</v>
+        <v>0.1278015029436688</v>
       </c>
       <c r="E7">
-        <v>0.5736479240995038</v>
+        <v>0.5729712927858728</v>
       </c>
       <c r="F7">
-        <v>2.171796655443288</v>
+        <v>2.167848769692057</v>
       </c>
       <c r="G7">
-        <v>1.917288447756704</v>
+        <v>0.6391713828638501</v>
       </c>
       <c r="H7">
-        <v>0.3374352741553324</v>
+        <v>1.277278290258351</v>
       </c>
       <c r="I7">
-        <v>0.2870476538576341</v>
+        <v>0.338003343927582</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2868434019761139</v>
       </c>
       <c r="K7">
-        <v>1.71122665159271</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.014396814907144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.710106638014821</v>
+      </c>
+      <c r="M7">
+        <v>2.013497961113401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.703967653057759</v>
+        <v>1.704137987337418</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1609525710461099</v>
+        <v>0.1604140009706612</v>
       </c>
       <c r="E8">
-        <v>0.6884630492230457</v>
+        <v>0.6876112666478633</v>
       </c>
       <c r="F8">
-        <v>2.677752733904811</v>
+        <v>2.672746481716018</v>
       </c>
       <c r="G8">
-        <v>2.371912359287748</v>
+        <v>0.7966630821572238</v>
       </c>
       <c r="H8">
-        <v>0.345143532493033</v>
+        <v>1.572962795883186</v>
       </c>
       <c r="I8">
-        <v>0.3408901495308214</v>
+        <v>0.3458359944616944</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3406317783361885</v>
       </c>
       <c r="K8">
-        <v>2.097033943247112</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2.460632931466037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.095599319025666</v>
+      </c>
+      <c r="M8">
+        <v>2.459475155970637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.30601185369494</v>
+        <v>2.306182459470563</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2322096389792705</v>
+        <v>0.2314109798043376</v>
       </c>
       <c r="E9">
-        <v>0.9205285375440866</v>
+        <v>0.9192945010425575</v>
       </c>
       <c r="F9">
-        <v>3.805661381337529</v>
+        <v>3.798145983704103</v>
       </c>
       <c r="G9">
-        <v>3.382736444422889</v>
+        <v>1.145008708274005</v>
       </c>
       <c r="H9">
-        <v>0.3784165058081541</v>
+        <v>2.232108567071649</v>
       </c>
       <c r="I9">
-        <v>0.4487333593149572</v>
+        <v>0.3793409017985496</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4483570446372696</v>
       </c>
       <c r="K9">
-        <v>2.889893144488354</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3.368843918767581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.88771931439058</v>
+      </c>
+      <c r="M9">
+        <v>3.367072415852135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.760798927565986</v>
+        <v>2.760942759524369</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2918417028675009</v>
+        <v>0.2908115922582653</v>
       </c>
       <c r="E10">
-        <v>1.098809993278124</v>
+        <v>1.097249641202595</v>
       </c>
       <c r="F10">
-        <v>4.765624727585902</v>
+        <v>4.755789560150163</v>
       </c>
       <c r="G10">
-        <v>4.241392181314154</v>
+        <v>1.439593854262142</v>
       </c>
       <c r="H10">
-        <v>0.4176685582964836</v>
+        <v>2.793197167005729</v>
       </c>
       <c r="I10">
-        <v>0.5305488641230269</v>
+        <v>0.4187510849248923</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5300716642559138</v>
       </c>
       <c r="K10">
-        <v>3.510064772201218</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4.070654478414014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.507210740443213</v>
+      </c>
+      <c r="M10">
+        <v>4.068313602060883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.971933428563432</v>
+        <v>2.97205500912645</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3214811965327442</v>
+        <v>0.3203308097924946</v>
       </c>
       <c r="E11">
-        <v>1.18272869545423</v>
+        <v>1.18100243541484</v>
       </c>
       <c r="F11">
-        <v>5.245720171645559</v>
+        <v>5.234652251094502</v>
       </c>
       <c r="G11">
-        <v>4.670491681438079</v>
+        <v>1.586473484678493</v>
       </c>
       <c r="H11">
-        <v>0.4398038017989876</v>
+        <v>3.073865134745517</v>
       </c>
       <c r="I11">
-        <v>0.5687078622304611</v>
+        <v>0.4409536936759011</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5681792251385644</v>
       </c>
       <c r="K11">
-        <v>3.80510520201679</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.401750963623797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.801890079926551</v>
+      </c>
+      <c r="M11">
+        <v>4.399106539601632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.052659655481193</v>
+        <v>3.052770819646923</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3331746398965549</v>
+        <v>0.3319757626822621</v>
       </c>
       <c r="E12">
-        <v>1.215042591799914</v>
+        <v>1.213250027239823</v>
       </c>
       <c r="F12">
-        <v>5.435458533207139</v>
+        <v>5.423888801085809</v>
       </c>
       <c r="G12">
-        <v>4.840034316239297</v>
+        <v>1.644454655953695</v>
       </c>
       <c r="H12">
-        <v>0.4489148036947768</v>
+        <v>3.184800827878263</v>
       </c>
       <c r="I12">
-        <v>0.5833367472817983</v>
+        <v>0.4500892874754499</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5827875211337528</v>
       </c>
       <c r="K12">
-        <v>3.919223116639102</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.52931592378701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.915861026096678</v>
+      </c>
+      <c r="M12">
+        <v>4.526547743098234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.035236360056899</v>
+        <v>3.035349867191712</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3306332631283055</v>
+        <v>0.3294449762390741</v>
       </c>
       <c r="E13">
-        <v>1.208056857134096</v>
+        <v>1.206278746910556</v>
       </c>
       <c r="F13">
-        <v>5.394209521443713</v>
+        <v>5.382749613535964</v>
       </c>
       <c r="G13">
-        <v>4.803177554201426</v>
+        <v>1.631852586649785</v>
       </c>
       <c r="H13">
-        <v>0.4469180747309665</v>
+        <v>3.160682803220112</v>
       </c>
       <c r="I13">
-        <v>0.580177353483819</v>
+        <v>0.4480873085038368</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5796326173806108</v>
       </c>
       <c r="K13">
-        <v>3.894529169933548</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.501736119298172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.891199244032094</v>
+      </c>
+      <c r="M13">
+        <v>4.498995032802554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.978558232833961</v>
+        <v>2.978679000231068</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3224330684714403</v>
+        <v>0.3212787570705586</v>
       </c>
       <c r="E14">
-        <v>1.18537554600239</v>
+        <v>1.183643907731394</v>
       </c>
       <c r="F14">
-        <v>5.261159489122605</v>
+        <v>5.250051053843322</v>
       </c>
       <c r="G14">
-        <v>4.684288417596179</v>
+        <v>1.591192846340334</v>
       </c>
       <c r="H14">
-        <v>0.4405380170275279</v>
+        <v>3.082891861801158</v>
       </c>
       <c r="I14">
-        <v>0.569907504782698</v>
+        <v>0.4416899524163753</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5693771983416198</v>
       </c>
       <c r="K14">
-        <v>3.814442184622806</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.412198742135089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.811215196598226</v>
+      </c>
+      <c r="M14">
+        <v>4.409544330464442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.943947571068293</v>
+        <v>2.944072506532621</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3174751616792264</v>
+        <v>0.3163412489796684</v>
       </c>
       <c r="E15">
-        <v>1.17155692924868</v>
+        <v>1.169853267977444</v>
       </c>
       <c r="F15">
-        <v>5.180754883051009</v>
+        <v>5.169856830709477</v>
       </c>
       <c r="G15">
-        <v>4.612436408670675</v>
+        <v>1.566612760603391</v>
       </c>
       <c r="H15">
-        <v>0.4367287833741216</v>
+        <v>3.035883179705877</v>
       </c>
       <c r="I15">
-        <v>0.5636417510901026</v>
+        <v>0.4378699937049717</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5631201270755923</v>
       </c>
       <c r="K15">
-        <v>3.76571665334464</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4.357655839945451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.762551282698212</v>
+      </c>
+      <c r="M15">
+        <v>4.355053283780663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.747099394406916</v>
+        <v>2.747244436272524</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2899637787258484</v>
+        <v>0.2889411661131334</v>
       </c>
       <c r="E16">
-        <v>1.093392676005323</v>
+        <v>1.091842740612961</v>
       </c>
       <c r="F16">
-        <v>4.735256909391865</v>
+        <v>4.72549800631694</v>
       </c>
       <c r="G16">
-        <v>4.214244074413386</v>
+        <v>1.430294292095567</v>
       </c>
       <c r="H16">
-        <v>0.4163172103756452</v>
+        <v>2.775445339627709</v>
       </c>
       <c r="I16">
-        <v>0.5280774489032538</v>
+        <v>0.4173952228182429</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5276034749299399</v>
       </c>
       <c r="K16">
-        <v>3.491085552327291</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>4.049293173912844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.488253863864145</v>
+      </c>
+      <c r="M16">
+        <v>4.046971054130253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.627532508181503</v>
+        <v>2.627686981591864</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2737973192226235</v>
+        <v>0.2728386738763504</v>
       </c>
       <c r="E17">
-        <v>1.046244173885015</v>
+        <v>1.044783492535998</v>
       </c>
       <c r="F17">
-        <v>4.474138148824778</v>
+        <v>4.465026961104456</v>
       </c>
       <c r="G17">
-        <v>3.980775442443644</v>
+        <v>1.350283794679171</v>
       </c>
       <c r="H17">
-        <v>0.404964527530332</v>
+        <v>2.622812101961699</v>
       </c>
       <c r="I17">
-        <v>0.5065279803242433</v>
+        <v>0.406002447494437</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5060816307894171</v>
       </c>
       <c r="K17">
-        <v>3.326253683975523</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>3.863459922422322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>3.323611792804371</v>
+      </c>
+      <c r="M17">
+        <v>3.861296996921311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.55914914548157</v>
+        <v>2.559308137631774</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2647272527514133</v>
+        <v>0.2638040498124923</v>
       </c>
       <c r="E18">
-        <v>1.019381100629204</v>
+        <v>1.017970186635509</v>
       </c>
       <c r="F18">
-        <v>4.32791024838491</v>
+        <v>4.319155637048169</v>
       </c>
       <c r="G18">
-        <v>3.850001985769069</v>
+        <v>1.305437865298643</v>
       </c>
       <c r="H18">
-        <v>0.3988294881759487</v>
+        <v>2.537341411924928</v>
       </c>
       <c r="I18">
-        <v>0.4942186027253612</v>
+        <v>0.3998439385920207</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4937876444640565</v>
       </c>
       <c r="K18">
-        <v>3.232623782576525</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.757652636101184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>3.230086411797771</v>
+      </c>
+      <c r="M18">
+        <v>3.755577268922153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.536058036127997</v>
+        <v>2.536218415901317</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2616927276418863</v>
+        <v>0.2607813124761833</v>
       </c>
       <c r="E19">
-        <v>1.010326245501176</v>
+        <v>1.008931936109263</v>
       </c>
       <c r="F19">
-        <v>4.279036055131513</v>
+        <v>4.270399663370938</v>
       </c>
       <c r="G19">
-        <v>3.806287943338276</v>
+        <v>1.290442146878917</v>
       </c>
       <c r="H19">
-        <v>0.3968170027892555</v>
+        <v>2.508774985975094</v>
       </c>
       <c r="I19">
-        <v>0.4900643847707116</v>
+        <v>0.3978234427139142</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.489638559958486</v>
       </c>
       <c r="K19">
-        <v>3.201110488535448</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.722000747553395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>3.198607777282973</v>
+      </c>
+      <c r="M19">
+        <v>3.719954397062452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.640219352444092</v>
+        <v>2.640372918887635</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2754939400923035</v>
+        <v>0.2745286298051894</v>
       </c>
       <c r="E20">
-        <v>1.051235948001846</v>
+        <v>1.049765933656559</v>
       </c>
       <c r="F20">
-        <v>4.501513993107039</v>
+        <v>4.492335565204257</v>
       </c>
       <c r="G20">
-        <v>4.005255513552072</v>
+        <v>1.358676303764412</v>
       </c>
       <c r="H20">
-        <v>0.4061314452727274</v>
+        <v>2.638813736861323</v>
       </c>
       <c r="I20">
-        <v>0.5088128541952841</v>
+        <v>0.4071736770584309</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.508363617380418</v>
       </c>
       <c r="K20">
-        <v>3.343675093865755</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.883127416565543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3.341013496191238</v>
+      </c>
+      <c r="M20">
+        <v>3.88094797368349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.995183465137472</v>
+        <v>2.995302159476523</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3248278851901034</v>
+        <v>0.3236636821662415</v>
       </c>
       <c r="E21">
-        <v>1.192021809751637</v>
+        <v>1.190276625644671</v>
       </c>
       <c r="F21">
-        <v>5.300008091233877</v>
+        <v>5.288797464692436</v>
       </c>
       <c r="G21">
-        <v>4.719003305646908</v>
+        <v>1.603066696434837</v>
       </c>
       <c r="H21">
-        <v>0.4423911768176723</v>
+        <v>3.105605248459028</v>
       </c>
       <c r="I21">
-        <v>0.5729187365506263</v>
+        <v>0.4435482207526036</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5723842250643756</v>
       </c>
       <c r="K21">
-        <v>3.837895706668974</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4.438434179837088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.834638789084153</v>
+      </c>
+      <c r="M21">
+        <v>4.435754572881038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.231792655915967</v>
+        <v>3.231876519469381</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3598857780062303</v>
+        <v>0.3585737909695297</v>
       </c>
       <c r="E22">
-        <v>1.287250414379955</v>
+        <v>1.285304333825792</v>
       </c>
       <c r="F22">
-        <v>5.86932363831059</v>
+        <v>5.856573216152981</v>
       </c>
       <c r="G22">
-        <v>5.227652261324664</v>
+        <v>1.776911254595404</v>
       </c>
       <c r="H22">
-        <v>0.4704110932752457</v>
+        <v>3.438502676819382</v>
       </c>
       <c r="I22">
-        <v>0.6158898316684684</v>
+        <v>0.4716376014084602</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6152928592620697</v>
       </c>
       <c r="K22">
-        <v>4.175216124779524</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.814434876738872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4.171508228172456</v>
+      </c>
+      <c r="M22">
+        <v>4.811375090446674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.1050222256045</v>
+        <v>3.105126024836181</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3408716060243364</v>
+        <v>0.3396404759573528</v>
       </c>
       <c r="E23">
-        <v>1.236075801036577</v>
+        <v>1.234239304054043</v>
       </c>
       <c r="F23">
-        <v>5.560424801162867</v>
+        <v>5.548519825255141</v>
       </c>
       <c r="G23">
-        <v>4.951688676125571</v>
+        <v>1.682623518289461</v>
       </c>
       <c r="H23">
-        <v>0.4550159574211534</v>
+        <v>3.257870112387678</v>
       </c>
       <c r="I23">
-        <v>0.5928387334824805</v>
+        <v>0.4562060223279829</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5922758545827094</v>
       </c>
       <c r="K23">
-        <v>3.993651189254251</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4.612361441300763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.990190914234603</v>
+      </c>
+      <c r="M23">
+        <v>4.609510522170652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.634482529214779</v>
+        <v>2.634636508474159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.274726207000711</v>
+        <v>0.2737639140308517</v>
       </c>
       <c r="E24">
-        <v>1.048978418572105</v>
+        <v>1.047512628422794</v>
       </c>
       <c r="F24">
-        <v>4.489125369626095</v>
+        <v>4.479977389578806</v>
       </c>
       <c r="G24">
-        <v>3.994177433043347</v>
+        <v>1.354878494872025</v>
       </c>
       <c r="H24">
-        <v>0.4056026696910919</v>
+        <v>2.631572366420613</v>
       </c>
       <c r="I24">
-        <v>0.507779617567941</v>
+        <v>0.4066429533920939</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5073316875981178</v>
       </c>
       <c r="K24">
-        <v>3.335795380001571</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.874232566529869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3.333142705760423</v>
+      </c>
+      <c r="M24">
+        <v>3.872060603337914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.14139725099551</v>
+        <v>2.141571433980516</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2119102473141936</v>
+        <v>0.2111874195233128</v>
       </c>
       <c r="E25">
-        <v>0.856690423659046</v>
+        <v>0.8555658162068198</v>
       </c>
       <c r="F25">
-        <v>3.481623033528336</v>
+        <v>3.474850933699884</v>
       </c>
       <c r="G25">
-        <v>3.092609691523961</v>
+        <v>1.045229181439467</v>
       </c>
       <c r="H25">
-        <v>0.3671241844195663</v>
+        <v>2.042735806197243</v>
       </c>
       <c r="I25">
-        <v>0.4192093682137354</v>
+        <v>0.3679875219960991</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4188668254636241</v>
       </c>
       <c r="K25">
-        <v>2.670114087558943</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>3.118297986648756</v>
+        <v>2.668158655674702</v>
+      </c>
+      <c r="M25">
+        <v>3.116708454465069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.786333351768519</v>
+        <v>1.967864589717152</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1696398666513232</v>
+        <v>0.09573743791074207</v>
       </c>
       <c r="E2">
-        <v>0.7190333910172342</v>
+        <v>0.1172907068076228</v>
       </c>
       <c r="F2">
-        <v>2.817250396498792</v>
+        <v>2.148146085931955</v>
       </c>
       <c r="G2">
-        <v>0.8415710266685466</v>
+        <v>0.0008005128200956956</v>
       </c>
       <c r="H2">
-        <v>1.657590380538963</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3490687316371179</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.355322205826738</v>
+        <v>0.1655838973407384</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.49466944183861</v>
       </c>
       <c r="L2">
-        <v>2.202029288474733</v>
+        <v>1.035536410928557</v>
       </c>
       <c r="M2">
-        <v>2.582114052368198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.011370071322844</v>
+      </c>
+      <c r="O2">
+        <v>1.733734802082537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.548702983269294</v>
+        <v>1.740988049203565</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.143348491092965</v>
+        <v>0.08337274833046848</v>
       </c>
       <c r="E3">
-        <v>0.6283409801993116</v>
+        <v>0.1063731204916571</v>
       </c>
       <c r="F3">
-        <v>2.407281272902466</v>
+        <v>1.98702412041122</v>
       </c>
       <c r="G3">
-        <v>0.7139816365708924</v>
+        <v>0.0008096144252517549</v>
       </c>
       <c r="H3">
-        <v>1.417497617757022</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3409789156414504</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.312859026221517</v>
+        <v>0.1539602397917648</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.292651564895252</v>
       </c>
       <c r="L3">
-        <v>1.895736485686072</v>
+        <v>0.8998675621306518</v>
       </c>
       <c r="M3">
-        <v>2.228600307144688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.078902209712528</v>
+      </c>
+      <c r="O3">
+        <v>1.585683781404128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.403866542583216</v>
+        <v>1.604091924013289</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1278851200645761</v>
+        <v>0.0759402519554655</v>
       </c>
       <c r="E4">
-        <v>0.5732727642653046</v>
+        <v>0.09974442048756416</v>
       </c>
       <c r="F4">
-        <v>2.16912957806332</v>
+        <v>1.893125412094264</v>
       </c>
       <c r="G4">
-        <v>0.6395722501184906</v>
+        <v>0.0008153536667027328</v>
       </c>
       <c r="H4">
-        <v>1.278028377312992</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3380152304587725</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.286985226402571</v>
+        <v>0.1468785520925167</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.170319814516787</v>
       </c>
       <c r="L4">
-        <v>1.711114450357613</v>
+        <v>0.8178354251020039</v>
       </c>
       <c r="M4">
-        <v>2.014667523785107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.121998798268347</v>
+      </c>
+      <c r="O4">
+        <v>1.498982305651339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345053636983806</v>
+        <v>1.54884572464573</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1217246042845517</v>
+        <v>0.07294426866481984</v>
       </c>
       <c r="E5">
-        <v>0.5509516684892617</v>
+        <v>0.09705763789409971</v>
       </c>
       <c r="F5">
-        <v>2.07498453584428</v>
+        <v>1.856015019523781</v>
       </c>
       <c r="G5">
-        <v>0.6100853078477257</v>
+        <v>0.0008177321852614664</v>
       </c>
       <c r="H5">
-        <v>1.222893436232937</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3372682120692261</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2764793939596757</v>
+        <v>0.1440030663895158</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.120835551480397</v>
       </c>
       <c r="L5">
-        <v>1.636582426916775</v>
+        <v>0.7846826937116305</v>
       </c>
       <c r="M5">
-        <v>1.928122057715044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.139959098898008</v>
+      </c>
+      <c r="O5">
+        <v>1.46460866868064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.335298814229702</v>
+        <v>1.539702950131129</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1207093745745738</v>
+        <v>0.07244857062146792</v>
       </c>
       <c r="E6">
-        <v>0.5472515559968869</v>
+        <v>0.09661225494862435</v>
       </c>
       <c r="F6">
-        <v>2.059513640610348</v>
+        <v>1.849919503636016</v>
       </c>
       <c r="G6">
-        <v>0.6052354100631874</v>
+        <v>0.0008181295861569605</v>
       </c>
       <c r="H6">
-        <v>1.213833032191488</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3371708277421952</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2747368835016886</v>
+        <v>0.1435261229970237</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.112639161453345</v>
       </c>
       <c r="L6">
-        <v>1.624244561694127</v>
+        <v>0.7791931907592868</v>
       </c>
       <c r="M6">
-        <v>1.913785469137594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.142965099331622</v>
+      </c>
+      <c r="O6">
+        <v>1.458956077752063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.403072598368709</v>
+        <v>1.603344749952953</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1278015029436688</v>
+        <v>0.07589972330239902</v>
       </c>
       <c r="E7">
-        <v>0.5729712927858728</v>
+        <v>0.09970813243480592</v>
       </c>
       <c r="F7">
-        <v>2.167848769692057</v>
+        <v>1.892620395346412</v>
       </c>
       <c r="G7">
-        <v>0.6391713828638501</v>
+        <v>0.0008153855810323036</v>
       </c>
       <c r="H7">
-        <v>1.277278290258351</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.338003343927582</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2868434019761139</v>
+        <v>0.1468397347665658</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.169651045569751</v>
       </c>
       <c r="L7">
-        <v>1.710106638014821</v>
+        <v>0.8173872523600494</v>
       </c>
       <c r="M7">
-        <v>2.013497961113401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.122239420678347</v>
+      </c>
+      <c r="O7">
+        <v>1.498514976691681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.704137987337418</v>
+        <v>1.889096985579897</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1604140009706612</v>
+        <v>0.09143637797296833</v>
       </c>
       <c r="E8">
-        <v>0.6876112666478633</v>
+        <v>0.1135080636971075</v>
       </c>
       <c r="F8">
-        <v>2.672746481716018</v>
+        <v>2.091477246230014</v>
       </c>
       <c r="G8">
-        <v>0.7966630821572238</v>
+        <v>0.0008036208856656128</v>
       </c>
       <c r="H8">
-        <v>1.572962795883186</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3458359944616944</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3406317783361885</v>
+        <v>0.1615623353484139</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.424619692051579</v>
       </c>
       <c r="L8">
-        <v>2.095599319025666</v>
+        <v>0.9884672043961018</v>
       </c>
       <c r="M8">
-        <v>2.459475155970637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.034308879347783</v>
+      </c>
+      <c r="O8">
+        <v>1.681752353526093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.306182459470563</v>
+        <v>2.471823977786869</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2314109798043376</v>
+        <v>0.1235406959856391</v>
       </c>
       <c r="E9">
-        <v>0.9192945010425575</v>
+        <v>0.1413843675309927</v>
       </c>
       <c r="F9">
-        <v>3.798145983704103</v>
+        <v>2.526914082278907</v>
       </c>
       <c r="G9">
-        <v>1.145008708274005</v>
+        <v>0.000781656818006397</v>
       </c>
       <c r="H9">
-        <v>2.232108567071649</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3793409017985496</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4483570446372696</v>
+        <v>0.1910540154015052</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.941325023078264</v>
       </c>
       <c r="L9">
-        <v>2.88771931439058</v>
+        <v>1.336200553374169</v>
       </c>
       <c r="M9">
-        <v>3.367072415852135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8754235268249015</v>
+      </c>
+      <c r="O9">
+        <v>2.079385686728216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.760942759524369</v>
+        <v>2.918711565917363</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2908115922582653</v>
+        <v>0.1487216713388761</v>
       </c>
       <c r="E10">
-        <v>1.097249641202595</v>
+        <v>0.1627182304512829</v>
       </c>
       <c r="F10">
-        <v>4.755789560150163</v>
+        <v>2.883284155455613</v>
       </c>
       <c r="G10">
-        <v>1.439593854262142</v>
+        <v>0.0007660533128948682</v>
       </c>
       <c r="H10">
-        <v>2.793197167005729</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4187510849248923</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5300716642559138</v>
+        <v>0.213393666651335</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.336129884775076</v>
       </c>
       <c r="L10">
-        <v>3.507210740443213</v>
+        <v>1.602585549815672</v>
       </c>
       <c r="M10">
-        <v>4.068313602060883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.7678749686525688</v>
+      </c>
+      <c r="O10">
+        <v>2.402678381016628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.97205500912645</v>
+        <v>3.127404428505145</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3203308097924946</v>
+        <v>0.1606827154919444</v>
       </c>
       <c r="E11">
-        <v>1.18100243541484</v>
+        <v>0.1727043516556535</v>
       </c>
       <c r="F11">
-        <v>5.234652251094502</v>
+        <v>3.055589716065555</v>
       </c>
       <c r="G11">
-        <v>1.586473484678493</v>
+        <v>0.0007590343377498889</v>
       </c>
       <c r="H11">
-        <v>3.073865134745517</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4409536936759011</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5681792251385644</v>
+        <v>0.223781350727819</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.52033614815825</v>
       </c>
       <c r="L11">
-        <v>3.801890079926551</v>
+        <v>1.727036736010149</v>
       </c>
       <c r="M11">
-        <v>4.399106539601632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.7211814102321004</v>
+      </c>
+      <c r="O11">
+        <v>2.558547904019974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.052770819646923</v>
+        <v>3.207334142441255</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3319757626822621</v>
+        <v>0.1653007167128351</v>
       </c>
       <c r="E12">
-        <v>1.213250027239823</v>
+        <v>0.1765357940671635</v>
       </c>
       <c r="F12">
-        <v>5.423888801085809</v>
+        <v>3.12252309121169</v>
       </c>
       <c r="G12">
-        <v>1.644454655953695</v>
+        <v>0.0007563843098257769</v>
       </c>
       <c r="H12">
-        <v>3.184800827878263</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4500892874754499</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5827875211337528</v>
+        <v>0.2277551397376882</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.590879333383839</v>
       </c>
       <c r="L12">
-        <v>3.915861026096678</v>
+        <v>1.77472076643113</v>
       </c>
       <c r="M12">
-        <v>4.526547743098234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.7038439106461745</v>
+      </c>
+      <c r="O12">
+        <v>2.619035059317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.035349867191712</v>
+        <v>3.190077540398136</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3294449762390741</v>
+        <v>0.1643019265286085</v>
       </c>
       <c r="E13">
-        <v>1.206278746910556</v>
+        <v>0.1757082368674716</v>
       </c>
       <c r="F13">
-        <v>5.382749613535964</v>
+        <v>3.108029021649372</v>
       </c>
       <c r="G13">
-        <v>1.631852586649785</v>
+        <v>0.0007569547497470198</v>
       </c>
       <c r="H13">
-        <v>3.160682803220112</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4480873085038368</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5796326173806108</v>
+        <v>0.2268973871895312</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.575649340995867</v>
       </c>
       <c r="L13">
-        <v>3.891199244032094</v>
+        <v>1.764424867401146</v>
       </c>
       <c r="M13">
-        <v>4.498995032802554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.7075621285094638</v>
+      </c>
+      <c r="O13">
+        <v>2.605939572013824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.978679000231068</v>
+        <v>3.133961432618491</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3212787570705586</v>
+        <v>0.1610607654058072</v>
       </c>
       <c r="E14">
-        <v>1.183643907731394</v>
+        <v>0.1730185065730936</v>
       </c>
       <c r="F14">
-        <v>5.250051053843322</v>
+        <v>3.061061227454076</v>
       </c>
       <c r="G14">
-        <v>1.591192846340334</v>
+        <v>0.0007588161814631958</v>
       </c>
       <c r="H14">
-        <v>3.082891861801158</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4416899524163753</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5693771983416198</v>
+        <v>0.2241074218106007</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.526123195730534</v>
       </c>
       <c r="L14">
-        <v>3.811215196598226</v>
+        <v>1.730948024602554</v>
       </c>
       <c r="M14">
-        <v>4.409544330464442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.7197479967151601</v>
+      </c>
+      <c r="O14">
+        <v>2.563493674254843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.944072506532621</v>
+        <v>3.099710207633109</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3163412489796684</v>
+        <v>0.1590875143141517</v>
       </c>
       <c r="E15">
-        <v>1.169853267977444</v>
+        <v>0.1713777769147065</v>
       </c>
       <c r="F15">
-        <v>5.169856830709477</v>
+        <v>3.032518574162054</v>
       </c>
       <c r="G15">
-        <v>1.566612760603391</v>
+        <v>0.0007599572804864541</v>
       </c>
       <c r="H15">
-        <v>3.035883179705877</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4378699937049717</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5631201270755923</v>
+        <v>0.2224039759319822</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.495893695821394</v>
       </c>
       <c r="L15">
-        <v>3.762551282698212</v>
+        <v>1.71051782174041</v>
       </c>
       <c r="M15">
-        <v>4.355053283780663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.7272577873421149</v>
+      </c>
+      <c r="O15">
+        <v>2.537691153566897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.747244436272524</v>
+        <v>2.905192047111484</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2889411661131334</v>
+        <v>0.1479514701911455</v>
       </c>
       <c r="E16">
-        <v>1.091842740612961</v>
+        <v>0.162072048930952</v>
       </c>
       <c r="F16">
-        <v>4.72549800631694</v>
+        <v>2.87224673615583</v>
       </c>
       <c r="G16">
-        <v>1.430294292095567</v>
+        <v>0.0007665133254431589</v>
       </c>
       <c r="H16">
-        <v>2.775445339627709</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4173952228182429</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5276034749299399</v>
+        <v>0.2127199789574377</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.324194634828316</v>
       </c>
       <c r="L16">
-        <v>3.488253863864145</v>
+        <v>1.594525331802345</v>
       </c>
       <c r="M16">
-        <v>4.046971054130253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.7709733366780505</v>
+      </c>
+      <c r="O16">
+        <v>2.392685283367314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.627686981591864</v>
+        <v>2.787329169374971</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2728386738763504</v>
+        <v>0.1412599931200162</v>
       </c>
       <c r="E17">
-        <v>1.044783492535998</v>
+        <v>0.1564415971253013</v>
       </c>
       <c r="F17">
-        <v>4.465026961104456</v>
+        <v>2.776682265513358</v>
       </c>
       <c r="G17">
-        <v>1.350283794679171</v>
+        <v>0.0007705531882296847</v>
       </c>
       <c r="H17">
-        <v>2.622812101961699</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.406002447494437</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5060816307894171</v>
+        <v>0.2068420270288627</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.220126952024671</v>
       </c>
       <c r="L17">
-        <v>3.323611792804371</v>
+        <v>1.524263480284674</v>
       </c>
       <c r="M17">
-        <v>3.861296996921311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.7983785991355514</v>
+      </c>
+      <c r="O17">
+        <v>2.306115068094599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.559308137631774</v>
+        <v>2.720037553984639</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2638040498124923</v>
+        <v>0.1374577849591816</v>
       </c>
       <c r="E18">
-        <v>1.017970186635509</v>
+        <v>0.1532289332391343</v>
       </c>
       <c r="F18">
-        <v>4.319155637048169</v>
+        <v>2.72266054704906</v>
       </c>
       <c r="G18">
-        <v>1.305437865298643</v>
+        <v>0.0007728844928725388</v>
       </c>
       <c r="H18">
-        <v>2.537341411924928</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3998439385920207</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4937876444640565</v>
+        <v>0.2034818526501141</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.160695168821917</v>
       </c>
       <c r="L18">
-        <v>3.230086411797771</v>
+        <v>1.484152781429998</v>
       </c>
       <c r="M18">
-        <v>3.755577268922153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.8143497802296835</v>
+      </c>
+      <c r="O18">
+        <v>2.25713737072364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.536218415901317</v>
+        <v>2.697336081226126</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2607813124761833</v>
+        <v>0.1361779753017629</v>
       </c>
       <c r="E19">
-        <v>1.008931936109263</v>
+        <v>0.1521453509548749</v>
       </c>
       <c r="F19">
-        <v>4.270399663370938</v>
+        <v>2.704525721675225</v>
       </c>
       <c r="G19">
-        <v>1.290442146878917</v>
+        <v>0.0007736752504416538</v>
       </c>
       <c r="H19">
-        <v>2.508774985975094</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3978234427139142</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.489638559958486</v>
+        <v>0.2023474871911759</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.140642067349887</v>
       </c>
       <c r="L19">
-        <v>3.198607777282973</v>
+        <v>1.47062142086773</v>
       </c>
       <c r="M19">
-        <v>3.719954397062452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.8197924714296985</v>
+      </c>
+      <c r="O19">
+        <v>2.240688809667276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.640372918887635</v>
+        <v>2.799823269050194</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2745286298051894</v>
+        <v>0.1419673874616763</v>
       </c>
       <c r="E20">
-        <v>1.049765933656559</v>
+        <v>0.1570382318911108</v>
       </c>
       <c r="F20">
-        <v>4.492335565204257</v>
+        <v>2.786756026068758</v>
       </c>
       <c r="G20">
-        <v>1.358676303764412</v>
+        <v>0.0007701223665355495</v>
       </c>
       <c r="H20">
-        <v>2.638813736861323</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4071736770584309</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.508363617380418</v>
+        <v>0.2074655533905343</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.231160273672728</v>
       </c>
       <c r="L20">
-        <v>3.341013496191238</v>
+        <v>1.531711123085302</v>
       </c>
       <c r="M20">
-        <v>3.88094797368349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7954395326897092</v>
+      </c>
+      <c r="O20">
+        <v>2.315244904690772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.995302159476523</v>
+        <v>3.150418522721111</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3236636821662415</v>
+        <v>0.1620102290532088</v>
       </c>
       <c r="E21">
-        <v>1.190276625644671</v>
+        <v>0.1738071076827588</v>
       </c>
       <c r="F21">
-        <v>5.288797464692436</v>
+        <v>3.074809173326315</v>
       </c>
       <c r="G21">
-        <v>1.603066696434837</v>
+        <v>0.0007582692494210748</v>
       </c>
       <c r="H21">
-        <v>3.105605248459028</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4435482207526036</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5723842250643756</v>
+        <v>0.2249257426982965</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.540647739808819</v>
       </c>
       <c r="L21">
-        <v>3.834638789084153</v>
+        <v>1.74076511355085</v>
       </c>
       <c r="M21">
-        <v>4.435754572881038</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.7161591635026952</v>
+      </c>
+      <c r="O21">
+        <v>2.575919654779511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.231876519469381</v>
+        <v>3.384882764344297</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3585737909695297</v>
+        <v>0.1756351943407992</v>
       </c>
       <c r="E22">
-        <v>1.285304333825792</v>
+        <v>0.1850630540138773</v>
       </c>
       <c r="F22">
-        <v>5.856573216152981</v>
+        <v>3.273015279683847</v>
       </c>
       <c r="G22">
-        <v>1.776911254595404</v>
+        <v>0.0007505666552185788</v>
       </c>
       <c r="H22">
-        <v>3.438502676819382</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4716376014084602</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6152928592620697</v>
+        <v>0.236575892704721</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.747582366566448</v>
       </c>
       <c r="L22">
-        <v>4.171508228172456</v>
+        <v>1.880690641183236</v>
       </c>
       <c r="M22">
-        <v>4.811375090446674</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.6663651895218763</v>
+      </c>
+      <c r="O22">
+        <v>2.754924387167435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.105126024836181</v>
+        <v>3.259211080466002</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3396404759573528</v>
+        <v>0.1683092527107561</v>
       </c>
       <c r="E23">
-        <v>1.234239304054043</v>
+        <v>0.1790248624154529</v>
       </c>
       <c r="F23">
-        <v>5.548519825255141</v>
+        <v>3.166237932835116</v>
       </c>
       <c r="G23">
-        <v>1.682623518289461</v>
+        <v>0.0007546749176409994</v>
       </c>
       <c r="H23">
-        <v>3.257870112387678</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4562060223279829</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5922758545827094</v>
+        <v>0.2303332008773964</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.636664033200503</v>
       </c>
       <c r="L23">
-        <v>3.990190914234603</v>
+        <v>1.805676107274849</v>
       </c>
       <c r="M23">
-        <v>4.609510522170652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.6927476927924161</v>
+      </c>
+      <c r="O23">
+        <v>2.658523056922817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.634636508474159</v>
+        <v>2.794173234020832</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2737639140308517</v>
+        <v>0.1416474360649289</v>
       </c>
       <c r="E24">
-        <v>1.047512628422794</v>
+        <v>0.1567684181385687</v>
       </c>
       <c r="F24">
-        <v>4.479977389578806</v>
+        <v>2.782198830864388</v>
       </c>
       <c r="G24">
-        <v>1.354878494872025</v>
+        <v>0.000770317113571436</v>
       </c>
       <c r="H24">
-        <v>2.631572366420613</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4066429533920939</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5073316875981178</v>
+        <v>0.2071835980821319</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.22617087818081</v>
       </c>
       <c r="L24">
-        <v>3.333142705760423</v>
+        <v>1.528343166262147</v>
       </c>
       <c r="M24">
-        <v>3.872060603337914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.7967676150448266</v>
+      </c>
+      <c r="O24">
+        <v>2.311114851094231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.141571433980516</v>
+        <v>2.31129211538348</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2111874195233128</v>
+        <v>0.1146237693110024</v>
       </c>
       <c r="E25">
-        <v>0.8555658162068198</v>
+        <v>0.1337220303237423</v>
       </c>
       <c r="F25">
-        <v>3.474850933699884</v>
+        <v>2.403409010195389</v>
       </c>
       <c r="G25">
-        <v>1.045229181439467</v>
+        <v>0.0007874938263934364</v>
       </c>
       <c r="H25">
-        <v>2.042735806197243</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3679875219960991</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4188668254636241</v>
+        <v>0.1829814187537053</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.799274165402309</v>
       </c>
       <c r="L25">
-        <v>2.668158655674702</v>
+        <v>1.240488380544406</v>
       </c>
       <c r="M25">
-        <v>3.116708454465069</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.916866822839939</v>
+      </c>
+      <c r="O25">
+        <v>1.966965536433619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.967864589717152</v>
+        <v>0.8164715246143146</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09573743791074207</v>
+        <v>0.07531202300008744</v>
       </c>
       <c r="E2">
-        <v>0.1172907068076228</v>
+        <v>0.2174686777763926</v>
       </c>
       <c r="F2">
-        <v>2.148146085931955</v>
+        <v>0.3816906713095136</v>
       </c>
       <c r="G2">
-        <v>0.0008005128200956956</v>
+        <v>0.2771745070505673</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2541418817651291</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1655838973407384</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.49466944183861</v>
+        <v>1.401215519282545</v>
       </c>
       <c r="L2">
-        <v>1.035536410928557</v>
+        <v>0.1704451534603635</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1962361337110003</v>
       </c>
       <c r="N2">
-        <v>1.011370071322844</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.733734802082537</v>
+        <v>1.068536334844509</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.740988049203565</v>
+        <v>0.7304295064676012</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08337274833046848</v>
+        <v>0.06708082190172604</v>
       </c>
       <c r="E3">
-        <v>0.1063731204916571</v>
+        <v>0.2260750427072593</v>
       </c>
       <c r="F3">
-        <v>1.98702412041122</v>
+        <v>0.3638787623008</v>
       </c>
       <c r="G3">
-        <v>0.0008096144252517549</v>
+        <v>0.2682292618071216</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2553813667453255</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1539602397917648</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.292651564895252</v>
+        <v>1.264600992458696</v>
       </c>
       <c r="L3">
-        <v>0.8998675621306518</v>
+        <v>0.1482507672029882</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1731985859847853</v>
       </c>
       <c r="N3">
-        <v>1.078902209712528</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.585683781404128</v>
+        <v>1.051832904860035</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.604091924013289</v>
+        <v>0.678159745619979</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0759402519554655</v>
+        <v>0.06201238086180183</v>
       </c>
       <c r="E4">
-        <v>0.09974442048756416</v>
+        <v>0.2316409456766078</v>
       </c>
       <c r="F4">
-        <v>1.893125412094264</v>
+        <v>0.3537004947685531</v>
       </c>
       <c r="G4">
-        <v>0.0008153536667027328</v>
+        <v>0.2634254948495069</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.256585359835114</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1468785520925167</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.170319814516787</v>
+        <v>1.180547489941944</v>
       </c>
       <c r="L4">
-        <v>0.8178354251020039</v>
+        <v>0.1346726611427584</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1591600610872383</v>
       </c>
       <c r="N4">
-        <v>1.121998798268347</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.498982305651339</v>
+        <v>1.043955530822714</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.54884572464573</v>
+        <v>0.6569903446045657</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07294426866481984</v>
+        <v>0.05994294952421342</v>
       </c>
       <c r="E5">
-        <v>0.09705763789409971</v>
+        <v>0.2339791207126742</v>
       </c>
       <c r="F5">
-        <v>1.856015019523781</v>
+        <v>0.349734649964013</v>
       </c>
       <c r="G5">
-        <v>0.0008177321852614664</v>
+        <v>0.2616329394128769</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2571838299132025</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1440030663895158</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.120835551480397</v>
+        <v>1.146245302103665</v>
       </c>
       <c r="L5">
-        <v>0.7846826937116305</v>
+        <v>0.1291497920647302</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1534636014960036</v>
       </c>
       <c r="N5">
-        <v>1.139959098898008</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.46460866868064</v>
+        <v>1.041318836944242</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.539702950131129</v>
+        <v>0.6534828088111908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07244857062146792</v>
+        <v>0.05959907006820231</v>
       </c>
       <c r="E6">
-        <v>0.09661225494862435</v>
+        <v>0.2343715800428914</v>
       </c>
       <c r="F6">
-        <v>1.849919503636016</v>
+        <v>0.3490868592913401</v>
       </c>
       <c r="G6">
-        <v>0.0008181295861569605</v>
+        <v>0.261345022001052</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2572896174121198</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1435261229970237</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.112639161453345</v>
+        <v>1.14054626554551</v>
       </c>
       <c r="L6">
-        <v>0.7791931907592868</v>
+        <v>0.1282332881938402</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1525191100838406</v>
       </c>
       <c r="N6">
-        <v>1.142965099331622</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.458956077752063</v>
+        <v>1.040914945180916</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.603344749952953</v>
+        <v>0.6778737302746265</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07589972330239902</v>
+        <v>0.06198448845555049</v>
       </c>
       <c r="E7">
-        <v>0.09970813243480592</v>
+        <v>0.2316721965993587</v>
       </c>
       <c r="F7">
-        <v>1.892620395346412</v>
+        <v>0.3536462849292832</v>
       </c>
       <c r="G7">
-        <v>0.0008153855810323036</v>
+        <v>0.2634006621800964</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2565929989760676</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1468397347665658</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.169651045569751</v>
+        <v>1.180085088208841</v>
       </c>
       <c r="L7">
-        <v>0.8173872523600494</v>
+        <v>0.1345981386961839</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.159083141195385</v>
       </c>
       <c r="N7">
-        <v>1.122239420678347</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.498514976691681</v>
+        <v>1.043917681662236</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.889096985579897</v>
+        <v>0.786681756456403</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09143637797296833</v>
+        <v>0.07247667487395404</v>
       </c>
       <c r="E8">
-        <v>0.1135080636971075</v>
+        <v>0.2203772398803787</v>
       </c>
       <c r="F8">
-        <v>2.091477246230014</v>
+        <v>0.3753863172161545</v>
       </c>
       <c r="G8">
-        <v>0.0008036208856656128</v>
+        <v>0.273942241815412</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2544751386649082</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1615623353484139</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.424619692051579</v>
+        <v>1.354142331639451</v>
       </c>
       <c r="L8">
-        <v>0.9884672043961018</v>
+        <v>0.1627809933458337</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1882691338135345</v>
       </c>
       <c r="N8">
-        <v>1.034308879347783</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.681752353526093</v>
+        <v>1.062268098883607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.471823977786869</v>
+        <v>1.00498423197476</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1235406959856391</v>
+        <v>0.09295561375969896</v>
       </c>
       <c r="E9">
-        <v>0.1413843675309927</v>
+        <v>0.2004978033419649</v>
       </c>
       <c r="F9">
-        <v>2.526914082278907</v>
+        <v>0.4244531146739092</v>
       </c>
       <c r="G9">
-        <v>0.000781656818006397</v>
+        <v>0.3004644157912892</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2540045847197376</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1910540154015052</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.941325023078264</v>
+        <v>1.694440689310596</v>
       </c>
       <c r="L9">
-        <v>1.336200553374169</v>
+        <v>0.2185410478529803</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2464684535931134</v>
       </c>
       <c r="N9">
-        <v>0.8754235268249015</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079385686728216</v>
+        <v>1.118297156946824</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.918711565917363</v>
+        <v>1.169100997773199</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1487216713388761</v>
+        <v>0.1079712740318826</v>
       </c>
       <c r="E10">
-        <v>0.1627182304512829</v>
+        <v>0.1873275052069472</v>
       </c>
       <c r="F10">
-        <v>2.883284155455613</v>
+        <v>0.4650377796384362</v>
       </c>
       <c r="G10">
-        <v>0.0007660533128948682</v>
+        <v>0.3240820148801333</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2561497385018185</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.213393666651335</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.336129884775076</v>
+        <v>1.944354731660297</v>
       </c>
       <c r="L10">
-        <v>1.602585549815672</v>
+        <v>0.2599627506382376</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2899957818176802</v>
       </c>
       <c r="N10">
-        <v>0.7678749686525688</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.402678381016628</v>
+        <v>1.173395341299255</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.127404428505145</v>
+        <v>1.244743281546022</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1606827154919444</v>
+        <v>0.1148024804268886</v>
       </c>
       <c r="E11">
-        <v>0.1727043516556535</v>
+        <v>0.1816595625237527</v>
       </c>
       <c r="F11">
-        <v>3.055589716065555</v>
+        <v>0.4846293886205828</v>
       </c>
       <c r="G11">
-        <v>0.0007590343377498889</v>
+        <v>0.3358563463482369</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.257724369907379</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.223781350727819</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.52033614815825</v>
+        <v>2.058151728754297</v>
       </c>
       <c r="L11">
-        <v>1.727036736010149</v>
+        <v>0.27894191378752</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.310006887199421</v>
       </c>
       <c r="N11">
-        <v>0.7211814102321004</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.558547904019974</v>
+        <v>1.201889644158314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.207334142441255</v>
+        <v>1.273543537948314</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1653007167128351</v>
+        <v>0.1173899193923944</v>
       </c>
       <c r="E12">
-        <v>0.1765357940671635</v>
+        <v>0.1795608283412875</v>
       </c>
       <c r="F12">
-        <v>3.12252309121169</v>
+        <v>0.4922233154079834</v>
       </c>
       <c r="G12">
-        <v>0.0007563843098257769</v>
+        <v>0.3404749491516128</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2584118944742499</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2277551397376882</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.590879333383839</v>
+        <v>2.101270397071175</v>
       </c>
       <c r="L12">
-        <v>1.77472076643113</v>
+        <v>0.2861515963278407</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3176185106201572</v>
       </c>
       <c r="N12">
-        <v>0.7038439106461745</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.619035059317</v>
+        <v>1.213208665203609</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.190077540398136</v>
+        <v>1.26733370004473</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1643019265286085</v>
+        <v>0.1168326321037938</v>
       </c>
       <c r="E13">
-        <v>0.1757082368674716</v>
+        <v>0.1800106933575094</v>
       </c>
       <c r="F13">
-        <v>3.108029021649372</v>
+        <v>0.4905798348646329</v>
       </c>
       <c r="G13">
-        <v>0.0007569547497470198</v>
+        <v>0.3394729433487811</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2582596802132286</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2268973871895312</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2.575649340995867</v>
+        <v>2.091982679861019</v>
       </c>
       <c r="L13">
-        <v>1.764424867401146</v>
+        <v>0.2845978017042796</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3159776457207855</v>
       </c>
       <c r="N13">
-        <v>0.7075621285094638</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.605939572013824</v>
+        <v>1.210746799299301</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.133961432618491</v>
+        <v>1.247109479448255</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1610607654058072</v>
+        <v>0.1150153351799332</v>
       </c>
       <c r="E14">
-        <v>0.1730185065730936</v>
+        <v>0.1814859380261646</v>
       </c>
       <c r="F14">
-        <v>3.061061227454076</v>
+        <v>0.4852505631616921</v>
       </c>
       <c r="G14">
-        <v>0.0007588161814631958</v>
+        <v>0.3362330467749359</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2577790736538077</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2241074218106007</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2.526123195730534</v>
+        <v>2.06169853959517</v>
       </c>
       <c r="L14">
-        <v>1.730948024602554</v>
+        <v>0.2795345855770961</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3106324000693235</v>
       </c>
       <c r="N14">
-        <v>0.7197479967151601</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.563493674254843</v>
+        <v>1.202810055799716</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.099710207633109</v>
+        <v>1.234742345789471</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1590875143141517</v>
+        <v>0.11390228420413</v>
       </c>
       <c r="E15">
-        <v>0.1713777769147065</v>
+        <v>0.1823957997788996</v>
       </c>
       <c r="F15">
-        <v>3.032518574162054</v>
+        <v>0.482009408921833</v>
       </c>
       <c r="G15">
-        <v>0.0007599572804864541</v>
+        <v>0.3342697033009614</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2574967292999304</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2224039759319822</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2.495893695821394</v>
+        <v>2.043152366234523</v>
       </c>
       <c r="L15">
-        <v>1.71051782174041</v>
+        <v>0.2764362692750382</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.307362802491852</v>
       </c>
       <c r="N15">
-        <v>0.7272577873421149</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.537691153566897</v>
+        <v>1.198018538733862</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.905192047111484</v>
+        <v>1.164178635758361</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1479514701911455</v>
+        <v>0.1075248939140891</v>
       </c>
       <c r="E16">
-        <v>0.162072048930952</v>
+        <v>0.1877045169987692</v>
       </c>
       <c r="F16">
-        <v>2.87224673615583</v>
+        <v>0.4637812085485535</v>
       </c>
       <c r="G16">
-        <v>0.0007665133254431589</v>
+        <v>0.323334257965854</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2560593139090201</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2127199789574377</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2.324194634828316</v>
+        <v>1.93692091315225</v>
       </c>
       <c r="L16">
-        <v>1.594525331802345</v>
+        <v>0.2587254188486696</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2886925442152517</v>
       </c>
       <c r="N16">
-        <v>0.7709733366780505</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.392685283367314</v>
+        <v>1.171605185019075</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.787329169374971</v>
+        <v>1.121152371675635</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1412599931200162</v>
+        <v>0.1036130724355075</v>
       </c>
       <c r="E17">
-        <v>0.1564415971253013</v>
+        <v>0.1910448119526871</v>
       </c>
       <c r="F17">
-        <v>2.776682265513358</v>
+        <v>0.452896798373537</v>
       </c>
       <c r="G17">
-        <v>0.0007705531882296847</v>
+        <v>0.3168977842913918</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2553344274211469</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2068420270288627</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2.220126952024671</v>
+        <v>1.871786654994281</v>
       </c>
       <c r="L17">
-        <v>1.524263480284674</v>
+        <v>0.2478974143356112</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2772953055508935</v>
       </c>
       <c r="N17">
-        <v>0.7983785991355514</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.306115068094599</v>
+        <v>1.156304580822535</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.720037553984639</v>
+        <v>1.096496565682088</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1374577849591816</v>
+        <v>0.1013631098073802</v>
       </c>
       <c r="E18">
-        <v>0.1532289332391343</v>
+        <v>0.1929964214144686</v>
       </c>
       <c r="F18">
-        <v>2.72266054704906</v>
+        <v>0.4467418833738108</v>
       </c>
       <c r="G18">
-        <v>0.0007728844928725388</v>
+        <v>0.3132919527856473</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2549735264827788</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2034818526501141</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.160695168821917</v>
+        <v>1.834332820789513</v>
       </c>
       <c r="L18">
-        <v>1.484152781429998</v>
+        <v>0.2416820570212366</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2707594805019866</v>
       </c>
       <c r="N18">
-        <v>0.8143497802296835</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.25713737072364</v>
+        <v>1.147824651258901</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.697336081226126</v>
+        <v>1.088163865188335</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1361779753017629</v>
+        <v>0.1006012976699751</v>
       </c>
       <c r="E19">
-        <v>0.1521453509548749</v>
+        <v>0.1936623845966796</v>
       </c>
       <c r="F19">
-        <v>2.704525721675225</v>
+        <v>0.4446756849203908</v>
       </c>
       <c r="G19">
-        <v>0.0007736752504416538</v>
+        <v>0.3120872671204609</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2548608042141396</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2023474871911759</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.140642067349887</v>
+        <v>1.821652952106263</v>
       </c>
       <c r="L19">
-        <v>1.47062142086773</v>
+        <v>0.2395797210941168</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2685498165579894</v>
       </c>
       <c r="N19">
-        <v>0.8197924714296985</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.240688809667276</v>
+        <v>1.145007501668715</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.799823269050194</v>
+        <v>1.12572299128243</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1419673874616763</v>
+        <v>0.1040294873223147</v>
       </c>
       <c r="E20">
-        <v>0.1570382318911108</v>
+        <v>0.1906860818938823</v>
       </c>
       <c r="F20">
-        <v>2.786756026068758</v>
+        <v>0.4540444537410053</v>
       </c>
       <c r="G20">
-        <v>0.0007701223665355495</v>
+        <v>0.3175729129605855</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2554057572481838</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2074655533905343</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2.231160273672728</v>
+        <v>1.878719234392378</v>
       </c>
       <c r="L20">
-        <v>1.531711123085302</v>
+        <v>0.2490487455399233</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2785065107308995</v>
       </c>
       <c r="N20">
-        <v>0.7954395326897092</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.315244904690772</v>
+        <v>1.157899927065472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.150418522721111</v>
+        <v>1.253045464301579</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1620102290532088</v>
+        <v>0.115549098354478</v>
       </c>
       <c r="E21">
-        <v>0.1738071076827588</v>
+        <v>0.1810513221480168</v>
       </c>
       <c r="F21">
-        <v>3.074809173326315</v>
+        <v>0.4868110454676113</v>
       </c>
       <c r="G21">
-        <v>0.0007582692494210748</v>
+        <v>0.3371802456678239</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.257917720470445</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2249257426982965</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2.540647739808819</v>
+        <v>2.07059292716238</v>
       </c>
       <c r="L21">
-        <v>1.74076511355085</v>
+        <v>0.2810211334939794</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3122014796021091</v>
       </c>
       <c r="N21">
-        <v>0.7161591635026952</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.575919654779511</v>
+        <v>1.205126621799423</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.384882764344297</v>
+        <v>1.337175751967408</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1756351943407992</v>
+        <v>0.1230816558559269</v>
       </c>
       <c r="E22">
-        <v>0.1850630540138773</v>
+        <v>0.175032414242466</v>
       </c>
       <c r="F22">
-        <v>3.273015279683847</v>
+        <v>0.5092524133702625</v>
       </c>
       <c r="G22">
-        <v>0.0007505666552185788</v>
+        <v>0.3509328832472818</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2600939094006094</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.236575892704721</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2.747582366566448</v>
+        <v>2.196151702477408</v>
       </c>
       <c r="L22">
-        <v>1.880690641183236</v>
+        <v>0.3020507547659435</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.334422253645549</v>
       </c>
       <c r="N22">
-        <v>0.6663651895218763</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.754924387167435</v>
+        <v>1.23909270844635</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.259211080466002</v>
+        <v>1.292184806938565</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1683092527107561</v>
+        <v>0.1190608517950409</v>
       </c>
       <c r="E23">
-        <v>0.1790248624154529</v>
+        <v>0.1782190037053217</v>
       </c>
       <c r="F23">
-        <v>3.166237932835116</v>
+        <v>0.4971767394095608</v>
       </c>
       <c r="G23">
-        <v>0.0007546749176409994</v>
+        <v>0.3435029350904699</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2588817467675852</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2303332008773964</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2.636664033200503</v>
+        <v>2.129120487980146</v>
       </c>
       <c r="L23">
-        <v>1.805676107274849</v>
+        <v>0.2908135273615784</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3225431294689258</v>
       </c>
       <c r="N23">
-        <v>0.6927476927924161</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.658523056922817</v>
+        <v>1.220668282951465</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.794173234020832</v>
+        <v>1.123656364301752</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1416474360649289</v>
+        <v>0.1038412293205653</v>
       </c>
       <c r="E24">
-        <v>0.1567684181385687</v>
+        <v>0.1908481665636224</v>
       </c>
       <c r="F24">
-        <v>2.782198830864388</v>
+        <v>0.4535252798757696</v>
       </c>
       <c r="G24">
-        <v>0.000770317113571436</v>
+        <v>0.3172673935624815</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2553733354706651</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2071835980821319</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.22617087818081</v>
+        <v>1.87558503870477</v>
       </c>
       <c r="L24">
-        <v>1.528343166262147</v>
+        <v>0.2485281983884562</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2779588734361624</v>
       </c>
       <c r="N24">
-        <v>0.7967676150448266</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.311114851094231</v>
+        <v>1.157177687585687</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.31129211538348</v>
+        <v>0.945327592224487</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1146237693110024</v>
+        <v>0.08742298076734301</v>
       </c>
       <c r="E25">
-        <v>0.1337220303237423</v>
+        <v>0.2056275715295</v>
       </c>
       <c r="F25">
-        <v>2.403409010195389</v>
+        <v>0.4104291765456551</v>
       </c>
       <c r="G25">
-        <v>0.0007874938263934364</v>
+        <v>0.2926067289772689</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2537131086497411</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1829814187537053</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.799274165402309</v>
+        <v>1.602439245059543</v>
       </c>
       <c r="L25">
-        <v>1.240488380544406</v>
+        <v>0.2033883186632153</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2306027184641621</v>
       </c>
       <c r="N25">
-        <v>0.916866822839939</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.966965536433619</v>
+        <v>1.100822869270289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8164715246143146</v>
+        <v>0.8994777832438388</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07531202300008744</v>
+        <v>0.03098973583221465</v>
       </c>
       <c r="E2">
-        <v>0.2174686777763926</v>
+        <v>0.4989439136740277</v>
       </c>
       <c r="F2">
-        <v>0.3816906713095136</v>
+        <v>0.6057878136111157</v>
       </c>
       <c r="G2">
-        <v>0.2771745070505673</v>
+        <v>0.4458250048727663</v>
       </c>
       <c r="H2">
-        <v>0.2541418817651291</v>
+        <v>0.6048743712228486</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.401215519282545</v>
+        <v>0.5364747740920848</v>
       </c>
       <c r="L2">
-        <v>0.1704451534603635</v>
+        <v>0.09017653330438691</v>
       </c>
       <c r="M2">
-        <v>0.1962361337110003</v>
+        <v>0.1716984851608352</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.068536334844509</v>
+        <v>2.055507917526171</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7304295064676012</v>
+        <v>0.8793379074288907</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06708082190172604</v>
+        <v>0.02821835525161021</v>
       </c>
       <c r="E3">
-        <v>0.2260750427072593</v>
+        <v>0.503869437435398</v>
       </c>
       <c r="F3">
-        <v>0.3638787623008</v>
+        <v>0.6061101617779272</v>
       </c>
       <c r="G3">
-        <v>0.2682292618071216</v>
+        <v>0.4476108319886762</v>
       </c>
       <c r="H3">
-        <v>0.2553813667453255</v>
+        <v>0.6091861083516861</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.264600992458696</v>
+        <v>0.4900690769718494</v>
       </c>
       <c r="L3">
-        <v>0.1482507672029882</v>
+        <v>0.08385917601138715</v>
       </c>
       <c r="M3">
-        <v>0.1731985859847853</v>
+        <v>0.165806310205344</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.051832904860035</v>
+        <v>2.068080932139424</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.678159745619979</v>
+        <v>0.8673459586765375</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06201238086180183</v>
+        <v>0.02650418037655555</v>
       </c>
       <c r="E4">
-        <v>0.2316409456766078</v>
+        <v>0.507072348426215</v>
       </c>
       <c r="F4">
-        <v>0.3537004947685531</v>
+        <v>0.6066939203452932</v>
       </c>
       <c r="G4">
-        <v>0.2634254948495069</v>
+        <v>0.4490278366037685</v>
       </c>
       <c r="H4">
-        <v>0.256585359835114</v>
+        <v>0.6120999499622783</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.180547489941944</v>
+        <v>0.461402298598756</v>
       </c>
       <c r="L4">
-        <v>0.1346726611427584</v>
+        <v>0.08000511921516562</v>
       </c>
       <c r="M4">
-        <v>0.1591600610872383</v>
+        <v>0.1622562861741699</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.043955530822714</v>
+        <v>2.077029576505197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6569903446045657</v>
+        <v>0.8625537122819082</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05994294952421342</v>
+        <v>0.02580252527819482</v>
       </c>
       <c r="E5">
-        <v>0.2339791207126742</v>
+        <v>0.5084225383329728</v>
       </c>
       <c r="F5">
-        <v>0.349734649964013</v>
+        <v>0.6070288643512569</v>
       </c>
       <c r="G5">
-        <v>0.2616329394128769</v>
+        <v>0.4496858250490448</v>
       </c>
       <c r="H5">
-        <v>0.2571838299132025</v>
+        <v>0.613354412301085</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.146245302103665</v>
+        <v>0.4496775363109293</v>
       </c>
       <c r="L5">
-        <v>0.1291497920647302</v>
+        <v>0.07844090103922241</v>
       </c>
       <c r="M5">
-        <v>0.1534636014960036</v>
+        <v>0.1608267925074358</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.041318836944242</v>
+        <v>2.080985219529765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6534828088111908</v>
+        <v>0.8617636905508732</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05959907006820231</v>
+        <v>0.02568582894961224</v>
       </c>
       <c r="E6">
-        <v>0.2343715800428914</v>
+        <v>0.5086494547127538</v>
       </c>
       <c r="F6">
-        <v>0.3490868592913401</v>
+        <v>0.6070903446450444</v>
       </c>
       <c r="G6">
-        <v>0.261345022001052</v>
+        <v>0.4497999470849479</v>
       </c>
       <c r="H6">
-        <v>0.2572896174121198</v>
+        <v>0.6135667659911732</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.14054626554551</v>
+        <v>0.4477280862751343</v>
       </c>
       <c r="L6">
-        <v>0.1282332881938402</v>
+        <v>0.07818154970352253</v>
       </c>
       <c r="M6">
-        <v>0.1525191100838406</v>
+        <v>0.1605904667984355</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.040914945180916</v>
+        <v>2.081660714186668</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6778737302746265</v>
+        <v>0.8672809451632304</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06198448845555049</v>
+        <v>0.02649473017338266</v>
       </c>
       <c r="E7">
-        <v>0.2316721965993587</v>
+        <v>0.5070903753632834</v>
       </c>
       <c r="F7">
-        <v>0.3536462849292832</v>
+        <v>0.6066980444870111</v>
       </c>
       <c r="G7">
-        <v>0.2634006621800964</v>
+        <v>0.4490363843917393</v>
       </c>
       <c r="H7">
-        <v>0.2565929989760676</v>
+        <v>0.6121165965310595</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.180085088208841</v>
+        <v>0.4612443466454579</v>
       </c>
       <c r="L7">
-        <v>0.1345981386961839</v>
+        <v>0.07998399781519794</v>
       </c>
       <c r="M7">
-        <v>0.159083141195385</v>
+        <v>0.1622369378396407</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.043917681662236</v>
+        <v>2.077081672551216</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.786681756456403</v>
+        <v>0.8924562309124724</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07247667487395404</v>
+        <v>0.03003678729272252</v>
       </c>
       <c r="E8">
-        <v>0.2203772398803787</v>
+        <v>0.5006051996435743</v>
       </c>
       <c r="F8">
-        <v>0.3753863172161545</v>
+        <v>0.6058188992556737</v>
       </c>
       <c r="G8">
-        <v>0.273942241815412</v>
+        <v>0.4463742107813999</v>
       </c>
       <c r="H8">
-        <v>0.2544751386649082</v>
+        <v>0.6063057963243637</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.354142331639451</v>
+        <v>0.5205105687489038</v>
       </c>
       <c r="L8">
-        <v>0.1627809933458337</v>
+        <v>0.08799321285047768</v>
       </c>
       <c r="M8">
-        <v>0.1882691338135345</v>
+        <v>0.1696528634923773</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.062268098883607</v>
+        <v>2.059588070621132</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.00498423197476</v>
+        <v>0.9447729837810357</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09295561375969896</v>
+        <v>0.0368819440857564</v>
       </c>
       <c r="E9">
-        <v>0.2004978033419649</v>
+        <v>0.4893021383654741</v>
       </c>
       <c r="F9">
-        <v>0.4244531146739092</v>
+        <v>0.6071555778951137</v>
       </c>
       <c r="G9">
-        <v>0.3004644157912892</v>
+        <v>0.4436992077807105</v>
       </c>
       <c r="H9">
-        <v>0.2540045847197376</v>
+        <v>0.5970224088333396</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.694440689310596</v>
+        <v>0.6353246722393351</v>
       </c>
       <c r="L9">
-        <v>0.2185410478529803</v>
+        <v>0.1038927425874334</v>
       </c>
       <c r="M9">
-        <v>0.2464684535931134</v>
+        <v>0.1847288972257708</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.118297156946824</v>
+        <v>2.035033516118204</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.169100997773199</v>
+        <v>0.9849859335518261</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1079712740318826</v>
+        <v>0.04184827217841303</v>
       </c>
       <c r="E10">
-        <v>0.1873275052069472</v>
+        <v>0.4818558199128766</v>
       </c>
       <c r="F10">
-        <v>0.4650377796384362</v>
+        <v>0.6100037391472739</v>
       </c>
       <c r="G10">
-        <v>0.3240820148801333</v>
+        <v>0.4432898313634013</v>
       </c>
       <c r="H10">
-        <v>0.2561497385018185</v>
+        <v>0.5914861958614921</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.944354731660297</v>
+        <v>0.7187882685815907</v>
       </c>
       <c r="L10">
-        <v>0.2599627506382376</v>
+        <v>0.1156885951171773</v>
       </c>
       <c r="M10">
-        <v>0.2899957818176802</v>
+        <v>0.1961256919213241</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.173395341299255</v>
+        <v>2.022940252851015</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.244743281546022</v>
+        <v>1.003661217608425</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1148024804268886</v>
+        <v>0.04409368302550831</v>
       </c>
       <c r="E11">
-        <v>0.1816595625237527</v>
+        <v>0.4786537186033515</v>
       </c>
       <c r="F11">
-        <v>0.4846293886205828</v>
+        <v>0.6117047642398461</v>
       </c>
       <c r="G11">
-        <v>0.3358563463482369</v>
+        <v>0.4434423750721521</v>
       </c>
       <c r="H11">
-        <v>0.257724369907379</v>
+        <v>0.5892458859586327</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.058151728754297</v>
+        <v>0.7565582772431014</v>
       </c>
       <c r="L11">
-        <v>0.27894191378752</v>
+        <v>0.1210790254029064</v>
       </c>
       <c r="M11">
-        <v>0.310006887199421</v>
+        <v>0.2013790387553911</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.201889644158314</v>
+        <v>2.018730782929623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.273543537948314</v>
+        <v>1.010787563719617</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1173899193923944</v>
+        <v>0.0449419450335995</v>
       </c>
       <c r="E12">
-        <v>0.1795608283412875</v>
+        <v>0.4774677432314736</v>
       </c>
       <c r="F12">
-        <v>0.4922233154079834</v>
+        <v>0.6124071747201612</v>
       </c>
       <c r="G12">
-        <v>0.3404749491516128</v>
+        <v>0.4435489145348299</v>
       </c>
       <c r="H12">
-        <v>0.2584118944742499</v>
+        <v>0.588437485151303</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.101270397071175</v>
+        <v>0.7708316142374088</v>
       </c>
       <c r="L12">
-        <v>0.2861515963278407</v>
+        <v>0.1231236718714968</v>
       </c>
       <c r="M12">
-        <v>0.3176185106201572</v>
+        <v>0.2033781442597373</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.213208665203609</v>
+        <v>2.017322556552188</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.26733370004473</v>
+        <v>1.00925036577047</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1168326321037938</v>
+        <v>0.04475934743064158</v>
       </c>
       <c r="E13">
-        <v>0.1800106933575094</v>
+        <v>0.4777219824052921</v>
       </c>
       <c r="F13">
-        <v>0.4905798348646329</v>
+        <v>0.6122533069206995</v>
       </c>
       <c r="G13">
-        <v>0.3394729433487811</v>
+        <v>0.4435237991630601</v>
       </c>
       <c r="H13">
-        <v>0.2582596802132286</v>
+        <v>0.5886098123231136</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.091982679861019</v>
+        <v>0.767758914747418</v>
       </c>
       <c r="L13">
-        <v>0.2845978017042796</v>
+        <v>0.1226831708183909</v>
       </c>
       <c r="M13">
-        <v>0.3159776457207855</v>
+        <v>0.2029471683345392</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.210746799299301</v>
+        <v>2.01761757870014</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.247109479448255</v>
+        <v>1.004246418799937</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1150153351799332</v>
+        <v>0.04416351090488035</v>
       </c>
       <c r="E14">
-        <v>0.1814859380261646</v>
+        <v>0.4785556150605146</v>
       </c>
       <c r="F14">
-        <v>0.4852505631616921</v>
+        <v>0.6117613843159333</v>
       </c>
       <c r="G14">
-        <v>0.3362330467749359</v>
+        <v>0.4434501622883147</v>
       </c>
       <c r="H14">
-        <v>0.2577790736538077</v>
+        <v>0.5891785777931204</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.06169853959517</v>
+        <v>0.7577331463850498</v>
       </c>
       <c r="L14">
-        <v>0.2795345855770961</v>
+        <v>0.1212471720174193</v>
       </c>
       <c r="M14">
-        <v>0.3106324000693235</v>
+        <v>0.2015433111593197</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.202810055799716</v>
+        <v>2.018611203160503</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.234742345789471</v>
+        <v>1.001188428034709</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.11390228420413</v>
+        <v>0.04379827867965957</v>
       </c>
       <c r="E15">
-        <v>0.1823957997788996</v>
+        <v>0.4790697005700721</v>
       </c>
       <c r="F15">
-        <v>0.482009408921833</v>
+        <v>0.6114676551387817</v>
       </c>
       <c r="G15">
-        <v>0.3342697033009614</v>
+        <v>0.4434114111978289</v>
       </c>
       <c r="H15">
-        <v>0.2574967292999304</v>
+        <v>0.589532165307844</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.043152366234523</v>
+        <v>0.7515882262649711</v>
       </c>
       <c r="L15">
-        <v>0.2764362692750382</v>
+        <v>0.1203680218832091</v>
       </c>
       <c r="M15">
-        <v>0.307362802491852</v>
+        <v>0.2006846775430873</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.198018538733862</v>
+        <v>2.019244025928771</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.164178635758361</v>
+        <v>0.9837731047018963</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1075248939140891</v>
+        <v>0.04170124805074238</v>
       </c>
       <c r="E16">
-        <v>0.1877045169987692</v>
+        <v>0.482068808498501</v>
       </c>
       <c r="F16">
-        <v>0.4637812085485535</v>
+        <v>0.609900728444245</v>
       </c>
       <c r="G16">
-        <v>0.323334257965854</v>
+        <v>0.4432866843397534</v>
       </c>
       <c r="H16">
-        <v>0.2560593139090201</v>
+        <v>0.5916381988387371</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.93692091315225</v>
+        <v>0.7163158506645573</v>
       </c>
       <c r="L16">
-        <v>0.2587254188486696</v>
+        <v>0.1153368004557649</v>
       </c>
       <c r="M16">
-        <v>0.2886925442152517</v>
+        <v>0.1957837485274752</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.171605185019075</v>
+        <v>2.023241350334729</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.121152371675635</v>
+        <v>0.9731868769395646</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1036130724355075</v>
+        <v>0.04041122386211526</v>
       </c>
       <c r="E17">
-        <v>0.1910448119526871</v>
+        <v>0.4839560793973963</v>
       </c>
       <c r="F17">
-        <v>0.452896798373537</v>
+        <v>0.6090432810040483</v>
       </c>
       <c r="G17">
-        <v>0.3168977842913918</v>
+        <v>0.443296978691734</v>
       </c>
       <c r="H17">
-        <v>0.2553344274211469</v>
+        <v>0.5930013920643376</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.871786654994281</v>
+        <v>0.6946260553768866</v>
       </c>
       <c r="L17">
-        <v>0.2478974143356112</v>
+        <v>0.1122564922895606</v>
       </c>
       <c r="M17">
-        <v>0.2772953055508935</v>
+        <v>0.1927947393755645</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.156304580822535</v>
+        <v>2.026024478842828</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.096496565682088</v>
+        <v>0.9671339665459868</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1013631098073802</v>
+        <v>0.03966793999403251</v>
       </c>
       <c r="E18">
-        <v>0.1929964214144686</v>
+        <v>0.4850590288196361</v>
       </c>
       <c r="F18">
-        <v>0.4467418833738108</v>
+        <v>0.6085882579604487</v>
       </c>
       <c r="G18">
-        <v>0.3132919527856473</v>
+        <v>0.4433347829911156</v>
       </c>
       <c r="H18">
-        <v>0.2549735264827788</v>
+        <v>0.5938116471322843</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.834332820789513</v>
+        <v>0.6821320740479848</v>
       </c>
       <c r="L18">
-        <v>0.2416820570212366</v>
+        <v>0.1104870870742616</v>
       </c>
       <c r="M18">
-        <v>0.2707594805019866</v>
+        <v>0.1910820321099322</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.147824651258901</v>
+        <v>2.027746849984595</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.088163865188335</v>
+        <v>0.9650907559351936</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1006012976699751</v>
+        <v>0.03941605553651328</v>
       </c>
       <c r="E19">
-        <v>0.1936623845966796</v>
+        <v>0.4854354656063267</v>
       </c>
       <c r="F19">
-        <v>0.4446756849203908</v>
+        <v>0.6084407493723987</v>
       </c>
       <c r="G19">
-        <v>0.3120872671204609</v>
+        <v>0.4433530570208575</v>
       </c>
       <c r="H19">
-        <v>0.2548608042141396</v>
+        <v>0.5940904836569416</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.821652952106263</v>
+        <v>0.6778986613803681</v>
       </c>
       <c r="L19">
-        <v>0.2395797210941168</v>
+        <v>0.1098883962765456</v>
       </c>
       <c r="M19">
-        <v>0.2685498165579894</v>
+        <v>0.190503257750521</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.145007501668715</v>
+        <v>2.028350896851165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.12572299128243</v>
+        <v>0.9743100761981509</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1040294873223147</v>
+        <v>0.04054868358478103</v>
       </c>
       <c r="E20">
-        <v>0.1906860818938823</v>
+        <v>0.4837533714629449</v>
       </c>
       <c r="F20">
-        <v>0.4540444537410053</v>
+        <v>0.6091306087043478</v>
       </c>
       <c r="G20">
-        <v>0.3175729129605855</v>
+        <v>0.4432925826064107</v>
       </c>
       <c r="H20">
-        <v>0.2554057572481838</v>
+        <v>0.5928535683330693</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.878719234392378</v>
+        <v>0.696936900904717</v>
       </c>
       <c r="L20">
-        <v>0.2490487455399233</v>
+        <v>0.1125841584041183</v>
       </c>
       <c r="M20">
-        <v>0.2785065107308995</v>
+        <v>0.1931122535657437</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.157899927065472</v>
+        <v>2.025715625681954</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.253045464301579</v>
+        <v>1.005714726645778</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.115549098354478</v>
+        <v>0.04433857786825968</v>
       </c>
       <c r="E21">
-        <v>0.1810513221480168</v>
+        <v>0.4783100356707193</v>
       </c>
       <c r="F21">
-        <v>0.4868110454676113</v>
+        <v>0.6119042927013751</v>
       </c>
       <c r="G21">
-        <v>0.3371802456678239</v>
+        <v>0.4434704670299396</v>
       </c>
       <c r="H21">
-        <v>0.257917720470445</v>
+        <v>0.5890104335173163</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.07059292716238</v>
+        <v>0.7606787609516346</v>
       </c>
       <c r="L21">
-        <v>0.2810211334939794</v>
+        <v>0.1216688680450915</v>
       </c>
       <c r="M21">
-        <v>0.3122014796021091</v>
+        <v>0.2019553937217111</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.205126621799423</v>
+        <v>2.01831430842185</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.337175751967408</v>
+        <v>1.026556440024109</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1230816558559269</v>
+        <v>0.04680366205708708</v>
       </c>
       <c r="E22">
-        <v>0.175032414242466</v>
+        <v>0.4749074701627505</v>
       </c>
       <c r="F22">
-        <v>0.5092524133702625</v>
+        <v>0.6140566806289414</v>
       </c>
       <c r="G22">
-        <v>0.3509328832472818</v>
+        <v>0.4438710464242064</v>
       </c>
       <c r="H22">
-        <v>0.2600939094006094</v>
+        <v>0.586731597709317</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.196151702477408</v>
+        <v>0.8021663004777224</v>
       </c>
       <c r="L22">
-        <v>0.3020507547659435</v>
+        <v>0.127626063100152</v>
       </c>
       <c r="M22">
-        <v>0.334422253645549</v>
+        <v>0.2077918255138442</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.23909270844635</v>
+        <v>2.014560173659561</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.292184806938565</v>
+        <v>1.015404001967283</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1190608517950409</v>
+        <v>0.04548909677380664</v>
       </c>
       <c r="E23">
-        <v>0.1782190037053217</v>
+        <v>0.4767093202040842</v>
       </c>
       <c r="F23">
-        <v>0.4971767394095608</v>
+        <v>0.612876843388598</v>
       </c>
       <c r="G23">
-        <v>0.3435029350904699</v>
+        <v>0.4436312148721555</v>
       </c>
       <c r="H23">
-        <v>0.2588817467675852</v>
+        <v>0.5879265605623942</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.129120487980146</v>
+        <v>0.7800395951011012</v>
       </c>
       <c r="L23">
-        <v>0.2908135273615784</v>
+        <v>0.1244448183798283</v>
       </c>
       <c r="M23">
-        <v>0.3225431294689258</v>
+        <v>0.2046716456306399</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.220668282951465</v>
+        <v>2.016464711802428</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.123656364301752</v>
+        <v>0.973802174193537</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1038412293205653</v>
+        <v>0.04048654312376954</v>
       </c>
       <c r="E24">
-        <v>0.1908481665636224</v>
+        <v>0.4838449598594599</v>
       </c>
       <c r="F24">
-        <v>0.4535252798757696</v>
+        <v>0.609091009685514</v>
       </c>
       <c r="G24">
-        <v>0.3172673935624815</v>
+        <v>0.4432944707588078</v>
       </c>
       <c r="H24">
-        <v>0.2553733354706651</v>
+        <v>0.5929203167772386</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.87558503870477</v>
+        <v>0.6958922430469556</v>
       </c>
       <c r="L24">
-        <v>0.2485281983884562</v>
+        <v>0.112436015858421</v>
       </c>
       <c r="M24">
-        <v>0.2779588734361624</v>
+        <v>0.1929686875927885</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.157177687585687</v>
+        <v>2.025854877202391</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.945327592224487</v>
+        <v>0.9303065176754899</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08742298076734301</v>
+        <v>0.03504107969841641</v>
       </c>
       <c r="E25">
-        <v>0.2056275715295</v>
+        <v>0.4922089341791551</v>
       </c>
       <c r="F25">
-        <v>0.4104291765456551</v>
+        <v>0.6064662750720444</v>
       </c>
       <c r="G25">
-        <v>0.2926067289772689</v>
+        <v>0.4441499204355353</v>
       </c>
       <c r="H25">
-        <v>0.2537131086497411</v>
+        <v>0.5993080607749874</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.602439245059543</v>
+        <v>0.6044184191307522</v>
       </c>
       <c r="L25">
-        <v>0.2033883186632153</v>
+        <v>0.09957114552686619</v>
       </c>
       <c r="M25">
-        <v>0.2306027184641621</v>
+        <v>0.1805938161819078</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.100822869270289</v>
+        <v>2.040632023388966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8994777832438388</v>
+        <v>0.8164715246144283</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03098973583221465</v>
+        <v>0.07531202300009454</v>
       </c>
       <c r="E2">
-        <v>0.4989439136740277</v>
+        <v>0.2174686777764356</v>
       </c>
       <c r="F2">
-        <v>0.6057878136111157</v>
+        <v>0.3816906713094923</v>
       </c>
       <c r="G2">
-        <v>0.4458250048727663</v>
+        <v>0.2771745070505105</v>
       </c>
       <c r="H2">
-        <v>0.6048743712228486</v>
+        <v>0.2541418817650225</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5364747740920848</v>
+        <v>1.401215519282374</v>
       </c>
       <c r="L2">
-        <v>0.09017653330438691</v>
+        <v>0.1704451534603635</v>
       </c>
       <c r="M2">
-        <v>0.1716984851608352</v>
+        <v>0.1962361337109755</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.055507917526171</v>
+        <v>1.068536334844438</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8793379074288907</v>
+        <v>0.7304295064676296</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02821835525161021</v>
+        <v>0.06708082190157683</v>
       </c>
       <c r="E3">
-        <v>0.503869437435398</v>
+        <v>0.2260750427072669</v>
       </c>
       <c r="F3">
-        <v>0.6061101617779272</v>
+        <v>0.3638787623008071</v>
       </c>
       <c r="G3">
-        <v>0.4476108319886762</v>
+        <v>0.2682292618070647</v>
       </c>
       <c r="H3">
-        <v>0.6091861083516861</v>
+        <v>0.2553813667453184</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4900690769718494</v>
+        <v>1.264600992458782</v>
       </c>
       <c r="L3">
-        <v>0.08385917601138715</v>
+        <v>0.1482507672031019</v>
       </c>
       <c r="M3">
-        <v>0.165806310205344</v>
+        <v>0.1731985859847711</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.068080932139424</v>
+        <v>1.051832904860106</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8673459586765375</v>
+        <v>0.678159745619979</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02650418037655555</v>
+        <v>0.06201238086181604</v>
       </c>
       <c r="E4">
-        <v>0.507072348426215</v>
+        <v>0.2316409456766371</v>
       </c>
       <c r="F4">
-        <v>0.6066939203452932</v>
+        <v>0.3537004947685318</v>
       </c>
       <c r="G4">
-        <v>0.4490278366037685</v>
+        <v>0.263425494849443</v>
       </c>
       <c r="H4">
-        <v>0.6120999499622783</v>
+        <v>0.256585359835114</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.461402298598756</v>
+        <v>1.180547489941972</v>
       </c>
       <c r="L4">
-        <v>0.08000511921516562</v>
+        <v>0.1346726611427513</v>
       </c>
       <c r="M4">
-        <v>0.1622562861741699</v>
+        <v>0.1591600610872383</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.077029576505197</v>
+        <v>1.043955530822728</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8625537122819082</v>
+        <v>0.6569903446047931</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02580252527819482</v>
+        <v>0.05994294952410684</v>
       </c>
       <c r="E5">
-        <v>0.5084225383329728</v>
+        <v>0.2339791207127146</v>
       </c>
       <c r="F5">
-        <v>0.6070288643512569</v>
+        <v>0.349734649964013</v>
       </c>
       <c r="G5">
-        <v>0.4496858250490448</v>
+        <v>0.2616329394128627</v>
       </c>
       <c r="H5">
-        <v>0.613354412301085</v>
+        <v>0.257183829913096</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4496775363109293</v>
+        <v>1.146245302103551</v>
       </c>
       <c r="L5">
-        <v>0.07844090103922241</v>
+        <v>0.1291497920646734</v>
       </c>
       <c r="M5">
-        <v>0.1608267925074358</v>
+        <v>0.1534636014960213</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.080985219529765</v>
+        <v>1.041318836944242</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8617636905508732</v>
+        <v>0.6534828088109634</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02568582894961224</v>
+        <v>0.05959907006825915</v>
       </c>
       <c r="E6">
-        <v>0.5086494547127538</v>
+        <v>0.234371580042898</v>
       </c>
       <c r="F6">
-        <v>0.6070903446450444</v>
+        <v>0.349086859291333</v>
       </c>
       <c r="G6">
-        <v>0.4497999470849479</v>
+        <v>0.261345022001052</v>
       </c>
       <c r="H6">
-        <v>0.6135667659911732</v>
+        <v>0.2572896174121126</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4477280862751343</v>
+        <v>1.140546265545481</v>
       </c>
       <c r="L6">
-        <v>0.07818154970352253</v>
+        <v>0.1282332881939112</v>
       </c>
       <c r="M6">
-        <v>0.1605904667984355</v>
+        <v>0.1525191100838441</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.081660714186668</v>
+        <v>1.04091494518093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8672809451632304</v>
+        <v>0.6778737302746265</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02649473017338266</v>
+        <v>0.0619844884554368</v>
       </c>
       <c r="E7">
-        <v>0.5070903753632834</v>
+        <v>0.2316721965993649</v>
       </c>
       <c r="F7">
-        <v>0.6066980444870111</v>
+        <v>0.3536462849292832</v>
       </c>
       <c r="G7">
-        <v>0.4490363843917393</v>
+        <v>0.2634006621800324</v>
       </c>
       <c r="H7">
-        <v>0.6121165965310595</v>
+        <v>0.256592998975961</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4612443466454579</v>
+        <v>1.180085088208983</v>
       </c>
       <c r="L7">
-        <v>0.07998399781519794</v>
+        <v>0.1345981386961057</v>
       </c>
       <c r="M7">
-        <v>0.1622369378396407</v>
+        <v>0.159083141195385</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.077081672551216</v>
+        <v>1.043917681662236</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8924562309124724</v>
+        <v>0.786681756456403</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03003678729272252</v>
+        <v>0.07247667487405351</v>
       </c>
       <c r="E8">
-        <v>0.5006051996435743</v>
+        <v>0.2203772398803676</v>
       </c>
       <c r="F8">
-        <v>0.6058188992556737</v>
+        <v>0.3753863172161545</v>
       </c>
       <c r="G8">
-        <v>0.4463742107813999</v>
+        <v>0.273942241815476</v>
       </c>
       <c r="H8">
-        <v>0.6063057963243637</v>
+        <v>0.2544751386649082</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5205105687489038</v>
+        <v>1.354142331639338</v>
       </c>
       <c r="L8">
-        <v>0.08799321285047768</v>
+        <v>0.1627809933459616</v>
       </c>
       <c r="M8">
-        <v>0.1696528634923773</v>
+        <v>0.1882691338135487</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.059588070621132</v>
+        <v>1.062268098883607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9447729837810357</v>
+        <v>1.004984231974731</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0368819440857564</v>
+        <v>0.09295561375959949</v>
       </c>
       <c r="E9">
-        <v>0.4893021383654741</v>
+        <v>0.2004978033419675</v>
       </c>
       <c r="F9">
-        <v>0.6071555778951137</v>
+        <v>0.424453114673895</v>
       </c>
       <c r="G9">
-        <v>0.4436992077807105</v>
+        <v>0.3004644157912892</v>
       </c>
       <c r="H9">
-        <v>0.5970224088333396</v>
+        <v>0.2540045847197447</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6353246722393351</v>
+        <v>1.694440689310625</v>
       </c>
       <c r="L9">
-        <v>0.1038927425874334</v>
+        <v>0.2185410478529803</v>
       </c>
       <c r="M9">
-        <v>0.1847288972257708</v>
+        <v>0.2464684535931134</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.035033516118204</v>
+        <v>1.118297156946824</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9849859335518261</v>
+        <v>1.16910099777337</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04184827217841303</v>
+        <v>0.1079712740318968</v>
       </c>
       <c r="E10">
-        <v>0.4818558199128766</v>
+        <v>0.1873275052069729</v>
       </c>
       <c r="F10">
-        <v>0.6100037391472739</v>
+        <v>0.4650377796384362</v>
       </c>
       <c r="G10">
-        <v>0.4432898313634013</v>
+        <v>0.3240820148801902</v>
       </c>
       <c r="H10">
-        <v>0.5914861958614921</v>
+        <v>0.2561497385018185</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7187882685815907</v>
+        <v>1.944354731660155</v>
       </c>
       <c r="L10">
-        <v>0.1156885951171773</v>
+        <v>0.259962750638266</v>
       </c>
       <c r="M10">
-        <v>0.1961256919213241</v>
+        <v>0.2899957818176802</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.022940252851015</v>
+        <v>1.173395341299226</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.003661217608425</v>
+        <v>1.244743281545965</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04409368302550831</v>
+        <v>0.1148024804268033</v>
       </c>
       <c r="E11">
-        <v>0.4786537186033515</v>
+        <v>0.1816595625237749</v>
       </c>
       <c r="F11">
-        <v>0.6117047642398461</v>
+        <v>0.4846293886205828</v>
       </c>
       <c r="G11">
-        <v>0.4434423750721521</v>
+        <v>0.3358563463482653</v>
       </c>
       <c r="H11">
-        <v>0.5892458859586327</v>
+        <v>0.2577243699074927</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7565582772431014</v>
+        <v>2.058151728754552</v>
       </c>
       <c r="L11">
-        <v>0.1210790254029064</v>
+        <v>0.27894191378752</v>
       </c>
       <c r="M11">
-        <v>0.2013790387553911</v>
+        <v>0.3100068871994353</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.018730782929623</v>
+        <v>1.201889644158371</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.010787563719617</v>
+        <v>1.273543537948456</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0449419450335995</v>
+        <v>0.1173899193924512</v>
       </c>
       <c r="E12">
-        <v>0.4774677432314736</v>
+        <v>0.1795608283412493</v>
       </c>
       <c r="F12">
-        <v>0.6124071747201612</v>
+        <v>0.4922233154079692</v>
       </c>
       <c r="G12">
-        <v>0.4435489145348299</v>
+        <v>0.3404749491516554</v>
       </c>
       <c r="H12">
-        <v>0.588437485151303</v>
+        <v>0.2584118944742357</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7708316142374088</v>
+        <v>2.101270397071147</v>
       </c>
       <c r="L12">
-        <v>0.1231236718714968</v>
+        <v>0.2861515963277981</v>
       </c>
       <c r="M12">
-        <v>0.2033781442597373</v>
+        <v>0.3176185106201643</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.017322556552188</v>
+        <v>1.213208665203553</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.00925036577047</v>
+        <v>1.267333700044844</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04475934743064158</v>
+        <v>0.1168326321039075</v>
       </c>
       <c r="E13">
-        <v>0.4777219824052921</v>
+        <v>0.1800106933575281</v>
       </c>
       <c r="F13">
-        <v>0.6122533069206995</v>
+        <v>0.4905798348646329</v>
       </c>
       <c r="G13">
-        <v>0.4435237991630601</v>
+        <v>0.3394729433487811</v>
       </c>
       <c r="H13">
-        <v>0.5886098123231136</v>
+        <v>0.2582596802132286</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.767758914747418</v>
+        <v>2.091982679861019</v>
       </c>
       <c r="L13">
-        <v>0.1226831708183909</v>
+        <v>0.2845978017042938</v>
       </c>
       <c r="M13">
-        <v>0.2029471683345392</v>
+        <v>0.3159776457207855</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.01761757870014</v>
+        <v>1.210746799299301</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.004246418799937</v>
+        <v>1.247109479448284</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04416351090488035</v>
+        <v>0.1150153351797059</v>
       </c>
       <c r="E14">
-        <v>0.4785556150605146</v>
+        <v>0.1814859380261851</v>
       </c>
       <c r="F14">
-        <v>0.6117613843159333</v>
+        <v>0.4852505631617205</v>
       </c>
       <c r="G14">
-        <v>0.4434501622883147</v>
+        <v>0.3362330467748507</v>
       </c>
       <c r="H14">
-        <v>0.5891785777931204</v>
+        <v>0.257779073653694</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7577331463850498</v>
+        <v>2.06169853959517</v>
       </c>
       <c r="L14">
-        <v>0.1212471720174193</v>
+        <v>0.2795345855771529</v>
       </c>
       <c r="M14">
-        <v>0.2015433111593197</v>
+        <v>0.3106324000693093</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.018611203160503</v>
+        <v>1.202810055799745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.001188428034709</v>
+        <v>1.234742345789357</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04379827867965957</v>
+        <v>0.1139022842041442</v>
       </c>
       <c r="E15">
-        <v>0.4790697005700721</v>
+        <v>0.1823957997788828</v>
       </c>
       <c r="F15">
-        <v>0.6114676551387817</v>
+        <v>0.482009408921833</v>
       </c>
       <c r="G15">
-        <v>0.4434114111978289</v>
+        <v>0.3342697033008903</v>
       </c>
       <c r="H15">
-        <v>0.589532165307844</v>
+        <v>0.2574967292999304</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7515882262649711</v>
+        <v>2.043152366234551</v>
       </c>
       <c r="L15">
-        <v>0.1203680218832091</v>
+        <v>0.2764362692750097</v>
       </c>
       <c r="M15">
-        <v>0.2006846775430873</v>
+        <v>0.3073628024918378</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.019244025928771</v>
+        <v>1.198018538733777</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9837731047018963</v>
+        <v>1.164178635758248</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04170124805074238</v>
+        <v>0.1075248939139328</v>
       </c>
       <c r="E16">
-        <v>0.482068808498501</v>
+        <v>0.1877045169987754</v>
       </c>
       <c r="F16">
-        <v>0.609900728444245</v>
+        <v>0.4637812085485535</v>
       </c>
       <c r="G16">
-        <v>0.4432866843397534</v>
+        <v>0.323334257965854</v>
       </c>
       <c r="H16">
-        <v>0.5916381988387371</v>
+        <v>0.2560593139091338</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7163158506645573</v>
+        <v>1.93692091315225</v>
       </c>
       <c r="L16">
-        <v>0.1153368004557649</v>
+        <v>0.2587254188486696</v>
       </c>
       <c r="M16">
-        <v>0.1957837485274752</v>
+        <v>0.2886925442152588</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.023241350334729</v>
+        <v>1.171605185019075</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9731868769395646</v>
+        <v>1.121152371675521</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04041122386211526</v>
+        <v>0.1036130724355573</v>
       </c>
       <c r="E17">
-        <v>0.4839560793973963</v>
+        <v>0.1910448119526933</v>
       </c>
       <c r="F17">
-        <v>0.6090432810040483</v>
+        <v>0.4528967983735299</v>
       </c>
       <c r="G17">
-        <v>0.443296978691734</v>
+        <v>0.316897784291335</v>
       </c>
       <c r="H17">
-        <v>0.5930013920643376</v>
+        <v>0.2553344274210332</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6946260553768866</v>
+        <v>1.871786654994395</v>
       </c>
       <c r="L17">
-        <v>0.1122564922895606</v>
+        <v>0.2478974143356254</v>
       </c>
       <c r="M17">
-        <v>0.1927947393755645</v>
+        <v>0.2772953055508935</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.026024478842828</v>
+        <v>1.156304580822535</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9671339665459868</v>
+        <v>1.096496565681946</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03966793999403251</v>
+        <v>0.1013631098074157</v>
       </c>
       <c r="E18">
-        <v>0.4850590288196361</v>
+        <v>0.1929964214144873</v>
       </c>
       <c r="F18">
-        <v>0.6085882579604487</v>
+        <v>0.4467418833738321</v>
       </c>
       <c r="G18">
-        <v>0.4433347829911156</v>
+        <v>0.3132919527857041</v>
       </c>
       <c r="H18">
-        <v>0.5938116471322843</v>
+        <v>0.2549735264827646</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6821320740479848</v>
+        <v>1.834332820789427</v>
       </c>
       <c r="L18">
-        <v>0.1104870870742616</v>
+        <v>0.2416820570213076</v>
       </c>
       <c r="M18">
-        <v>0.1910820321099322</v>
+        <v>0.2707594805020008</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.027746849984595</v>
+        <v>1.147824651258844</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9650907559351936</v>
+        <v>1.088163865188221</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03941605553651328</v>
+        <v>0.1006012976697122</v>
       </c>
       <c r="E19">
-        <v>0.4854354656063267</v>
+        <v>0.1936623845966832</v>
       </c>
       <c r="F19">
-        <v>0.6084407493723987</v>
+        <v>0.4446756849203695</v>
       </c>
       <c r="G19">
-        <v>0.4433530570208575</v>
+        <v>0.3120872671203827</v>
       </c>
       <c r="H19">
-        <v>0.5940904836569416</v>
+        <v>0.2548608042141396</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6778986613803681</v>
+        <v>1.821652952106291</v>
       </c>
       <c r="L19">
-        <v>0.1098883962765456</v>
+        <v>0.2395797210941311</v>
       </c>
       <c r="M19">
-        <v>0.190503257750521</v>
+        <v>0.2685498165579538</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.028350896851165</v>
+        <v>1.145007501668715</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9743100761981509</v>
+        <v>1.125722991282458</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04054868358478103</v>
+        <v>0.1040294873223857</v>
       </c>
       <c r="E20">
-        <v>0.4837533714629449</v>
+        <v>0.1906860818938645</v>
       </c>
       <c r="F20">
-        <v>0.6091306087043478</v>
+        <v>0.4540444537410337</v>
       </c>
       <c r="G20">
-        <v>0.4432925826064107</v>
+        <v>0.3175729129605358</v>
       </c>
       <c r="H20">
-        <v>0.5928535683330693</v>
+        <v>0.2554057572482975</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.696936900904717</v>
+        <v>1.878719234392378</v>
       </c>
       <c r="L20">
-        <v>0.1125841584041183</v>
+        <v>0.2490487455399659</v>
       </c>
       <c r="M20">
-        <v>0.1931122535657437</v>
+        <v>0.2785065107309066</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.025715625681954</v>
+        <v>1.157899927065472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.005714726645778</v>
+        <v>1.253045464301579</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04433857786825968</v>
+        <v>0.1155490983543643</v>
       </c>
       <c r="E21">
-        <v>0.4783100356707193</v>
+        <v>0.1810513221480177</v>
       </c>
       <c r="F21">
-        <v>0.6119042927013751</v>
+        <v>0.4868110454676113</v>
       </c>
       <c r="G21">
-        <v>0.4434704670299396</v>
+        <v>0.3371802456678381</v>
       </c>
       <c r="H21">
-        <v>0.5890104335173163</v>
+        <v>0.2579177204704592</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7606787609516346</v>
+        <v>2.070592927162465</v>
       </c>
       <c r="L21">
-        <v>0.1216688680450915</v>
+        <v>0.2810211334939652</v>
       </c>
       <c r="M21">
-        <v>0.2019553937217111</v>
+        <v>0.3122014796020949</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.01831430842185</v>
+        <v>1.205126621799337</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.026556440024109</v>
+        <v>1.337175751967379</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04680366205708708</v>
+        <v>0.1230816558556995</v>
       </c>
       <c r="E22">
-        <v>0.4749074701627505</v>
+        <v>0.1750324142424944</v>
       </c>
       <c r="F22">
-        <v>0.6140566806289414</v>
+        <v>0.5092524133702554</v>
       </c>
       <c r="G22">
-        <v>0.4438710464242064</v>
+        <v>0.3509328832472818</v>
       </c>
       <c r="H22">
-        <v>0.586731597709317</v>
+        <v>0.2600939094006094</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8021663004777224</v>
+        <v>2.196151702477238</v>
       </c>
       <c r="L22">
-        <v>0.127626063100152</v>
+        <v>0.3020507547658724</v>
       </c>
       <c r="M22">
-        <v>0.2077918255138442</v>
+        <v>0.3344222536455774</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.014560173659561</v>
+        <v>1.239092708446321</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.015404001967283</v>
+        <v>1.292184806938508</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04548909677380664</v>
+        <v>0.1190608517949983</v>
       </c>
       <c r="E23">
-        <v>0.4767093202040842</v>
+        <v>0.1782190037053573</v>
       </c>
       <c r="F23">
-        <v>0.612876843388598</v>
+        <v>0.4971767394095821</v>
       </c>
       <c r="G23">
-        <v>0.4436312148721555</v>
+        <v>0.3435029350904273</v>
       </c>
       <c r="H23">
-        <v>0.5879265605623942</v>
+        <v>0.2588817467675852</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7800395951011012</v>
+        <v>2.129120487980146</v>
       </c>
       <c r="L23">
-        <v>0.1244448183798283</v>
+        <v>0.2908135273615216</v>
       </c>
       <c r="M23">
-        <v>0.2046716456306399</v>
+        <v>0.3225431294689258</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.016464711802428</v>
+        <v>1.220668282951465</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.973802174193537</v>
+        <v>1.123656364301667</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04048654312376954</v>
+        <v>0.1038412293204445</v>
       </c>
       <c r="E24">
-        <v>0.4838449598594599</v>
+        <v>0.1908481665636126</v>
       </c>
       <c r="F24">
-        <v>0.609091009685514</v>
+        <v>0.4535252798757696</v>
       </c>
       <c r="G24">
-        <v>0.4432944707588078</v>
+        <v>0.3172673935624246</v>
       </c>
       <c r="H24">
-        <v>0.5929203167772386</v>
+        <v>0.2553733354706651</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6958922430469556</v>
+        <v>1.875585038704799</v>
       </c>
       <c r="L24">
-        <v>0.112436015858421</v>
+        <v>0.2485281983884562</v>
       </c>
       <c r="M24">
-        <v>0.1929686875927885</v>
+        <v>0.2779588734361624</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.025854877202391</v>
+        <v>1.15717768758563</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9303065176754899</v>
+        <v>0.9453275922245155</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03504107969841641</v>
+        <v>0.08742298076735011</v>
       </c>
       <c r="E25">
-        <v>0.4922089341791551</v>
+        <v>0.205627571529488</v>
       </c>
       <c r="F25">
-        <v>0.6064662750720444</v>
+        <v>0.410429176545648</v>
       </c>
       <c r="G25">
-        <v>0.4441499204355353</v>
+        <v>0.2926067289772689</v>
       </c>
       <c r="H25">
-        <v>0.5993080607749874</v>
+        <v>0.2537131086497411</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6044184191307522</v>
+        <v>1.602439245059657</v>
       </c>
       <c r="L25">
-        <v>0.09957114552686619</v>
+        <v>0.2033883186632011</v>
       </c>
       <c r="M25">
-        <v>0.1805938161819078</v>
+        <v>0.2306027184641586</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.040632023388966</v>
+        <v>1.100822869270331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8164715246144283</v>
+        <v>0.796745006966205</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07531202300009454</v>
+        <v>0.1259429817904092</v>
       </c>
       <c r="E2">
-        <v>0.2174686777764356</v>
+        <v>0.09429486727184866</v>
       </c>
       <c r="F2">
-        <v>0.3816906713094923</v>
+        <v>0.5742361655431836</v>
       </c>
       <c r="G2">
-        <v>0.2771745070505105</v>
+        <v>0.3242983300659148</v>
       </c>
       <c r="H2">
-        <v>0.2541418817650225</v>
+        <v>0.004221374942002865</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01414903526053557</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2920084213825689</v>
       </c>
       <c r="K2">
-        <v>1.401215519282374</v>
+        <v>0.4112144130665225</v>
       </c>
       <c r="L2">
-        <v>0.1704451534603635</v>
+        <v>0.1185460059629788</v>
       </c>
       <c r="M2">
-        <v>0.1962361337109755</v>
+        <v>1.154905073173637</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2911538172964327</v>
       </c>
       <c r="O2">
-        <v>1.068536334844438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9390924982633351</v>
+      </c>
+      <c r="Q2">
+        <v>1.246986145041646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7304295064676296</v>
+        <v>0.7011940966804104</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06708082190157683</v>
+        <v>0.1184127194360798</v>
       </c>
       <c r="E3">
-        <v>0.2260750427072669</v>
+        <v>0.09179909743582293</v>
       </c>
       <c r="F3">
-        <v>0.3638787623008071</v>
+        <v>0.556413292659613</v>
       </c>
       <c r="G3">
-        <v>0.2682292618070647</v>
+        <v>0.3119414751694762</v>
       </c>
       <c r="H3">
-        <v>0.2553813667453184</v>
+        <v>0.00570833663858894</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01620748079696321</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2900632524499045</v>
       </c>
       <c r="K3">
-        <v>1.264600992458782</v>
+        <v>0.4169223160707674</v>
       </c>
       <c r="L3">
-        <v>0.1482507672031019</v>
+        <v>0.1158322071494764</v>
       </c>
       <c r="M3">
-        <v>0.1731985859847711</v>
+        <v>1.0131492644297</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2544532131823161</v>
       </c>
       <c r="O3">
-        <v>1.051832904860106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9604591591877174</v>
+      </c>
+      <c r="Q3">
+        <v>1.216456759183785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.678159745619979</v>
+        <v>0.6419991119305166</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06201238086181604</v>
+        <v>0.1137903207177899</v>
       </c>
       <c r="E4">
-        <v>0.2316409456766371</v>
+        <v>0.09023022967183003</v>
       </c>
       <c r="F4">
-        <v>0.3537004947685318</v>
+        <v>0.5458970296388443</v>
       </c>
       <c r="G4">
-        <v>0.263425494849443</v>
+        <v>0.3046942767934837</v>
       </c>
       <c r="H4">
-        <v>0.256585359835114</v>
+        <v>0.006774229119000746</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01762780083136573</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2891105605052715</v>
       </c>
       <c r="K4">
-        <v>1.180547489941972</v>
+        <v>0.4205890838431685</v>
       </c>
       <c r="L4">
-        <v>0.1346726611427513</v>
+        <v>0.1141080194652098</v>
       </c>
       <c r="M4">
-        <v>0.1591600610872383</v>
+        <v>0.9261174564600765</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.232102121907829</v>
       </c>
       <c r="O4">
-        <v>1.043955530822728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9741922122487807</v>
+      </c>
+      <c r="Q4">
+        <v>1.198930977234355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6569903446047931</v>
+        <v>0.6166445925020412</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05994294952410684</v>
+        <v>0.1118440929807818</v>
       </c>
       <c r="E5">
-        <v>0.2339791207127146</v>
+        <v>0.08951979620174733</v>
       </c>
       <c r="F5">
-        <v>0.349734649964013</v>
+        <v>0.5414032032069258</v>
       </c>
       <c r="G5">
-        <v>0.2616329394128627</v>
+        <v>0.3016083064775259</v>
       </c>
       <c r="H5">
-        <v>0.257183829913096</v>
+        <v>0.007248645926832192</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01833672515812612</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2886691190907698</v>
       </c>
       <c r="K5">
-        <v>1.146245302103551</v>
+        <v>0.4218202969725215</v>
       </c>
       <c r="L5">
-        <v>0.1291497920646734</v>
+        <v>0.1133515062718295</v>
       </c>
       <c r="M5">
-        <v>0.1534636014960213</v>
+        <v>0.8912199600665076</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.223495945377536</v>
       </c>
       <c r="O5">
-        <v>1.041318836944242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.980035147879569</v>
+      </c>
+      <c r="Q5">
+        <v>1.19139444982838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6534828088109634</v>
+        <v>0.6110788466243662</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05959907006825915</v>
+        <v>0.111444149767344</v>
       </c>
       <c r="E6">
-        <v>0.234371580042898</v>
+        <v>0.0893257968054737</v>
       </c>
       <c r="F6">
-        <v>0.349086859291333</v>
+        <v>0.5402813156979107</v>
       </c>
       <c r="G6">
-        <v>0.261345022001052</v>
+        <v>0.3008383878537515</v>
       </c>
       <c r="H6">
-        <v>0.2572896174121126</v>
+        <v>0.007333175351892429</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01857604825589654</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2884618452111525</v>
       </c>
       <c r="K6">
-        <v>1.140546265545481</v>
+        <v>0.4216572649134118</v>
       </c>
       <c r="L6">
-        <v>0.1282332881939112</v>
+        <v>0.1131778257356202</v>
       </c>
       <c r="M6">
-        <v>0.1525191100838441</v>
+        <v>0.8861268381095897</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2226322590743308</v>
       </c>
       <c r="O6">
-        <v>1.04091494518093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9811333893997514</v>
+      </c>
+      <c r="Q6">
+        <v>1.189316390639803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6778737302746265</v>
+        <v>0.6379652952308845</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0619844884554368</v>
+        <v>0.1135543389153781</v>
       </c>
       <c r="E7">
-        <v>0.2316721965993649</v>
+        <v>0.09001494233986662</v>
       </c>
       <c r="F7">
-        <v>0.3536462849292832</v>
+        <v>0.5447943985077544</v>
       </c>
       <c r="G7">
-        <v>0.2634006621800324</v>
+        <v>0.3039366196454623</v>
       </c>
       <c r="H7">
-        <v>0.256592998975961</v>
+        <v>0.006789543441576951</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01794645188564559</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2887298296613636</v>
       </c>
       <c r="K7">
-        <v>1.180085088208983</v>
+        <v>0.4195983196226187</v>
       </c>
       <c r="L7">
-        <v>0.1345981386961057</v>
+        <v>0.1139700893723203</v>
       </c>
       <c r="M7">
-        <v>0.159083141195385</v>
+        <v>0.9275692781757812</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2335251600256214</v>
       </c>
       <c r="O7">
-        <v>1.043917681662236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9746102982569802</v>
+      </c>
+      <c r="Q7">
+        <v>1.196526362603862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.786681756456403</v>
+        <v>0.7589847772665621</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07247667487405351</v>
+        <v>0.123068720034901</v>
       </c>
       <c r="E8">
-        <v>0.2203772398803676</v>
+        <v>0.09317189284220007</v>
       </c>
       <c r="F8">
-        <v>0.3753863172161545</v>
+        <v>0.5666280830766866</v>
       </c>
       <c r="G8">
-        <v>0.273942241815476</v>
+        <v>0.3190217118957932</v>
       </c>
       <c r="H8">
-        <v>0.2544751386649082</v>
+        <v>0.004710862038763031</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01519992206306231</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2907954857947672</v>
       </c>
       <c r="K8">
-        <v>1.354142331639338</v>
+        <v>0.4118336577204271</v>
       </c>
       <c r="L8">
-        <v>0.1627809933459616</v>
+        <v>0.1174586659089409</v>
       </c>
       <c r="M8">
-        <v>0.1882691338135487</v>
+        <v>1.108588912239753</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2805087903442427</v>
       </c>
       <c r="O8">
-        <v>1.062268098883607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9468474268465137</v>
+      </c>
+      <c r="Q8">
+        <v>1.233171671205184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.004984231974731</v>
+        <v>0.9987087358316842</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09295561375959949</v>
+        <v>0.1421174633189182</v>
       </c>
       <c r="E9">
-        <v>0.2004978033419675</v>
+        <v>0.09944335303265284</v>
       </c>
       <c r="F9">
-        <v>0.424453114673895</v>
+        <v>0.6148541991255669</v>
       </c>
       <c r="G9">
-        <v>0.3004644157912892</v>
+        <v>0.3527492445970637</v>
       </c>
       <c r="H9">
-        <v>0.2540045847197447</v>
+        <v>0.001896690094061571</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01062037996130716</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2974993126246019</v>
       </c>
       <c r="K9">
-        <v>1.694440689310625</v>
+        <v>0.3996870735759614</v>
       </c>
       <c r="L9">
-        <v>0.2185410478529803</v>
+        <v>0.1240801194466412</v>
       </c>
       <c r="M9">
-        <v>0.2464684535931134</v>
+        <v>1.460447207645871</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3714688722054404</v>
       </c>
       <c r="O9">
-        <v>1.118297156946824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8967058715849276</v>
+      </c>
+      <c r="Q9">
+        <v>1.319319806495002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.16910099777337</v>
+        <v>1.160714323183953</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1079712740318968</v>
+        <v>0.1535354768433024</v>
       </c>
       <c r="E10">
-        <v>0.1873275052069729</v>
+        <v>0.1019448685577995</v>
       </c>
       <c r="F10">
-        <v>0.4650377796384362</v>
+        <v>0.6452696555682991</v>
       </c>
       <c r="G10">
-        <v>0.3240820148801902</v>
+        <v>0.3750844856887596</v>
       </c>
       <c r="H10">
-        <v>0.2561497385018185</v>
+        <v>0.000935793324801093</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.008310452409744151</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3015047406086637</v>
       </c>
       <c r="K10">
-        <v>1.944354731660155</v>
+        <v>0.3881641757322747</v>
       </c>
       <c r="L10">
-        <v>0.259962750638266</v>
+        <v>0.1279149212785189</v>
       </c>
       <c r="M10">
-        <v>0.2899957818176802</v>
+        <v>1.721395208230177</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4302625366734105</v>
       </c>
       <c r="O10">
-        <v>1.173395341299226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8655939586000798</v>
+      </c>
+      <c r="Q10">
+        <v>1.375467762440536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.244743281545965</v>
+        <v>1.144926852611007</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1148024804268033</v>
+        <v>0.1375444121633933</v>
       </c>
       <c r="E11">
-        <v>0.1816595625237749</v>
+        <v>0.08987859647847163</v>
       </c>
       <c r="F11">
-        <v>0.4846293886205828</v>
+        <v>0.5988573351996962</v>
       </c>
       <c r="G11">
-        <v>0.3358563463482653</v>
+        <v>0.3494549418500412</v>
       </c>
       <c r="H11">
-        <v>0.2577243699074927</v>
+        <v>0.01951888689227843</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008399313932373254</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2853236561868755</v>
       </c>
       <c r="K11">
-        <v>2.058151728754552</v>
+        <v>0.3577809645896739</v>
       </c>
       <c r="L11">
-        <v>0.27894191378752</v>
+        <v>0.1295788969100222</v>
       </c>
       <c r="M11">
-        <v>0.3100068871994353</v>
+        <v>1.850604945195556</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3756963515495499</v>
       </c>
       <c r="O11">
-        <v>1.201889644158371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8761549010262115</v>
+      </c>
+      <c r="Q11">
+        <v>1.287413165952529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.273543537948456</v>
+        <v>1.10311787325432</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1173899193924512</v>
+        <v>0.1229270769048512</v>
       </c>
       <c r="E12">
-        <v>0.1795608283412493</v>
+        <v>0.083494312646887</v>
       </c>
       <c r="F12">
-        <v>0.4922233154079692</v>
+        <v>0.5556206643001786</v>
       </c>
       <c r="G12">
-        <v>0.3404749491516554</v>
+        <v>0.3244647691584177</v>
       </c>
       <c r="H12">
-        <v>0.2584118944742357</v>
+        <v>0.05827801865365245</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.008390430230121204</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2713904876497821</v>
       </c>
       <c r="K12">
-        <v>2.101270397071147</v>
+        <v>0.3379315816622555</v>
       </c>
       <c r="L12">
-        <v>0.2861515963277981</v>
+        <v>0.1387370323097166</v>
       </c>
       <c r="M12">
-        <v>0.3176185106201643</v>
+        <v>1.901628875142734</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3186768447150996</v>
       </c>
       <c r="O12">
-        <v>1.213208665203553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8952171883904683</v>
+      </c>
+      <c r="Q12">
+        <v>1.205314742194631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.267333700044844</v>
+        <v>1.033342846441627</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1168326321039075</v>
+        <v>0.1082451467916883</v>
       </c>
       <c r="E13">
-        <v>0.1800106933575281</v>
+        <v>0.08071544536751118</v>
       </c>
       <c r="F13">
-        <v>0.4905798348646329</v>
+        <v>0.5106670211411242</v>
       </c>
       <c r="G13">
-        <v>0.3394729433487811</v>
+        <v>0.2973296120103441</v>
       </c>
       <c r="H13">
-        <v>0.2582596802132286</v>
+        <v>0.1141894843176914</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.008742681194110702</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2577382682417095</v>
       </c>
       <c r="K13">
-        <v>2.091982679861019</v>
+        <v>0.3233747486852678</v>
       </c>
       <c r="L13">
-        <v>0.2845978017042938</v>
+        <v>0.1536904643625618</v>
       </c>
       <c r="M13">
-        <v>0.3159776457207855</v>
+        <v>1.897999779583358</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2592389630373617</v>
       </c>
       <c r="O13">
-        <v>1.210746799299301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9217459634831826</v>
+      </c>
+      <c r="Q13">
+        <v>1.119178266530355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.247109479448284</v>
+        <v>0.9712151500457935</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1150153351797059</v>
+        <v>0.09810834212966313</v>
       </c>
       <c r="E14">
-        <v>0.1814859380261851</v>
+        <v>0.0809055381267525</v>
       </c>
       <c r="F14">
-        <v>0.4852505631617205</v>
+        <v>0.4785407834579019</v>
       </c>
       <c r="G14">
-        <v>0.3362330467748507</v>
+        <v>0.2773899313457306</v>
       </c>
       <c r="H14">
-        <v>0.257779073653694</v>
+        <v>0.1636817892860165</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.009255767398516745</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2482963177749937</v>
       </c>
       <c r="K14">
-        <v>2.06169853959517</v>
+        <v>0.3156771662828657</v>
       </c>
       <c r="L14">
-        <v>0.2795345855771529</v>
+        <v>0.1677770090170227</v>
       </c>
       <c r="M14">
-        <v>0.3106324000693093</v>
+        <v>1.87129071400355</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2178218727085692</v>
       </c>
       <c r="O14">
-        <v>1.202810055799745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9441753855213904</v>
+      </c>
+      <c r="Q14">
+        <v>1.057082846834859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.234742345789357</v>
+        <v>0.9489331070265621</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1139022842041442</v>
+        <v>0.09546754598663654</v>
       </c>
       <c r="E15">
-        <v>0.1823957997788828</v>
+        <v>0.08120148769085134</v>
       </c>
       <c r="F15">
-        <v>0.482009408921833</v>
+        <v>0.4699771374059765</v>
       </c>
       <c r="G15">
-        <v>0.3342697033008903</v>
+        <v>0.2718403527869171</v>
       </c>
       <c r="H15">
-        <v>0.2574967292999304</v>
+        <v>0.1762625477994106</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.009602857256907349</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2459458749916195</v>
       </c>
       <c r="K15">
-        <v>2.043152366234551</v>
+        <v>0.3144872712252695</v>
       </c>
       <c r="L15">
-        <v>0.2764362692750097</v>
+        <v>0.1714332973331167</v>
       </c>
       <c r="M15">
-        <v>0.3073628024918378</v>
+        <v>1.853897037503174</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2072308376762209</v>
       </c>
       <c r="O15">
-        <v>1.198018538733777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9509624039063311</v>
+      </c>
+      <c r="Q15">
+        <v>1.040365562827375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.164178635758248</v>
+        <v>0.8932051280270912</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1075248939139328</v>
+        <v>0.09374878909812168</v>
       </c>
       <c r="E16">
-        <v>0.1877045169987754</v>
+        <v>0.08058551636293476</v>
       </c>
       <c r="F16">
-        <v>0.4637812085485535</v>
+        <v>0.4656901631298638</v>
       </c>
       <c r="G16">
-        <v>0.323334257965854</v>
+        <v>0.2673424598200143</v>
       </c>
       <c r="H16">
-        <v>0.2560593139091338</v>
+        <v>0.1639332201074808</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01069567533107296</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2466758012773198</v>
       </c>
       <c r="K16">
-        <v>1.93692091315225</v>
+        <v>0.3216112415621177</v>
       </c>
       <c r="L16">
-        <v>0.2587254188486696</v>
+        <v>0.1661473024155242</v>
       </c>
       <c r="M16">
-        <v>0.2886925442152588</v>
+        <v>1.742896381914363</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1963569269101555</v>
       </c>
       <c r="O16">
-        <v>1.171605185019075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9566219395000743</v>
+      </c>
+      <c r="Q16">
+        <v>1.032187311815633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.121152371675521</v>
+        <v>0.8830070872049873</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1036130724355573</v>
+        <v>0.09766320459845446</v>
       </c>
       <c r="E17">
-        <v>0.1910448119526933</v>
+        <v>0.07964857201509812</v>
       </c>
       <c r="F17">
-        <v>0.4528967983735299</v>
+        <v>0.4793456058311278</v>
       </c>
       <c r="G17">
-        <v>0.316897784291335</v>
+        <v>0.2744570385462879</v>
       </c>
       <c r="H17">
-        <v>0.2553344274210332</v>
+        <v>0.1264014118673202</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01128978438967199</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2522694268583265</v>
       </c>
       <c r="K17">
-        <v>1.871786654994395</v>
+        <v>0.331019969173564</v>
       </c>
       <c r="L17">
-        <v>0.2478974143356254</v>
+        <v>0.1539706028689523</v>
       </c>
       <c r="M17">
-        <v>0.2772953055508935</v>
+        <v>1.672268481199666</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2094950858217999</v>
       </c>
       <c r="O17">
-        <v>1.156304580822535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9492425909295292</v>
+      </c>
+      <c r="Q17">
+        <v>1.058879407385007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.096496565681946</v>
+        <v>0.91394495176894</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1013631098074157</v>
+        <v>0.1075466772042546</v>
       </c>
       <c r="E18">
-        <v>0.1929964214144873</v>
+        <v>0.08031215155237281</v>
       </c>
       <c r="F18">
-        <v>0.4467418833738321</v>
+        <v>0.5112593172179345</v>
       </c>
       <c r="G18">
-        <v>0.3132919527857041</v>
+        <v>0.293087396098322</v>
       </c>
       <c r="H18">
-        <v>0.2549735264827646</v>
+        <v>0.07362850021174694</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01113966669580524</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2629921245269458</v>
       </c>
       <c r="K18">
-        <v>1.834332820789427</v>
+        <v>0.3449484959103462</v>
       </c>
       <c r="L18">
-        <v>0.2416820570213076</v>
+        <v>0.138250075285832</v>
       </c>
       <c r="M18">
-        <v>0.2707594805020008</v>
+        <v>1.626516449120629</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2459962233735666</v>
       </c>
       <c r="O18">
-        <v>1.147824651258844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9309002977599405</v>
+      </c>
+      <c r="Q18">
+        <v>1.120774662570554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.088163865188221</v>
+        <v>0.9697948007464561</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1006012976697122</v>
+        <v>0.1221030431698651</v>
       </c>
       <c r="E19">
-        <v>0.1936623845966832</v>
+        <v>0.08507039768016966</v>
       </c>
       <c r="F19">
-        <v>0.4446756849203695</v>
+        <v>0.5550433809955635</v>
       </c>
       <c r="G19">
-        <v>0.3120872671203827</v>
+        <v>0.3190289653005536</v>
       </c>
       <c r="H19">
-        <v>0.2548608042141396</v>
+        <v>0.0281683124129799</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01099216783504087</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2766479024545561</v>
       </c>
       <c r="K19">
-        <v>1.821652952106291</v>
+        <v>0.3618311312642941</v>
       </c>
       <c r="L19">
-        <v>0.2395797210941311</v>
+        <v>0.12704424456191</v>
       </c>
       <c r="M19">
-        <v>0.2685498165579538</v>
+        <v>1.607940186852289</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3046043327096726</v>
       </c>
       <c r="O19">
-        <v>1.145007501668715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9095247644857736</v>
+      </c>
+      <c r="Q19">
+        <v>1.204357517073461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.125722991282458</v>
+        <v>1.106261146283913</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1040294873223857</v>
+        <v>0.1497846495834239</v>
       </c>
       <c r="E20">
-        <v>0.1906860818938645</v>
+        <v>0.100613102604111</v>
       </c>
       <c r="F20">
-        <v>0.4540444537410337</v>
+        <v>0.6336379138518353</v>
       </c>
       <c r="G20">
-        <v>0.3175729129605358</v>
+        <v>0.366711370268149</v>
       </c>
       <c r="H20">
-        <v>0.2554057572482975</v>
+        <v>0.001124577853660824</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.009783675702089489</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2991415124258054</v>
       </c>
       <c r="K20">
-        <v>1.878719234392378</v>
+        <v>0.3880501995244074</v>
       </c>
       <c r="L20">
-        <v>0.2490487455399659</v>
+        <v>0.1265645814386298</v>
       </c>
       <c r="M20">
-        <v>0.2785065107309066</v>
+        <v>1.659013966833101</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4192050980980468</v>
       </c>
       <c r="O20">
-        <v>1.157899927065472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8752049660443184</v>
+      </c>
+      <c r="Q20">
+        <v>1.352662860243498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.253045464301579</v>
+        <v>1.246863738792996</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1155490983543643</v>
+        <v>0.162546502585414</v>
       </c>
       <c r="E21">
-        <v>0.1810513221480177</v>
+        <v>0.1054611545807411</v>
       </c>
       <c r="F21">
-        <v>0.4868110454676113</v>
+        <v>0.6692154823186272</v>
       </c>
       <c r="G21">
-        <v>0.3371802456678381</v>
+        <v>0.3913790871912113</v>
       </c>
       <c r="H21">
-        <v>0.2579177204704592</v>
+        <v>0.0003236910959609762</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.007986021384795094</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3061034482069687</v>
       </c>
       <c r="K21">
-        <v>2.070592927162465</v>
+        <v>0.3847066835023654</v>
       </c>
       <c r="L21">
-        <v>0.2810211334939652</v>
+        <v>0.1306470541351548</v>
       </c>
       <c r="M21">
-        <v>0.3122014796020949</v>
+        <v>1.857075324742311</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4792120637209223</v>
       </c>
       <c r="O21">
-        <v>1.205126621799337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8488228183942397</v>
+      </c>
+      <c r="Q21">
+        <v>1.419844256613146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.337175751967379</v>
+        <v>1.33829625422382</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1230816558556995</v>
+        <v>0.1698993411857117</v>
       </c>
       <c r="E22">
-        <v>0.1750324142424944</v>
+        <v>0.1079272432150411</v>
       </c>
       <c r="F22">
-        <v>0.5092524133702554</v>
+        <v>0.6907899892373024</v>
       </c>
       <c r="G22">
-        <v>0.3509328832472818</v>
+        <v>0.4067735383804774</v>
       </c>
       <c r="H22">
-        <v>0.2600939094006094</v>
+        <v>9.418637812852459E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00665305307038988</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3103473124633922</v>
       </c>
       <c r="K22">
-        <v>2.196151702477238</v>
+        <v>0.382412304973947</v>
       </c>
       <c r="L22">
-        <v>0.3020507547658724</v>
+        <v>0.1330594497409305</v>
       </c>
       <c r="M22">
-        <v>0.3344222536455774</v>
+        <v>1.984629820345333</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5115585542548615</v>
       </c>
       <c r="O22">
-        <v>1.239092708446321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8326594569962467</v>
+      </c>
+      <c r="Q22">
+        <v>1.461560642466395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.292184806938508</v>
+        <v>1.294001777395891</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1190608517949983</v>
+        <v>0.1662210583843375</v>
       </c>
       <c r="E23">
-        <v>0.1782190037053573</v>
+        <v>0.1068465207425504</v>
       </c>
       <c r="F23">
-        <v>0.4971767394095821</v>
+        <v>0.6804300246104731</v>
       </c>
       <c r="G23">
-        <v>0.3435029350904273</v>
+        <v>0.3993426445162527</v>
       </c>
       <c r="H23">
-        <v>0.2588817467675852</v>
+        <v>0.0001977313657204327</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007001158337135216</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3084822375757739</v>
       </c>
       <c r="K23">
-        <v>2.129120487980146</v>
+        <v>0.3847365188976397</v>
       </c>
       <c r="L23">
-        <v>0.2908135273615216</v>
+        <v>0.1319027285135808</v>
       </c>
       <c r="M23">
-        <v>0.3225431294689258</v>
+        <v>1.91418566778691</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4924033150183647</v>
       </c>
       <c r="O23">
-        <v>1.220668282951465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8405893736913654</v>
+      </c>
+      <c r="Q23">
+        <v>1.441798808888336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.123656364301667</v>
+        <v>1.118291232626859</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1038412293204445</v>
+        <v>0.1519245545189278</v>
       </c>
       <c r="E24">
-        <v>0.1908481665636126</v>
+        <v>0.1023412876699226</v>
       </c>
       <c r="F24">
-        <v>0.4535252798757696</v>
+        <v>0.6403926963424666</v>
       </c>
       <c r="G24">
-        <v>0.3172673935624246</v>
+        <v>0.3708317409536903</v>
       </c>
       <c r="H24">
-        <v>0.2553733354706651</v>
+        <v>0.0009630838661152108</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.009193936552178705</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3013205553629348</v>
       </c>
       <c r="K24">
-        <v>1.875585038704799</v>
+        <v>0.3921523223401309</v>
       </c>
       <c r="L24">
-        <v>0.2485281983884562</v>
+        <v>0.1272608032530638</v>
       </c>
       <c r="M24">
-        <v>0.2779588734361624</v>
+        <v>1.651577424179465</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.423317607297804</v>
       </c>
       <c r="O24">
-        <v>1.15717768758563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8729846181976555</v>
+      </c>
+      <c r="Q24">
+        <v>1.365957614174931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9453275922245155</v>
+        <v>0.9275488078612284</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08742298076735011</v>
+        <v>0.1365825994650933</v>
       </c>
       <c r="E25">
-        <v>0.205627571529488</v>
+        <v>0.09741245110850372</v>
       </c>
       <c r="F25">
-        <v>0.410429176545648</v>
+        <v>0.5995391446489293</v>
       </c>
       <c r="G25">
-        <v>0.2926067289772689</v>
+        <v>0.3420110140652781</v>
       </c>
       <c r="H25">
-        <v>0.2537131086497411</v>
+        <v>0.002521259140274346</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0122340263490468</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2947984372726964</v>
       </c>
       <c r="K25">
-        <v>1.602439245059657</v>
+        <v>0.4010712935054563</v>
       </c>
       <c r="L25">
-        <v>0.2033883186632011</v>
+        <v>0.1221216237003668</v>
       </c>
       <c r="M25">
-        <v>0.2306027184641586</v>
+        <v>1.368718802381096</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3494953119938771</v>
       </c>
       <c r="O25">
-        <v>1.100822869270331</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9105337063167696</v>
+      </c>
+      <c r="Q25">
+        <v>1.290740771762657</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.796745006966205</v>
+        <v>0.7396541173341404</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1259429817904092</v>
+        <v>0.1198132577366664</v>
       </c>
       <c r="E2">
-        <v>0.09429486727184866</v>
+        <v>0.08538251693339483</v>
       </c>
       <c r="F2">
-        <v>0.5742361655431836</v>
+        <v>0.5547348672571388</v>
       </c>
       <c r="G2">
-        <v>0.3242983300659148</v>
+        <v>0.295381961950099</v>
       </c>
       <c r="H2">
-        <v>0.004221374942002865</v>
+        <v>0.003170135483469783</v>
       </c>
       <c r="I2">
-        <v>0.01414903526053557</v>
+        <v>0.009900819264294647</v>
       </c>
       <c r="J2">
-        <v>0.2920084213825689</v>
+        <v>0.3192679700480596</v>
       </c>
       <c r="K2">
-        <v>0.4112144130665225</v>
+        <v>0.3656192521216219</v>
       </c>
       <c r="L2">
-        <v>0.1185460059629788</v>
+        <v>0.1582100183655228</v>
       </c>
       <c r="M2">
-        <v>1.154905073173637</v>
+        <v>0.1181730894769997</v>
       </c>
       <c r="N2">
-        <v>0.2911538172964327</v>
+        <v>0.1065240019126765</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.169677623301908</v>
       </c>
       <c r="P2">
-        <v>0.9390924982633351</v>
+        <v>0.3125524777709643</v>
       </c>
       <c r="Q2">
-        <v>1.246986145041646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9085283852946446</v>
+      </c>
+      <c r="S2">
+        <v>1.208954639447455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7011940966804104</v>
+        <v>0.6536042592408648</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1184127194360798</v>
+        <v>0.1128359802018153</v>
       </c>
       <c r="E3">
-        <v>0.09179909743582293</v>
+        <v>0.08336486272142984</v>
       </c>
       <c r="F3">
-        <v>0.556413292659613</v>
+        <v>0.5388357744028909</v>
       </c>
       <c r="G3">
-        <v>0.3119414751694762</v>
+        <v>0.2850079364706701</v>
       </c>
       <c r="H3">
-        <v>0.00570833663858894</v>
+        <v>0.004398612633136956</v>
       </c>
       <c r="I3">
-        <v>0.01620748079696321</v>
+        <v>0.01137692330794327</v>
       </c>
       <c r="J3">
-        <v>0.2900632524499045</v>
+        <v>0.315846002961905</v>
       </c>
       <c r="K3">
-        <v>0.4169223160707674</v>
+        <v>0.3719963626921956</v>
       </c>
       <c r="L3">
-        <v>0.1158322071494764</v>
+        <v>0.1632206146830217</v>
       </c>
       <c r="M3">
-        <v>1.0131492644297</v>
+        <v>0.1197349274685262</v>
       </c>
       <c r="N3">
-        <v>0.2544532131823161</v>
+        <v>0.1039923360893125</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.022439992084088</v>
       </c>
       <c r="P3">
-        <v>0.9604591591877174</v>
+        <v>0.2717119092461218</v>
       </c>
       <c r="Q3">
-        <v>1.216456759183785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9260312487482487</v>
+      </c>
+      <c r="S3">
+        <v>1.182419470186602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6419991119305166</v>
+        <v>0.6000365005531307</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1137903207177899</v>
+        <v>0.1085440994811577</v>
       </c>
       <c r="E4">
-        <v>0.09023022967183003</v>
+        <v>0.08208629068387729</v>
       </c>
       <c r="F4">
-        <v>0.5458970296388443</v>
+        <v>0.5294299848002098</v>
       </c>
       <c r="G4">
-        <v>0.3046942767934837</v>
+        <v>0.2790083327524826</v>
       </c>
       <c r="H4">
-        <v>0.006774229119000746</v>
+        <v>0.005287573730014872</v>
       </c>
       <c r="I4">
-        <v>0.01762780083136573</v>
+        <v>0.01241293129175736</v>
       </c>
       <c r="J4">
-        <v>0.2891105605052715</v>
+        <v>0.3138519413125849</v>
       </c>
       <c r="K4">
-        <v>0.4205890838431685</v>
+        <v>0.3760190370725258</v>
       </c>
       <c r="L4">
-        <v>0.1141080194652098</v>
+        <v>0.1664625063813894</v>
       </c>
       <c r="M4">
-        <v>0.9261174564600765</v>
+        <v>0.1211111901432673</v>
       </c>
       <c r="N4">
-        <v>0.232102121907829</v>
+        <v>0.1023892553744405</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9321400165983107</v>
       </c>
       <c r="P4">
-        <v>0.9741922122487807</v>
+        <v>0.246922165393201</v>
       </c>
       <c r="Q4">
-        <v>1.198930977234355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.937441519346816</v>
+      </c>
+      <c r="S4">
+        <v>1.167171510848334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6166445925020412</v>
+        <v>0.5769768668204733</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1118440929807818</v>
+        <v>0.1067329865462625</v>
       </c>
       <c r="E5">
-        <v>0.08951979620174733</v>
+        <v>0.0814979477243547</v>
       </c>
       <c r="F5">
-        <v>0.5414032032069258</v>
+        <v>0.5253839045852473</v>
       </c>
       <c r="G5">
-        <v>0.3016083064775259</v>
+        <v>0.2764490898976817</v>
       </c>
       <c r="H5">
-        <v>0.007248645926832192</v>
+        <v>0.005684997869607467</v>
       </c>
       <c r="I5">
-        <v>0.01833672515812612</v>
+        <v>0.01296886433373867</v>
       </c>
       <c r="J5">
-        <v>0.2886691190907698</v>
+        <v>0.3129532235508776</v>
       </c>
       <c r="K5">
-        <v>0.4218202969725215</v>
+        <v>0.3774086173522697</v>
       </c>
       <c r="L5">
-        <v>0.1133515062718295</v>
+        <v>0.1676701433933463</v>
       </c>
       <c r="M5">
-        <v>0.8912199600665076</v>
+        <v>0.1217244707365479</v>
       </c>
       <c r="N5">
-        <v>0.223495945377536</v>
+        <v>0.1016912451131338</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8959250147745479</v>
       </c>
       <c r="P5">
-        <v>0.980035147879569</v>
+        <v>0.2373452883545895</v>
       </c>
       <c r="Q5">
-        <v>1.19139444982838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9423667296306881</v>
+      </c>
+      <c r="S5">
+        <v>1.160547891704837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6110788466243662</v>
+        <v>0.5718549456509834</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.111444149767344</v>
+        <v>0.1063586128220564</v>
       </c>
       <c r="E6">
-        <v>0.0893257968054737</v>
+        <v>0.08132986206761927</v>
       </c>
       <c r="F6">
-        <v>0.5402813156979107</v>
+        <v>0.5243509275521703</v>
       </c>
       <c r="G6">
-        <v>0.3008383878537515</v>
+        <v>0.2757810889516747</v>
       </c>
       <c r="H6">
-        <v>0.007333175351892429</v>
+        <v>0.005755936131535716</v>
       </c>
       <c r="I6">
-        <v>0.01857604825589654</v>
+        <v>0.01319638114033239</v>
       </c>
       <c r="J6">
-        <v>0.2884618452111525</v>
+        <v>0.3126681199681229</v>
       </c>
       <c r="K6">
-        <v>0.4216572649134118</v>
+        <v>0.3773044382227582</v>
       </c>
       <c r="L6">
-        <v>0.1131778257356202</v>
+        <v>0.1676849451251634</v>
       </c>
       <c r="M6">
-        <v>0.8861268381095897</v>
+        <v>0.1217678180806674</v>
       </c>
       <c r="N6">
-        <v>0.2226322590743308</v>
+        <v>0.1015358918148976</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8906013466520903</v>
       </c>
       <c r="P6">
-        <v>0.9811333893997514</v>
+        <v>0.2363186462130642</v>
       </c>
       <c r="Q6">
-        <v>1.189316390639803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9433335144751851</v>
+      </c>
+      <c r="S6">
+        <v>1.158652901094612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6379652952308845</v>
+        <v>0.5962686471237362</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1135543389153781</v>
+        <v>0.1084797169040712</v>
       </c>
       <c r="E7">
-        <v>0.09001494233986662</v>
+        <v>0.08192328459934206</v>
       </c>
       <c r="F7">
-        <v>0.5447943985077544</v>
+        <v>0.5277344184449433</v>
       </c>
       <c r="G7">
-        <v>0.3039366196454623</v>
+        <v>0.2807144171456315</v>
       </c>
       <c r="H7">
-        <v>0.006789543441576951</v>
+        <v>0.005304564910795562</v>
       </c>
       <c r="I7">
-        <v>0.01794645188564559</v>
+        <v>0.01276989899387715</v>
       </c>
       <c r="J7">
-        <v>0.2887298296613636</v>
+        <v>0.3098996333027202</v>
       </c>
       <c r="K7">
-        <v>0.4195983196226187</v>
+        <v>0.3749571461310062</v>
       </c>
       <c r="L7">
-        <v>0.1139700893723203</v>
+        <v>0.1658936482610418</v>
       </c>
       <c r="M7">
-        <v>0.9275692781757812</v>
+        <v>0.1208913588352472</v>
       </c>
       <c r="N7">
-        <v>0.2335251600256214</v>
+        <v>0.1022663563028454</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9323861952937875</v>
       </c>
       <c r="P7">
-        <v>0.9746102982569802</v>
+        <v>0.2480637559050223</v>
       </c>
       <c r="Q7">
-        <v>1.196526362603862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9380653320377235</v>
+      </c>
+      <c r="S7">
+        <v>1.162857366069801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7589847772665621</v>
+        <v>0.7056470412768192</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.123068720034901</v>
+        <v>0.1176823572676966</v>
       </c>
       <c r="E8">
-        <v>0.09317189284220007</v>
+        <v>0.0845649548314853</v>
       </c>
       <c r="F8">
-        <v>0.5666280830766866</v>
+        <v>0.5457372102283173</v>
       </c>
       <c r="G8">
-        <v>0.3190217118957932</v>
+        <v>0.2989473837972128</v>
       </c>
       <c r="H8">
-        <v>0.004710862038763031</v>
+        <v>0.003583190769682776</v>
       </c>
       <c r="I8">
-        <v>0.01519992206306231</v>
+        <v>0.01081466521112961</v>
       </c>
       <c r="J8">
-        <v>0.2907954857947672</v>
+        <v>0.3059647108899526</v>
       </c>
       <c r="K8">
-        <v>0.4118336577204271</v>
+        <v>0.3660850033958916</v>
       </c>
       <c r="L8">
-        <v>0.1174586659089409</v>
+        <v>0.159073761161352</v>
       </c>
       <c r="M8">
-        <v>1.108588912239753</v>
+        <v>0.1181678698587749</v>
       </c>
       <c r="N8">
-        <v>0.2805087903442427</v>
+        <v>0.1055029985030921</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.117537185511765</v>
       </c>
       <c r="P8">
-        <v>0.9468474268465137</v>
+        <v>0.2995777525510874</v>
       </c>
       <c r="Q8">
-        <v>1.233171671205184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9156355003848873</v>
+      </c>
+      <c r="S8">
+        <v>1.190004459767252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9987087358316842</v>
+        <v>0.9203427031733327</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1421174633189182</v>
+        <v>0.1354433725699167</v>
       </c>
       <c r="E9">
-        <v>0.09944335303265284</v>
+        <v>0.08964073093450509</v>
       </c>
       <c r="F9">
-        <v>0.6148541991255669</v>
+        <v>0.5881231712022483</v>
       </c>
       <c r="G9">
-        <v>0.3527492445970637</v>
+        <v>0.3301545102992947</v>
       </c>
       <c r="H9">
-        <v>0.001896690094061571</v>
+        <v>0.001305336439063276</v>
       </c>
       <c r="I9">
-        <v>0.01062037996130716</v>
+        <v>0.007491394390866546</v>
       </c>
       <c r="J9">
-        <v>0.2974993126246019</v>
+        <v>0.312365392093561</v>
       </c>
       <c r="K9">
-        <v>0.3996870735759614</v>
+        <v>0.3517384945727784</v>
       </c>
       <c r="L9">
-        <v>0.1240801194466412</v>
+        <v>0.1480897787727535</v>
       </c>
       <c r="M9">
-        <v>1.460447207645871</v>
+        <v>0.1166957245935532</v>
       </c>
       <c r="N9">
-        <v>0.3714688722054404</v>
+        <v>0.1116895440587569</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.482481975064218</v>
       </c>
       <c r="P9">
-        <v>0.8967058715849276</v>
+        <v>0.4011918478241654</v>
       </c>
       <c r="Q9">
-        <v>1.319319806495002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8756302073251874</v>
+      </c>
+      <c r="S9">
+        <v>1.263229455106625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.160714323183953</v>
+        <v>1.065114464271687</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1535354768433024</v>
+        <v>0.1469560401766046</v>
       </c>
       <c r="E10">
-        <v>0.1019448685577995</v>
+        <v>0.09169589844147197</v>
       </c>
       <c r="F10">
-        <v>0.6452696555682991</v>
+        <v>0.6107582071667395</v>
       </c>
       <c r="G10">
-        <v>0.3750844856887596</v>
+        <v>0.3658683141504753</v>
       </c>
       <c r="H10">
-        <v>0.000935793324801093</v>
+        <v>0.0006274741699616726</v>
       </c>
       <c r="I10">
-        <v>0.008310452409744151</v>
+        <v>0.005975431564994693</v>
       </c>
       <c r="J10">
-        <v>0.3015047406086637</v>
+        <v>0.2965740685316192</v>
       </c>
       <c r="K10">
-        <v>0.3881641757322747</v>
+        <v>0.3382457795192</v>
       </c>
       <c r="L10">
-        <v>0.1279149212785189</v>
+        <v>0.139611433108227</v>
       </c>
       <c r="M10">
-        <v>1.721395208230177</v>
+        <v>0.1161840928820226</v>
       </c>
       <c r="N10">
-        <v>0.4302625366734105</v>
+        <v>0.1155839593978041</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.745682646912712</v>
       </c>
       <c r="P10">
-        <v>0.8655939586000798</v>
+        <v>0.4656917080321819</v>
       </c>
       <c r="Q10">
-        <v>1.375467762440536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8538702311324755</v>
+      </c>
+      <c r="S10">
+        <v>1.298557958835403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.144926852611007</v>
+        <v>1.057403141004841</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1375444121633933</v>
+        <v>0.1334475829870669</v>
       </c>
       <c r="E11">
-        <v>0.08987859647847163</v>
+        <v>0.08141931109147826</v>
       </c>
       <c r="F11">
-        <v>0.5988573351996962</v>
+        <v>0.559979017119467</v>
       </c>
       <c r="G11">
-        <v>0.3494549418500412</v>
+        <v>0.3737701584687443</v>
       </c>
       <c r="H11">
-        <v>0.01951888689227843</v>
+        <v>0.01922648042327424</v>
       </c>
       <c r="I11">
-        <v>0.008399313932373254</v>
+        <v>0.00634692769636036</v>
       </c>
       <c r="J11">
-        <v>0.2853236561868755</v>
+        <v>0.2480671095337783</v>
       </c>
       <c r="K11">
-        <v>0.3577809645896739</v>
+        <v>0.3119269910121272</v>
       </c>
       <c r="L11">
-        <v>0.1295788969100222</v>
+        <v>0.1293721096499461</v>
       </c>
       <c r="M11">
-        <v>1.850604945195556</v>
+        <v>0.1076060219718702</v>
       </c>
       <c r="N11">
-        <v>0.3756963515495499</v>
+        <v>0.1198913813806115</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.856809287544451</v>
       </c>
       <c r="P11">
-        <v>0.8761549010262115</v>
+        <v>0.4026513454859924</v>
       </c>
       <c r="Q11">
-        <v>1.287413165952529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8739969919239741</v>
+      </c>
+      <c r="S11">
+        <v>1.193236929580038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.10311787325432</v>
+        <v>1.025488858421568</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1229270769048512</v>
+        <v>0.1200779837455457</v>
       </c>
       <c r="E12">
-        <v>0.083494312646887</v>
+        <v>0.07607982156553117</v>
       </c>
       <c r="F12">
-        <v>0.5556206643001786</v>
+        <v>0.5171821615399566</v>
       </c>
       <c r="G12">
-        <v>0.3244647691584177</v>
+        <v>0.3639598062881788</v>
       </c>
       <c r="H12">
-        <v>0.05827801865365245</v>
+        <v>0.05797239807432675</v>
       </c>
       <c r="I12">
-        <v>0.008390430230121204</v>
+        <v>0.006352461744274507</v>
       </c>
       <c r="J12">
-        <v>0.2713904876497821</v>
+        <v>0.2250410320395559</v>
       </c>
       <c r="K12">
-        <v>0.3379315816622555</v>
+        <v>0.2960622881259756</v>
       </c>
       <c r="L12">
-        <v>0.1387370323097166</v>
+        <v>0.1240137691192347</v>
       </c>
       <c r="M12">
-        <v>1.901628875142734</v>
+        <v>0.1014524775604997</v>
       </c>
       <c r="N12">
-        <v>0.3186768447150996</v>
+        <v>0.1306006679806089</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.896054436733408</v>
       </c>
       <c r="P12">
-        <v>0.8952171883904683</v>
+        <v>0.3388915167950159</v>
       </c>
       <c r="Q12">
-        <v>1.205314742194631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8979589512741697</v>
+      </c>
+      <c r="S12">
+        <v>1.10883027456579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.033342846441627</v>
+        <v>0.9677341779616313</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1082451467916883</v>
+        <v>0.1055763415095043</v>
       </c>
       <c r="E13">
-        <v>0.08071544536751118</v>
+        <v>0.07399657423547734</v>
       </c>
       <c r="F13">
-        <v>0.5106670211411242</v>
+        <v>0.4774332338950913</v>
       </c>
       <c r="G13">
-        <v>0.2973296120103441</v>
+        <v>0.3325742020231672</v>
       </c>
       <c r="H13">
-        <v>0.1141894843176914</v>
+        <v>0.1138395047653233</v>
       </c>
       <c r="I13">
-        <v>0.008742681194110702</v>
+        <v>0.006577773018620725</v>
       </c>
       <c r="J13">
-        <v>0.2577382682417095</v>
+        <v>0.2197560618968311</v>
       </c>
       <c r="K13">
-        <v>0.3233747486852678</v>
+        <v>0.2857781354631861</v>
       </c>
       <c r="L13">
-        <v>0.1536904643625618</v>
+        <v>0.1209836334872612</v>
       </c>
       <c r="M13">
-        <v>1.897999779583358</v>
+        <v>0.09661041832955064</v>
       </c>
       <c r="N13">
-        <v>0.2592389630373617</v>
+        <v>0.1465750263613366</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.888232815262796</v>
       </c>
       <c r="P13">
-        <v>0.9217459634831826</v>
+        <v>0.274128216326389</v>
       </c>
       <c r="Q13">
-        <v>1.119178266530355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.9244379555041604</v>
+      </c>
+      <c r="S13">
+        <v>1.035270199350379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9712151500457935</v>
+        <v>0.9149005765129914</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09810834212966313</v>
+        <v>0.09520221442151211</v>
       </c>
       <c r="E14">
-        <v>0.0809055381267525</v>
+        <v>0.07457473375039658</v>
       </c>
       <c r="F14">
-        <v>0.4785407834579019</v>
+        <v>0.4506964810514162</v>
       </c>
       <c r="G14">
-        <v>0.2773899313457306</v>
+        <v>0.3021258610615973</v>
       </c>
       <c r="H14">
-        <v>0.1636817892860165</v>
+        <v>0.1632853376645045</v>
       </c>
       <c r="I14">
-        <v>0.009255767398516745</v>
+        <v>0.006949498695266954</v>
       </c>
       <c r="J14">
-        <v>0.2482963177749937</v>
+        <v>0.2226063697828877</v>
       </c>
       <c r="K14">
-        <v>0.3156771662828657</v>
+        <v>0.2809513962719317</v>
       </c>
       <c r="L14">
-        <v>0.1677770090170227</v>
+        <v>0.1196945402492404</v>
       </c>
       <c r="M14">
-        <v>1.87129071400355</v>
+        <v>0.09392733177384827</v>
       </c>
       <c r="N14">
-        <v>0.2178218727085692</v>
+        <v>0.1611178775994944</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.861905561979967</v>
       </c>
       <c r="P14">
-        <v>0.9441753855213904</v>
+        <v>0.2295762493934603</v>
       </c>
       <c r="Q14">
-        <v>1.057082846834859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.94418102533443</v>
+      </c>
+      <c r="S14">
+        <v>0.9876262002543399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9489331070265621</v>
+        <v>0.895381938580897</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09546754598663654</v>
+        <v>0.09237346253524237</v>
       </c>
       <c r="E15">
-        <v>0.08120148769085134</v>
+        <v>0.07497474830536355</v>
       </c>
       <c r="F15">
-        <v>0.4699771374059765</v>
+        <v>0.4442186323014639</v>
       </c>
       <c r="G15">
-        <v>0.2718403527869171</v>
+        <v>0.290976877741933</v>
       </c>
       <c r="H15">
-        <v>0.1762625477994106</v>
+        <v>0.1758427306095598</v>
       </c>
       <c r="I15">
-        <v>0.009602857256907349</v>
+        <v>0.007249268363474393</v>
       </c>
       <c r="J15">
-        <v>0.2459458749916195</v>
+        <v>0.2261573570199502</v>
       </c>
       <c r="K15">
-        <v>0.3144872712252695</v>
+        <v>0.2804934984711789</v>
       </c>
       <c r="L15">
-        <v>0.1714332973331167</v>
+        <v>0.1196175824401191</v>
       </c>
       <c r="M15">
-        <v>1.853897037503174</v>
+        <v>0.09346769528726195</v>
       </c>
       <c r="N15">
-        <v>0.2072308376762209</v>
+        <v>0.1648665966837299</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.846004016121441</v>
       </c>
       <c r="P15">
-        <v>0.9509624039063311</v>
+        <v>0.2183570384561619</v>
       </c>
       <c r="Q15">
-        <v>1.040365562827375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9492706021137494</v>
+      </c>
+      <c r="S15">
+        <v>0.9768823892337224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8932051280270912</v>
+        <v>0.8438664115575989</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09374878909812168</v>
+        <v>0.08956819033328145</v>
       </c>
       <c r="E16">
-        <v>0.08058551636293476</v>
+        <v>0.07449242671106315</v>
       </c>
       <c r="F16">
-        <v>0.4656901631298638</v>
+        <v>0.4465114885024875</v>
       </c>
       <c r="G16">
-        <v>0.2673424598200143</v>
+        <v>0.2616961089595549</v>
       </c>
       <c r="H16">
-        <v>0.1639332201074808</v>
+        <v>0.1633815945929484</v>
       </c>
       <c r="I16">
-        <v>0.01069567533107296</v>
+        <v>0.008039158540950275</v>
       </c>
       <c r="J16">
-        <v>0.2466758012773198</v>
+        <v>0.2533162210003823</v>
       </c>
       <c r="K16">
-        <v>0.3216112415621177</v>
+        <v>0.2879080409960331</v>
       </c>
       <c r="L16">
-        <v>0.1661473024155242</v>
+        <v>0.1222010885559333</v>
       </c>
       <c r="M16">
-        <v>1.742896381914363</v>
+        <v>0.09553702541700737</v>
       </c>
       <c r="N16">
-        <v>0.1963569269101555</v>
+        <v>0.1596063724780947</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.746365684398796</v>
       </c>
       <c r="P16">
-        <v>0.9566219395000743</v>
+        <v>0.2082355616643383</v>
       </c>
       <c r="Q16">
-        <v>1.032187311815633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9465249917478289</v>
+      </c>
+      <c r="S16">
+        <v>0.9893780589034407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8830070872049873</v>
+        <v>0.8321433328912917</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09766320459845446</v>
+        <v>0.09285281747309426</v>
       </c>
       <c r="E17">
-        <v>0.07964857201509812</v>
+        <v>0.0733541027922997</v>
       </c>
       <c r="F17">
-        <v>0.4793456058311278</v>
+        <v>0.4618844235074064</v>
       </c>
       <c r="G17">
-        <v>0.2744570385462879</v>
+        <v>0.2582427966001504</v>
       </c>
       <c r="H17">
-        <v>0.1264014118673202</v>
+        <v>0.125771769731017</v>
       </c>
       <c r="I17">
-        <v>0.01128978438967199</v>
+        <v>0.008479969101687246</v>
       </c>
       <c r="J17">
-        <v>0.2522694268583265</v>
+        <v>0.2709752876839531</v>
       </c>
       <c r="K17">
-        <v>0.331019969173564</v>
+        <v>0.2961792643609398</v>
       </c>
       <c r="L17">
-        <v>0.1539706028689523</v>
+        <v>0.125203616679098</v>
       </c>
       <c r="M17">
-        <v>1.672268481199666</v>
+        <v>0.0983278489428665</v>
       </c>
       <c r="N17">
-        <v>0.2094950858217999</v>
+        <v>0.1471231816098353</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.682147267294795</v>
       </c>
       <c r="P17">
-        <v>0.9492425909295292</v>
+        <v>0.2233554044936739</v>
       </c>
       <c r="Q17">
-        <v>1.058879407385007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9353845352305825</v>
+      </c>
+      <c r="S17">
+        <v>1.022491789428429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.91394495176894</v>
+        <v>0.8561563490225979</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1075466772042546</v>
+        <v>0.1020883781382622</v>
       </c>
       <c r="E18">
-        <v>0.08031215155237281</v>
+        <v>0.07339695725577655</v>
       </c>
       <c r="F18">
-        <v>0.5112593172179345</v>
+        <v>0.492683665984039</v>
       </c>
       <c r="G18">
-        <v>0.293087396098322</v>
+        <v>0.2712328741377235</v>
       </c>
       <c r="H18">
-        <v>0.07362850021174694</v>
+        <v>0.07298072737756911</v>
       </c>
       <c r="I18">
-        <v>0.01113966669580524</v>
+        <v>0.008252758088747036</v>
       </c>
       <c r="J18">
-        <v>0.2629921245269458</v>
+        <v>0.2865115985823294</v>
       </c>
       <c r="K18">
-        <v>0.3449484959103462</v>
+        <v>0.3075458472900259</v>
       </c>
       <c r="L18">
-        <v>0.138250075285832</v>
+        <v>0.1294965095354677</v>
       </c>
       <c r="M18">
-        <v>1.626516449120629</v>
+        <v>0.1024015941140961</v>
       </c>
       <c r="N18">
-        <v>0.2459962233735666</v>
+        <v>0.130635629048669</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.642100463472872</v>
       </c>
       <c r="P18">
-        <v>0.9309002977599405</v>
+        <v>0.263822180143606</v>
       </c>
       <c r="Q18">
-        <v>1.120774662570554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.91550457096033</v>
+      </c>
+      <c r="S18">
+        <v>1.083101467531691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9697948007464561</v>
+        <v>0.9013251503884305</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1221030431698651</v>
+        <v>0.1158915159780491</v>
       </c>
       <c r="E19">
-        <v>0.08507039768016966</v>
+        <v>0.07709141258902363</v>
       </c>
       <c r="F19">
-        <v>0.5550433809955635</v>
+        <v>0.5335306286335282</v>
       </c>
       <c r="G19">
-        <v>0.3190289653005536</v>
+        <v>0.2938242878066717</v>
       </c>
       <c r="H19">
-        <v>0.0281683124129799</v>
+        <v>0.02757109681636649</v>
       </c>
       <c r="I19">
-        <v>0.01099216783504087</v>
+        <v>0.008205685734327339</v>
       </c>
       <c r="J19">
-        <v>0.2766479024545561</v>
+        <v>0.3008240084731142</v>
       </c>
       <c r="K19">
-        <v>0.3618311312642941</v>
+        <v>0.3207674774015405</v>
       </c>
       <c r="L19">
-        <v>0.12704424456191</v>
+        <v>0.134541960120214</v>
       </c>
       <c r="M19">
-        <v>1.607940186852289</v>
+        <v>0.1072695498472651</v>
       </c>
       <c r="N19">
-        <v>0.3046043327096726</v>
+        <v>0.1180255159200279</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.629256097128007</v>
       </c>
       <c r="P19">
-        <v>0.9095247644857736</v>
+        <v>0.3283243194664607</v>
       </c>
       <c r="Q19">
-        <v>1.204357517073461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8935962856956721</v>
+      </c>
+      <c r="S19">
+        <v>1.160680412049786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.106261146283913</v>
+        <v>1.01592846822507</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1497846495834239</v>
+        <v>0.1426281669914573</v>
       </c>
       <c r="E20">
-        <v>0.100613102604111</v>
+        <v>0.09043472593737079</v>
       </c>
       <c r="F20">
-        <v>0.6336379138518353</v>
+        <v>0.6036878479354044</v>
       </c>
       <c r="G20">
-        <v>0.366711370268149</v>
+        <v>0.3450074316813811</v>
       </c>
       <c r="H20">
-        <v>0.001124577853660824</v>
+        <v>0.0007425008686858803</v>
       </c>
       <c r="I20">
-        <v>0.009783675702089489</v>
+        <v>0.007384684645112216</v>
       </c>
       <c r="J20">
-        <v>0.2991415124258054</v>
+        <v>0.3112285854431889</v>
       </c>
       <c r="K20">
-        <v>0.3880501995244074</v>
+        <v>0.3396738762848486</v>
       </c>
       <c r="L20">
-        <v>0.1265645814386298</v>
+        <v>0.1409936752470262</v>
       </c>
       <c r="M20">
-        <v>1.659013966833101</v>
+        <v>0.1154106625351137</v>
       </c>
       <c r="N20">
-        <v>0.4192050980980468</v>
+        <v>0.1143789701135647</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.686879605205462</v>
       </c>
       <c r="P20">
-        <v>0.8752049660443184</v>
+        <v>0.4540938600377586</v>
       </c>
       <c r="Q20">
-        <v>1.352662860243498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8605181580815824</v>
+      </c>
+      <c r="S20">
+        <v>1.288932633205604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.246863738792996</v>
+        <v>1.141056496989336</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.162546502585414</v>
+        <v>0.1584870718458831</v>
       </c>
       <c r="E21">
-        <v>0.1054611545807411</v>
+        <v>0.09528074566591371</v>
       </c>
       <c r="F21">
-        <v>0.6692154823186272</v>
+        <v>0.6200707371481897</v>
       </c>
       <c r="G21">
-        <v>0.3913790871912113</v>
+        <v>0.4302132163859653</v>
       </c>
       <c r="H21">
-        <v>0.0003236910959609762</v>
+        <v>0.0001552563473776747</v>
       </c>
       <c r="I21">
-        <v>0.007986021384795094</v>
+        <v>0.006184877136679923</v>
       </c>
       <c r="J21">
-        <v>0.3061034482069687</v>
+        <v>0.2483195313784421</v>
       </c>
       <c r="K21">
-        <v>0.3847066835023654</v>
+        <v>0.3308029134318957</v>
       </c>
       <c r="L21">
-        <v>0.1306470541351548</v>
+        <v>0.1354452367967127</v>
       </c>
       <c r="M21">
-        <v>1.857075324742311</v>
+        <v>0.1159295691976254</v>
       </c>
       <c r="N21">
-        <v>0.4792120637209223</v>
+        <v>0.1177926577770186</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.864999993501328</v>
       </c>
       <c r="P21">
-        <v>0.8488228183942397</v>
+        <v>0.5149102473981344</v>
       </c>
       <c r="Q21">
-        <v>1.419844256613146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8456277685174456</v>
+      </c>
+      <c r="S21">
+        <v>1.299791490001155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.33829625422382</v>
+        <v>1.222819992912349</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1698993411857117</v>
+        <v>0.1683091391339246</v>
       </c>
       <c r="E22">
-        <v>0.1079272432150411</v>
+        <v>0.09795218847345311</v>
       </c>
       <c r="F22">
-        <v>0.6907899892373024</v>
+        <v>0.6280752286748168</v>
       </c>
       <c r="G22">
-        <v>0.4067735383804774</v>
+        <v>0.4937698007666853</v>
       </c>
       <c r="H22">
-        <v>9.418637812852459E-05</v>
+        <v>2.43420044652165E-05</v>
       </c>
       <c r="I22">
-        <v>0.00665305307038988</v>
+        <v>0.005133686098815815</v>
       </c>
       <c r="J22">
-        <v>0.3103473124633922</v>
+        <v>0.2129085809774622</v>
       </c>
       <c r="K22">
-        <v>0.382412304973947</v>
+        <v>0.324765532323628</v>
       </c>
       <c r="L22">
-        <v>0.1330594497409305</v>
+        <v>0.1319159714908835</v>
       </c>
       <c r="M22">
-        <v>1.984629820345333</v>
+        <v>0.1164173350706648</v>
       </c>
       <c r="N22">
-        <v>0.5115585542548615</v>
+        <v>0.1199412667335743</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.977038874093921</v>
       </c>
       <c r="P22">
-        <v>0.8326594569962467</v>
+        <v>0.5467934458976202</v>
       </c>
       <c r="Q22">
-        <v>1.461560642466395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8376733074996849</v>
+      </c>
+      <c r="S22">
+        <v>1.301496200543852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.294001777395891</v>
+        <v>1.183262135866983</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1662210583843375</v>
+        <v>0.1628275966850339</v>
       </c>
       <c r="E23">
-        <v>0.1068465207425504</v>
+        <v>0.09662763190613255</v>
       </c>
       <c r="F23">
-        <v>0.6804300246104731</v>
+        <v>0.6265944119823175</v>
       </c>
       <c r="G23">
-        <v>0.3993426445162527</v>
+        <v>0.452665817288036</v>
       </c>
       <c r="H23">
-        <v>0.0001977313657204327</v>
+        <v>7.819502621586594E-05</v>
       </c>
       <c r="I23">
-        <v>0.007001158337135216</v>
+        <v>0.005273301189468782</v>
       </c>
       <c r="J23">
-        <v>0.3084822375757739</v>
+        <v>0.2370491585581149</v>
       </c>
       <c r="K23">
-        <v>0.3847365188976397</v>
+        <v>0.3292738881173065</v>
       </c>
       <c r="L23">
-        <v>0.1319027285135808</v>
+        <v>0.1341876419185493</v>
       </c>
       <c r="M23">
-        <v>1.91418566778691</v>
+        <v>0.1166987100049433</v>
       </c>
       <c r="N23">
-        <v>0.4924033150183647</v>
+        <v>0.1188936822748535</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.918167902175895</v>
       </c>
       <c r="P23">
-        <v>0.8405893736913654</v>
+        <v>0.5286259863324858</v>
       </c>
       <c r="Q23">
-        <v>1.441798808888336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8403282571575375</v>
+      </c>
+      <c r="S23">
+        <v>1.308216264581262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.118291232626859</v>
+        <v>1.026383014525891</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1519245545189278</v>
+        <v>0.1446358519225228</v>
       </c>
       <c r="E24">
-        <v>0.1023412876699226</v>
+        <v>0.09194786627831242</v>
       </c>
       <c r="F24">
-        <v>0.6403926963424666</v>
+        <v>0.6100800354481422</v>
       </c>
       <c r="G24">
-        <v>0.3708317409536903</v>
+        <v>0.3483567070453972</v>
       </c>
       <c r="H24">
-        <v>0.0009630838661152108</v>
+        <v>0.000590654156664594</v>
       </c>
       <c r="I24">
-        <v>0.009193936552178705</v>
+        <v>0.006709520952240311</v>
       </c>
       <c r="J24">
-        <v>0.3013205553629348</v>
+        <v>0.3138612171223372</v>
       </c>
       <c r="K24">
-        <v>0.3921523223401309</v>
+        <v>0.343028246631869</v>
       </c>
       <c r="L24">
-        <v>0.1272608032530638</v>
+        <v>0.1422616638781271</v>
       </c>
       <c r="M24">
-        <v>1.651577424179465</v>
+        <v>0.1166524884389073</v>
       </c>
       <c r="N24">
-        <v>0.423317607297804</v>
+        <v>0.1147314094091407</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.680189258190182</v>
       </c>
       <c r="P24">
-        <v>0.8729846181976555</v>
+        <v>0.458934584388885</v>
       </c>
       <c r="Q24">
-        <v>1.365957614174931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8577787988783641</v>
+      </c>
+      <c r="S24">
+        <v>1.301573334302589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9275488078612284</v>
+        <v>0.8564846175407013</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1365825994650933</v>
+        <v>0.1300499281029062</v>
       </c>
       <c r="E25">
-        <v>0.09741245110850372</v>
+        <v>0.08792327965629987</v>
       </c>
       <c r="F25">
-        <v>0.5995391446489293</v>
+        <v>0.5754626302767676</v>
       </c>
       <c r="G25">
-        <v>0.3420110140652781</v>
+        <v>0.3166075169636215</v>
       </c>
       <c r="H25">
-        <v>0.002521259140274346</v>
+        <v>0.001797345693706709</v>
       </c>
       <c r="I25">
-        <v>0.0122340263490468</v>
+        <v>0.008858914057802814</v>
       </c>
       <c r="J25">
-        <v>0.2947984372726964</v>
+        <v>0.314797779240017</v>
       </c>
       <c r="K25">
-        <v>0.4010712935054563</v>
+        <v>0.3542258906177693</v>
       </c>
       <c r="L25">
-        <v>0.1221216237003668</v>
+        <v>0.1503762288351744</v>
       </c>
       <c r="M25">
-        <v>1.368718802381096</v>
+        <v>0.1163084443130664</v>
       </c>
       <c r="N25">
-        <v>0.3494953119938771</v>
+        <v>0.1099160860272516</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.388765639888533</v>
       </c>
       <c r="P25">
-        <v>0.9105337063167696</v>
+        <v>0.3766493677367606</v>
       </c>
       <c r="Q25">
-        <v>1.290740771762657</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8865591406165088</v>
+      </c>
+      <c r="S25">
+        <v>1.2413909310837</v>
       </c>
     </row>
   </sheetData>
